--- a/OneClick Hotel/VAT 2022 one.xlsx
+++ b/OneClick Hotel/VAT 2022 one.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47378AD-F1DF-4882-BBC0-90D4A80DB69E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC8FACE-912C-44FC-A8CA-30746C62AF89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="167">
   <si>
     <t>TIN</t>
   </si>
@@ -176,9 +176,6 @@
     <t>QUINCAILLEIRE DARRIVAGES LTD</t>
   </si>
   <si>
-    <t>SDC007003882/236</t>
-  </si>
-  <si>
     <t>RIGHT CLICK COMPANY LIMITED</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>FOLISENO LTD</t>
   </si>
   <si>
-    <t>SDC007012345/415</t>
-  </si>
-  <si>
     <t>SHADES "N" COLORS LTD</t>
   </si>
   <si>
@@ -383,9 +377,6 @@
     <t>D.V.B LTD</t>
   </si>
   <si>
-    <t>SDC005006849/97267</t>
-  </si>
-  <si>
     <t>CHALOM COMPANY LTD</t>
   </si>
   <si>
@@ -483,6 +474,60 @@
   </si>
   <si>
     <t>SDC004004840/794752</t>
+  </si>
+  <si>
+    <t>SDC007003882/235</t>
+  </si>
+  <si>
+    <t>SDC007012345/451</t>
+  </si>
+  <si>
+    <t>SDC005006848/97267</t>
+  </si>
+  <si>
+    <t>ANYNAME</t>
+  </si>
+  <si>
+    <t>SDC010024405/66</t>
+  </si>
+  <si>
+    <t>SDC010014500/1841</t>
+  </si>
+  <si>
+    <t>SDC010019928/361</t>
+  </si>
+  <si>
+    <t>SDC007000820/17224</t>
+  </si>
+  <si>
+    <t>SDC010015373/4640</t>
+  </si>
+  <si>
+    <t>SDC007072879/12012</t>
+  </si>
+  <si>
+    <t>SDC010024405/85</t>
+  </si>
+  <si>
+    <t>SDC007022491/2584</t>
+  </si>
+  <si>
+    <t>SDC008000848/1221</t>
+  </si>
+  <si>
+    <t>SDC008000848/1222</t>
+  </si>
+  <si>
+    <t>SDC008000848/1223</t>
+  </si>
+  <si>
+    <t>SDC008000848/1224</t>
+  </si>
+  <si>
+    <t>SDC004005848/109873</t>
+  </si>
+  <si>
+    <t>SDC007022491/2608</t>
   </si>
 </sst>
 </file>
@@ -490,7 +535,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -509,7 +554,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +564,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,18 +638,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -617,22 +664,49 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -973,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,37 +1059,38 @@
     <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="5">
         <v>101967453</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1027,51 +1102,51 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="24">
         <v>44599</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>270600</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f t="shared" ref="G2:G65" si="0">F2*100/118</f>
         <v>229322.03389830509</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <f t="shared" ref="H2:H65" si="1">G2*18%</f>
         <v>41277.966101694918</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>102416331</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="25">
         <v>44599</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="17">
         <v>24000</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="18">
         <f t="shared" si="0"/>
         <v>20338.983050847459</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="18">
         <f t="shared" si="1"/>
         <v>3661.0169491525426</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="6">
         <v>107343569</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1083,51 +1158,51 @@
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="24">
         <v>44599</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>50000</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>42372.881355932201</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
         <v>7627.1186440677957</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>106286070</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="26">
         <v>44600</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="18">
         <v>20800</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="18">
         <f t="shared" si="0"/>
         <v>17627.118644067796</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="18">
         <f t="shared" si="1"/>
         <v>3172.881355932203</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>102565074</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1139,23 +1214,23 @@
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="24">
         <v>44600</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>4860</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>4118.6440677966102</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>741.35593220338978</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>102997974</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1167,23 +1242,23 @@
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="24">
         <v>44600</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>95000</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>80508.474576271183</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>14491.525423728812</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="5">
         <v>101411885</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1195,23 +1270,23 @@
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="24">
         <v>44601</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>3900</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>3305.0847457627119</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>594.91525423728808</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="5">
         <v>101546434</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1223,23 +1298,23 @@
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="24">
         <v>44601</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>18000</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>15254.237288135593</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>2745.7627118644068</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="5">
         <v>102997974</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1251,23 +1326,23 @@
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="24">
         <v>44601</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>95000</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>80508.474576271183</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>14491.525423728812</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="5">
         <v>101506622</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1279,23 +1354,23 @@
       <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="24">
         <v>44602</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>16000</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>13559.322033898305</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
         <v>2440.6779661016949</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="5">
         <v>100014220</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1307,23 +1382,23 @@
       <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="24">
         <v>44602</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>24000</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
         <v>20338.983050847459</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
         <v>3661.0169491525426</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="5">
         <v>101546434</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1335,23 +1410,23 @@
       <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="3">
-        <v>44602</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="24">
+        <v>44608</v>
+      </c>
+      <c r="F13" s="3">
         <v>20000</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
         <v>16949.152542372882</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
         <v>3050.8474576271187</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="5">
         <v>101546434</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1363,24 +1438,24 @@
       <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="24">
         <v>44602</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>16200</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>13728.813559322034</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
         <v>2471.1864406779659</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>103027029</v>
+      <c r="A15" s="5">
+        <v>103027028</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>33</v>
@@ -1391,23 +1466,23 @@
       <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="24">
         <v>44602</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>91000</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>77118.644067796617</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
         <v>13881.355932203391</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="5">
         <v>102565074</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1419,24 +1494,24 @@
       <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="24">
         <v>44602</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>4600</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="0"/>
         <v>3898.3050847457625</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="1"/>
         <v>701.69491525423723</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>103375791</v>
+      <c r="A17" s="7">
+        <v>103375391</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>36</v>
@@ -1447,23 +1522,23 @@
       <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="24">
         <v>44602</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>72900</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="0"/>
         <v>61779.661016949154</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="1"/>
         <v>11120.338983050848</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="5">
         <v>102080243</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1475,51 +1550,51 @@
       <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="24">
         <v>44602</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>6000</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f t="shared" si="0"/>
         <v>5084.7457627118647</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f t="shared" si="1"/>
         <v>915.25423728813564</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="5">
         <v>101710867</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="E19" s="24">
         <v>44602</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>53100</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <f>F19*100/118</f>
         <v>45000</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f>G19*18%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="5">
         <v>105336378</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1531,23 +1606,23 @@
       <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="24">
         <v>44603</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>19000</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <f t="shared" si="0"/>
         <v>16101.694915254237</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <f t="shared" si="1"/>
         <v>2898.3050847457625</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="5">
         <v>119553030</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1559,23 +1634,23 @@
       <c r="D21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="24">
         <v>44603</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>18492</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <f t="shared" si="0"/>
         <v>15671.186440677966</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <f t="shared" si="1"/>
         <v>2820.8135593220336</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="5">
         <v>103319698</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1587,23 +1662,23 @@
       <c r="D22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="24">
         <v>44603</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>60000</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <f t="shared" si="0"/>
         <v>50847.457627118645</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <f>G22*18%</f>
         <v>9152.5423728813566</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="5">
         <v>103214294</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1615,23 +1690,23 @@
       <c r="D23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="24">
         <v>44603</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>5000</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <f t="shared" si="0"/>
         <v>4237.2881355932204</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f t="shared" si="1"/>
         <v>762.71186440677968</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="5">
         <v>103319698</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1641,109 +1716,109 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="24">
+        <v>44603</v>
+      </c>
+      <c r="F24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>25423.728813559323</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>4576.2711864406783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>101710867</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="3">
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="24">
         <v>44603</v>
       </c>
-      <c r="F24" s="4">
-        <v>30000</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="0"/>
-        <v>25423.728813559323</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="1"/>
-        <v>4576.2711864406783</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>101710867</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>8474.5762711864409</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
+        <v>1525.4237288135594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>102163751</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="3">
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="24">
         <v>44603</v>
       </c>
-      <c r="F25" s="4">
-        <v>10000</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="0"/>
-        <v>8474.5762711864409</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" si="1"/>
-        <v>1525.4237288135594</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>102163751</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="3">
+        <v>80000</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>67796.610169491527</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>12203.389830508475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>103187684</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="3">
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="24">
         <v>44603</v>
       </c>
-      <c r="F26" s="4">
-        <v>80000</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="0"/>
-        <v>67796.610169491527</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="1"/>
-        <v>12203.389830508475</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>103187684</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="3">
-        <v>44603</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>18000</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <f t="shared" si="0"/>
         <v>15254.237288135593</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f t="shared" si="1"/>
         <v>2745.7627118644068</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="5">
         <v>102080243</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1753,221 +1828,221 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="24">
+        <v>44603</v>
+      </c>
+      <c r="F28" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>12711.864406779661</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>113472758</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="3">
-        <v>44603</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="24">
+        <v>44605</v>
+      </c>
+      <c r="F29" s="3">
         <v>15000</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G29" s="3">
         <f t="shared" si="0"/>
         <v>12711.864406779661</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H29" s="3">
         <f t="shared" si="1"/>
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>113472758</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>119789715</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="3">
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="24">
         <v>44605</v>
       </c>
-      <c r="F29" s="4">
-        <v>15000</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="0"/>
-        <v>12711.864406779661</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="1"/>
-        <v>2288.1355932203392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>119372085</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>1525.4237288135594</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="1"/>
+        <v>274.57627118644069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>107794460</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="3">
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="24">
         <v>44605</v>
       </c>
-      <c r="F30" s="4">
-        <v>1800</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="0"/>
-        <v>1525.4237288135594</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" si="1"/>
-        <v>274.57627118644069</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>107794460</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="3">
+        <v>31000</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>26271.186440677968</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="1"/>
+        <v>4728.8135593220341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>108246916</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="3">
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="24">
         <v>44605</v>
       </c>
-      <c r="F31" s="4">
-        <v>31000</v>
-      </c>
-      <c r="G31" s="4">
-        <f t="shared" si="0"/>
-        <v>26271.186440677968</v>
-      </c>
-      <c r="H31" s="4">
-        <f t="shared" si="1"/>
-        <v>4728.8135593220341</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>108246916</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>29661.016949152541</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="1"/>
+        <v>5338.983050847457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>108458464</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="3">
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="24">
         <v>44605</v>
       </c>
-      <c r="F32" s="4">
-        <v>35000</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="0"/>
-        <v>29661.016949152541</v>
-      </c>
-      <c r="H32" s="4">
-        <f t="shared" si="1"/>
-        <v>5338.983050847457</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>108458464</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="F33" s="3">
+        <v>45000</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>38135.593220338982</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
+        <v>6864.4067796610161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>101873476</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="3">
-        <v>44605</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="E34" s="24">
+        <v>44606</v>
+      </c>
+      <c r="F34" s="3">
+        <v>12980</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="1"/>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>106498874</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="26">
+        <v>44606</v>
+      </c>
+      <c r="F35" s="18">
         <v>45000</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G35" s="18">
         <f t="shared" si="0"/>
         <v>38135.593220338982</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H35" s="18">
         <f t="shared" si="1"/>
         <v>6864.4067796610161</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>101873476</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="3">
-        <v>44606</v>
-      </c>
-      <c r="F34" s="4">
-        <v>12980</v>
-      </c>
-      <c r="G34" s="4">
-        <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" si="1"/>
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>106498874</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="3">
-        <v>44606</v>
-      </c>
-      <c r="F35" s="4">
-        <v>45000</v>
-      </c>
-      <c r="G35" s="4">
-        <f t="shared" si="0"/>
-        <v>38135.593220338982</v>
-      </c>
-      <c r="H35" s="4">
-        <f t="shared" si="1"/>
-        <v>6864.4067796610161</v>
-      </c>
-    </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="5">
         <v>107343569</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1977,25 +2052,25 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="3">
+        <v>70</v>
+      </c>
+      <c r="E36" s="24">
         <v>44606</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>59000</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="5">
         <v>106286070</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2005,25 +2080,25 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="3">
+        <v>71</v>
+      </c>
+      <c r="E37" s="24">
         <v>44607</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>5000</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <f t="shared" si="0"/>
         <v>4237.2881355932204</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <f t="shared" si="1"/>
         <v>762.71186440677968</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="5">
         <v>106286070</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2033,81 +2108,81 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="24">
+        <v>44607</v>
+      </c>
+      <c r="F38" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="0"/>
+        <v>8474.5762711864409</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="1"/>
+        <v>1525.4237288135594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>113472758</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="24">
+        <v>44607</v>
+      </c>
+      <c r="F39" s="3">
+        <v>48000</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>40677.966101694918</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="1"/>
+        <v>7322.0338983050851</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>107972890</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="3">
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="24">
         <v>44607</v>
       </c>
-      <c r="F38" s="4">
-        <v>10000</v>
-      </c>
-      <c r="G38" s="4">
-        <f t="shared" si="0"/>
-        <v>8474.5762711864409</v>
-      </c>
-      <c r="H38" s="4">
-        <f t="shared" si="1"/>
-        <v>1525.4237288135594</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>113472758</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="3">
-        <v>44607</v>
-      </c>
-      <c r="F39" s="4">
-        <v>48000</v>
-      </c>
-      <c r="G39" s="4">
-        <f t="shared" si="0"/>
-        <v>40677.966101694918</v>
-      </c>
-      <c r="H39" s="4">
-        <f t="shared" si="1"/>
-        <v>7322.0338983050851</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
-        <v>107972890</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="3">
-        <v>44607</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>45000</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <f t="shared" si="0"/>
         <v>38135.593220338982</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="3">
         <f t="shared" si="1"/>
         <v>6864.4067796610161</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="5">
         <v>102416331</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2117,81 +2192,81 @@
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="24">
+        <v>44608</v>
+      </c>
+      <c r="F41" s="3">
+        <v>28200</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="0"/>
+        <v>23898.305084745763</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="1"/>
+        <v>4301.6949152542375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>100028318</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E42" s="27">
         <v>44608</v>
       </c>
-      <c r="F41" s="4">
-        <v>28200</v>
-      </c>
-      <c r="G41" s="4">
-        <f t="shared" si="0"/>
-        <v>23898.305084745763</v>
-      </c>
-      <c r="H41" s="4">
-        <f t="shared" si="1"/>
-        <v>4301.6949152542375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>100028318</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="F42" s="3">
+        <v>74000</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="0"/>
+        <v>62711.864406779663</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="1"/>
+        <v>11288.135593220339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E43" s="24">
         <v>44608</v>
       </c>
-      <c r="F42" s="4">
-        <v>74000</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" si="0"/>
-        <v>62711.864406779663</v>
-      </c>
-      <c r="H42" s="4">
-        <f t="shared" si="1"/>
-        <v>11288.135593220339</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>102181072</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="3">
-        <v>44608</v>
-      </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>5300</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <f t="shared" si="0"/>
         <v>4491.5254237288136</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="3">
         <f t="shared" si="1"/>
         <v>808.47457627118638</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+      <c r="A44" s="8">
         <v>106286070</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2201,53 +2276,53 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="24">
+        <v>44609</v>
+      </c>
+      <c r="F44" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="0"/>
+        <v>21186.4406779661</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="1"/>
+        <v>3813.5593220338978</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>102089702</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E45" s="24">
         <v>44609</v>
       </c>
-      <c r="F44" s="4">
-        <v>25000</v>
-      </c>
-      <c r="G44" s="4">
-        <f t="shared" si="0"/>
-        <v>21186.4406779661</v>
-      </c>
-      <c r="H44" s="4">
-        <f t="shared" si="1"/>
-        <v>3813.5593220338978</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
-        <v>102089702</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="3">
-        <v>44609</v>
-      </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>12500</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <f t="shared" si="0"/>
         <v>10593.22033898305</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="3">
         <f t="shared" si="1"/>
         <v>1906.7796610169489</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="A46" s="8">
         <v>101411885</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2257,25 +2332,25 @@
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="3">
+        <v>84</v>
+      </c>
+      <c r="E46" s="24">
         <v>44609</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="3">
         <f t="shared" si="0"/>
         <v>1779.6610169491526</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="3">
         <f t="shared" si="1"/>
         <v>320.33898305084745</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
+      <c r="A47" s="8">
         <v>101967453</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2285,221 +2360,221 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="24">
+        <v>44609</v>
+      </c>
+      <c r="F47" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="0"/>
+        <v>10169.491525423729</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="1"/>
+        <v>1830.5084745762713</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>102781542</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E48" s="24">
         <v>44609</v>
       </c>
-      <c r="F47" s="4">
-        <v>12000</v>
-      </c>
-      <c r="G47" s="4">
-        <f t="shared" si="0"/>
-        <v>10169.491525423729</v>
-      </c>
-      <c r="H47" s="4">
-        <f t="shared" si="1"/>
-        <v>1830.5084745762713</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+      <c r="F48" s="3">
+        <v>224500</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="0"/>
+        <v>190254.2372881356</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="1"/>
+        <v>34245.762711864409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>102781542</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E49" s="24">
+        <v>44609</v>
+      </c>
+      <c r="F49" s="3">
+        <v>408400</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="0"/>
+        <v>346101.69491525425</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="1"/>
+        <v>62298.305084745763</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21">
+        <v>102781991</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="3">
+      <c r="C50" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="26">
         <v>44609</v>
       </c>
-      <c r="F48" s="4">
-        <v>224500</v>
-      </c>
-      <c r="G48" s="4">
-        <f t="shared" si="0"/>
-        <v>190254.2372881356</v>
-      </c>
-      <c r="H48" s="4">
-        <f t="shared" si="1"/>
-        <v>34245.762711864409</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
+      <c r="F50" s="18">
+        <v>38586</v>
+      </c>
+      <c r="G50" s="18">
+        <f t="shared" si="0"/>
+        <v>32700</v>
+      </c>
+      <c r="H50" s="18">
+        <f t="shared" si="1"/>
+        <v>5886</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>102089702</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="24">
+        <v>44610</v>
+      </c>
+      <c r="F51" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="0"/>
+        <v>8474.5762711864409</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="1"/>
+        <v>1525.4237288135594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>107167198</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="24">
+        <v>44610</v>
+      </c>
+      <c r="F52" s="3">
+        <v>64800</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="0"/>
+        <v>54915.254237288136</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="1"/>
+        <v>9884.7457627118638</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21">
+        <v>106562632</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="26">
+        <v>44610</v>
+      </c>
+      <c r="F53" s="18">
+        <v>20000</v>
+      </c>
+      <c r="G53" s="18">
+        <f t="shared" si="0"/>
+        <v>16949.152542372882</v>
+      </c>
+      <c r="H53" s="18">
+        <f t="shared" si="1"/>
+        <v>3050.8474576271187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>102781542</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" s="3">
-        <v>44609</v>
-      </c>
-      <c r="F49" s="4">
-        <v>408400</v>
-      </c>
-      <c r="G49" s="4">
-        <f t="shared" si="0"/>
-        <v>346101.69491525425</v>
-      </c>
-      <c r="H49" s="4">
-        <f t="shared" si="1"/>
-        <v>62298.305084745763</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
-        <v>102781991</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="3">
-        <v>44609</v>
-      </c>
-      <c r="F50" s="4">
-        <v>38586</v>
-      </c>
-      <c r="G50" s="4">
-        <f t="shared" si="0"/>
-        <v>32700</v>
-      </c>
-      <c r="H50" s="4">
-        <f t="shared" si="1"/>
-        <v>5886</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
-        <v>102089702</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51" s="3">
-        <v>44610</v>
-      </c>
-      <c r="F51" s="4">
-        <v>10000</v>
-      </c>
-      <c r="G51" s="4">
-        <f t="shared" si="0"/>
-        <v>8474.5762711864409</v>
-      </c>
-      <c r="H51" s="4">
-        <f t="shared" si="1"/>
-        <v>1525.4237288135594</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
-        <v>107167198</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="3">
-        <v>44610</v>
-      </c>
-      <c r="F52" s="4">
-        <v>64800</v>
-      </c>
-      <c r="G52" s="4">
-        <f t="shared" si="0"/>
-        <v>54915.254237288136</v>
-      </c>
-      <c r="H52" s="4">
-        <f t="shared" si="1"/>
-        <v>9884.7457627118638</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
-        <v>106562632</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="3">
-        <v>44610</v>
-      </c>
-      <c r="F53" s="4">
-        <v>20000</v>
-      </c>
-      <c r="G53" s="4">
-        <f t="shared" si="0"/>
-        <v>16949.152542372882</v>
-      </c>
-      <c r="H53" s="4">
-        <f t="shared" si="1"/>
-        <v>3050.8474576271187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
-        <v>102781542</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54" s="3">
-        <v>44610</v>
-      </c>
-      <c r="F54" s="4">
-        <v>14400</v>
-      </c>
-      <c r="G54" s="4">
-        <f t="shared" si="0"/>
-        <v>12203.389830508475</v>
-      </c>
-      <c r="H54" s="4">
-        <f t="shared" si="1"/>
-        <v>2196.6101694915255</v>
+      <c r="E54" s="24">
+        <v>44611</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="0"/>
+        <v>2033.8983050847457</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="1"/>
+        <v>366.1016949152542</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+      <c r="A55" s="8">
         <v>101411885</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2509,165 +2584,165 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="24">
+        <v>44612</v>
+      </c>
+      <c r="F55" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="0"/>
+        <v>2542.3728813559323</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="1"/>
+        <v>457.62711864406782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21">
+        <v>100022231</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="3">
-        <v>44612</v>
-      </c>
-      <c r="F55" s="4">
-        <v>3000</v>
-      </c>
-      <c r="G55" s="4">
-        <f t="shared" si="0"/>
-        <v>2542.3728813559323</v>
-      </c>
-      <c r="H55" s="4">
-        <f t="shared" si="1"/>
-        <v>457.62711864406782</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
-        <v>100022231</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="E56" s="26">
+        <v>44613</v>
+      </c>
+      <c r="F56" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G56" s="18">
+        <f t="shared" si="0"/>
+        <v>847.45762711864404</v>
+      </c>
+      <c r="H56" s="18">
+        <f t="shared" si="1"/>
+        <v>152.54237288135593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>119098861</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E57" s="24">
         <v>44613</v>
       </c>
-      <c r="F56" s="4">
-        <v>1000</v>
-      </c>
-      <c r="G56" s="4">
-        <f t="shared" si="0"/>
-        <v>847.45762711864404</v>
-      </c>
-      <c r="H56" s="4">
-        <f t="shared" si="1"/>
-        <v>152.54237288135593</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
-        <v>109098861</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="F57" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="0"/>
+        <v>10169.491525423729</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="1"/>
+        <v>1830.5084745762713</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>102781542</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="E58" s="24">
+        <v>44614</v>
+      </c>
+      <c r="F58" s="3">
+        <v>227400</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="0"/>
+        <v>192711.86440677967</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="1"/>
+        <v>34688.135593220337</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>103549544</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="3">
-        <v>44613</v>
-      </c>
-      <c r="F57" s="4">
-        <v>12000</v>
-      </c>
-      <c r="G57" s="4">
-        <f t="shared" si="0"/>
-        <v>10169.491525423729</v>
-      </c>
-      <c r="H57" s="4">
-        <f t="shared" si="1"/>
-        <v>1830.5084745762713</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
-        <v>102781542</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E59" s="24">
         <v>44614</v>
       </c>
-      <c r="F58" s="4">
-        <v>227400</v>
-      </c>
-      <c r="G58" s="4">
-        <f t="shared" si="0"/>
-        <v>192711.86440677967</v>
-      </c>
-      <c r="H58" s="4">
-        <f t="shared" si="1"/>
-        <v>34688.135593220337</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
-        <v>103549544</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="F59" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="0"/>
+        <v>127118.64406779662</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="1"/>
+        <v>22881.355932203391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>103499152</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E60" s="24">
         <v>44614</v>
       </c>
-      <c r="F59" s="4">
-        <v>150000</v>
-      </c>
-      <c r="G59" s="4">
-        <f t="shared" si="0"/>
-        <v>127118.64406779662</v>
-      </c>
-      <c r="H59" s="4">
-        <f t="shared" si="1"/>
-        <v>22881.355932203391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
-        <v>103499152</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" s="3">
-        <v>44614</v>
-      </c>
-      <c r="F60" s="4">
+      <c r="F60" s="3">
         <v>24000</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="3">
         <f t="shared" si="0"/>
         <v>20338.983050847459</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="3">
         <f t="shared" si="1"/>
         <v>3661.0169491525426</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+      <c r="A61" s="5">
         <v>103319698</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2677,137 +2752,137 @@
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="24">
+        <v>44614</v>
+      </c>
+      <c r="F61" s="3">
+        <v>123000</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="0"/>
+        <v>104237.28813559322</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="1"/>
+        <v>18762.711864406778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
+        <v>111738571</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E62" s="26">
         <v>44614</v>
       </c>
-      <c r="F61" s="4">
-        <v>123000</v>
-      </c>
-      <c r="G61" s="4">
-        <f t="shared" si="0"/>
-        <v>104237.28813559322</v>
-      </c>
-      <c r="H61" s="4">
-        <f t="shared" si="1"/>
-        <v>18762.711864406778</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
-        <v>111738571</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="F62" s="18">
+        <v>41050</v>
+      </c>
+      <c r="G62" s="18">
+        <f t="shared" si="0"/>
+        <v>34788.135593220337</v>
+      </c>
+      <c r="H62" s="18">
+        <f t="shared" si="1"/>
+        <v>6261.8644067796604</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="E63" s="24">
+        <v>44614</v>
+      </c>
+      <c r="F63" s="3">
+        <v>24500</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="0"/>
+        <v>20762.711864406781</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="1"/>
+        <v>3737.2881355932204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E62" s="3">
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" s="24">
         <v>44614</v>
       </c>
-      <c r="F62" s="4">
-        <v>41050</v>
-      </c>
-      <c r="G62" s="4">
-        <f t="shared" si="0"/>
-        <v>34788.135593220337</v>
-      </c>
-      <c r="H62" s="4">
-        <f t="shared" si="1"/>
-        <v>6261.8644067796604</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
-        <v>102181072</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E63" s="3">
-        <v>44614</v>
-      </c>
-      <c r="F63" s="4">
-        <v>24500</v>
-      </c>
-      <c r="G63" s="4">
-        <f t="shared" si="0"/>
-        <v>20762.711864406781</v>
-      </c>
-      <c r="H63" s="4">
-        <f t="shared" si="1"/>
-        <v>3737.2881355932204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
-        <v>101506622</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="F64" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="0"/>
+        <v>12711.864406779661</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="1"/>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>101873476</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="3">
-        <v>44614</v>
-      </c>
-      <c r="F64" s="4">
-        <v>15000</v>
-      </c>
-      <c r="G64" s="4">
-        <f t="shared" si="0"/>
-        <v>12711.864406779661</v>
-      </c>
-      <c r="H64" s="4">
-        <f t="shared" si="1"/>
-        <v>2288.1355932203392</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>101873476</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" s="3">
+      <c r="E65" s="24">
         <v>44615</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="3">
         <v>24000</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="3">
         <f t="shared" si="0"/>
         <v>20338.983050847459</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="3">
         <f t="shared" si="1"/>
         <v>3661.0169491525426</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+      <c r="A66" s="5">
         <v>101546434</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -2817,109 +2892,109 @@
         <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" s="3">
+        <v>114</v>
+      </c>
+      <c r="E66" s="24">
         <v>44616</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="3">
         <v>26000</v>
       </c>
-      <c r="G66" s="4">
-        <f t="shared" ref="G66:G87" si="2">F66*100/118</f>
+      <c r="G66" s="3">
+        <f t="shared" ref="G66:G88" si="2">F66*100/118</f>
         <v>22033.898305084746</v>
       </c>
-      <c r="H66" s="4">
-        <f t="shared" ref="H66:H87" si="3">G66*18%</f>
+      <c r="H66" s="3">
+        <f t="shared" ref="H66:H88" si="3">G66*18%</f>
         <v>3966.101694915254</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
+      <c r="A67" s="5">
         <v>101506622</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E67" s="3">
+        <v>151</v>
+      </c>
+      <c r="E67" s="24">
         <v>44617</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="3">
         <v>16000</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="3">
         <f t="shared" si="2"/>
         <v>13559.322033898305</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="3">
         <f t="shared" si="3"/>
         <v>2440.6779661016949</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
+      <c r="A68" s="5">
         <v>119250153</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E68" s="3">
+        <v>117</v>
+      </c>
+      <c r="E68" s="24">
         <v>44617</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="3">
         <v>8000</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="3">
         <f t="shared" si="2"/>
         <v>6779.6610169491523</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="3">
         <f t="shared" si="3"/>
         <v>1220.3389830508474</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="12">
+      <c r="A69" s="8">
         <v>101506622</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" s="3">
+        <v>118</v>
+      </c>
+      <c r="E69" s="24">
         <v>44617</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="3">
         <v>7400</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="3">
         <f t="shared" si="2"/>
         <v>6271.1864406779659</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="3">
         <f t="shared" si="3"/>
         <v>1128.8135593220338</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
+      <c r="A70" s="5">
         <v>106286070</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2929,81 +3004,81 @@
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E70" s="3">
+        <v>119</v>
+      </c>
+      <c r="E70" s="24">
         <v>44617</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="3">
         <v>15000</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="3">
         <f t="shared" si="2"/>
         <v>12711.864406779661</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="3">
         <f t="shared" si="3"/>
         <v>2288.1355932203392</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
+      <c r="A71" s="5">
         <v>104476892</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71" s="3">
+        <v>122</v>
+      </c>
+      <c r="E71" s="24">
         <v>44618</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="3">
         <v>6000</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="3">
         <f t="shared" si="2"/>
         <v>5084.7457627118647</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="3">
         <f t="shared" si="3"/>
         <v>915.25423728813564</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+      <c r="A72" s="5">
         <v>108173992</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E72" s="3">
+        <v>124</v>
+      </c>
+      <c r="E72" s="24">
         <v>44618</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="3">
         <v>5000</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="3">
         <f t="shared" si="2"/>
         <v>4237.2881355932204</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="3">
         <f t="shared" si="3"/>
         <v>762.71186440677968</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+      <c r="A73" s="5">
         <v>102416331</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3013,305 +3088,305 @@
         <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E73" s="3">
+        <v>125</v>
+      </c>
+      <c r="E73" s="24">
         <v>44618</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="3">
         <v>2500</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="3">
         <f t="shared" si="2"/>
         <v>2118.6440677966102</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="3">
         <f t="shared" si="3"/>
         <v>381.35593220338984</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+      <c r="A74" s="5">
         <v>100451040</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E74" s="3">
+        <v>127</v>
+      </c>
+      <c r="E74" s="24">
         <v>44618</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="3">
         <v>3000</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="3">
         <f t="shared" si="2"/>
         <v>2542.3728813559323</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="3">
         <f t="shared" si="3"/>
         <v>457.62711864406782</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
+      <c r="A75" s="5">
         <v>102246990</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E75" s="3">
+        <v>129</v>
+      </c>
+      <c r="E75" s="24">
         <v>44618</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="3">
         <v>30200</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="3">
         <f t="shared" si="2"/>
         <v>25593.22033898305</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="3">
         <f t="shared" si="3"/>
         <v>4606.7796610169489</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
+      <c r="A76" s="5">
         <v>103109750</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" s="3">
+        <v>131</v>
+      </c>
+      <c r="E76" s="24">
         <v>44618</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="3">
         <v>27000</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="3">
         <f t="shared" si="2"/>
         <v>22881.355932203391</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="3">
         <f t="shared" si="3"/>
         <v>4118.6440677966102</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
+      <c r="A77" s="5">
         <v>100306858</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E77" s="3">
+        <v>133</v>
+      </c>
+      <c r="E77" s="24">
         <v>44618</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="3">
         <v>2000</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="3">
         <f t="shared" si="2"/>
         <v>1694.9152542372881</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="3">
         <f t="shared" si="3"/>
         <v>305.08474576271186</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
+      <c r="A78" s="5">
         <v>103387177</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E78" s="3">
+        <v>135</v>
+      </c>
+      <c r="E78" s="24">
         <v>44618</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="3">
         <v>34000</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="3">
         <f t="shared" si="2"/>
         <v>28813.5593220339</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="3">
         <f t="shared" si="3"/>
         <v>5186.4406779661022</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="20">
         <v>100027159</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E79" s="3">
+      <c r="B79" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" s="26">
         <v>44619</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="18">
         <v>3500</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="18">
         <f t="shared" si="2"/>
         <v>2966.101694915254</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="18">
         <f t="shared" si="3"/>
         <v>533.89830508474574</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="20">
         <v>105336378</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E80" s="3">
+      <c r="C80" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="26">
         <v>44619</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="18">
         <v>8500</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="18">
         <f t="shared" si="2"/>
         <v>7203.3898305084749</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="18">
         <f t="shared" si="3"/>
         <v>1296.6101694915255</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
+      <c r="A81" s="5">
         <v>103750561</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E81" s="3">
+        <v>140</v>
+      </c>
+      <c r="E81" s="24">
         <v>44619</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="3">
         <v>2800</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="3">
         <f t="shared" si="2"/>
         <v>2372.8813559322034</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="3">
         <f t="shared" si="3"/>
         <v>427.11864406779659</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="20">
         <v>102181072</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" s="3">
+      <c r="B82" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" s="26">
         <v>44620</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="18">
         <v>4900</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="18">
         <f>F82*100/118</f>
         <v>4152.5423728813557</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="18">
         <f>G82*18%</f>
         <v>747.45762711864404</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="20">
         <v>107124183</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E83" s="3">
+      <c r="B83" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" s="26">
         <v>44620</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="18">
         <v>90000</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="18">
         <f t="shared" si="2"/>
         <v>76271.186440677964</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="18">
         <f t="shared" si="3"/>
         <v>13728.813559322032</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
+      <c r="A84" s="5">
         <v>102416331</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3321,132 +3396,539 @@
         <v>8</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E84" s="3">
+        <v>143</v>
+      </c>
+      <c r="E84" s="24">
         <v>44620</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="3">
         <v>199800</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="3">
         <f t="shared" si="2"/>
         <v>169322.03389830509</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="3">
         <f t="shared" si="3"/>
         <v>30477.966101694914</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="20">
         <v>109138210</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E85" s="3">
+      <c r="B85" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E85" s="26">
         <v>44620</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="18">
         <v>352300</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="18">
         <f t="shared" si="2"/>
         <v>298559.32203389832</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="18">
         <f t="shared" si="3"/>
         <v>53740.677966101699</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
+      <c r="A86" s="5">
         <v>118714718</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E86" s="3">
+        <v>147</v>
+      </c>
+      <c r="E86" s="24">
         <v>44620</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="3">
         <v>48000</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="3">
         <f t="shared" si="2"/>
         <v>40677.966101694918</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="3">
         <f t="shared" si="3"/>
         <v>7322.0338983050851</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="20">
         <v>100027159</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E87" s="3">
+      <c r="B87" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87" s="26">
         <v>44620</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="18">
         <v>1600</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="18">
         <f t="shared" si="2"/>
         <v>1355.9322033898304</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="18">
         <f t="shared" si="3"/>
         <v>244.06779661016947</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="22">
+        <v>102921126</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E88" s="28">
+        <v>44600</v>
+      </c>
+      <c r="F88" s="30">
+        <v>4237.29</v>
+      </c>
+      <c r="G88" s="30">
+        <f t="shared" si="2"/>
+        <v>3590.9237288135591</v>
+      </c>
+      <c r="H88" s="30">
+        <f t="shared" si="3"/>
+        <v>646.3662711864406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="22">
+        <v>102781542</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89" s="28">
+        <v>44601</v>
+      </c>
+      <c r="F89" s="30">
+        <v>3389.84</v>
+      </c>
+      <c r="G89" s="30">
+        <f t="shared" ref="G89:G102" si="4">F89*100/118</f>
+        <v>2872.7457627118642</v>
+      </c>
+      <c r="H89" s="30">
+        <v>610.16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="22">
+        <v>107220933</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E90" s="28">
+        <v>44601</v>
+      </c>
+      <c r="F90" s="30">
+        <v>6355.93</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="4"/>
+        <v>5386.3813559322034</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1144.07</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="22">
+        <v>101967453</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E91" s="28">
+        <v>44602</v>
+      </c>
+      <c r="F91" s="30">
+        <v>64406.78</v>
+      </c>
+      <c r="G91" s="30">
+        <f t="shared" si="4"/>
+        <v>54582.016949152545</v>
+      </c>
+      <c r="H91" s="30">
+        <v>11593.22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="22">
+        <v>111401091</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" s="28">
+        <v>44602</v>
+      </c>
+      <c r="F92" s="30">
+        <v>44067.8</v>
+      </c>
+      <c r="G92" s="30">
+        <f t="shared" si="4"/>
+        <v>37345.593220338982</v>
+      </c>
+      <c r="H92" s="30">
+        <v>7932.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="22">
+        <v>101411885</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E93" s="28">
+        <v>44604</v>
+      </c>
+      <c r="F93" s="30">
+        <v>1779.66</v>
+      </c>
+      <c r="G93" s="30">
+        <f t="shared" si="4"/>
+        <v>1508.1864406779662</v>
+      </c>
+      <c r="H93" s="30">
+        <v>320.33999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="22">
+        <v>107343569</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E94" s="28">
+        <v>44606</v>
+      </c>
+      <c r="F94" s="30">
+        <v>50000</v>
+      </c>
+      <c r="G94" s="30">
+        <f t="shared" si="4"/>
+        <v>42372.881355932201</v>
+      </c>
+      <c r="H94" s="30">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="22">
+        <v>102921126</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="28">
+        <v>44609</v>
+      </c>
+      <c r="F95" s="30">
+        <v>4237.29</v>
+      </c>
+      <c r="G95" s="30">
+        <f t="shared" si="4"/>
+        <v>3590.9237288135591</v>
+      </c>
+      <c r="H95" s="30">
+        <v>762.71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="22">
+        <v>108737829</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E96" s="28">
+        <v>44615</v>
+      </c>
+      <c r="F96" s="30">
+        <v>152542.37</v>
+      </c>
+      <c r="G96" s="30">
+        <f t="shared" si="4"/>
+        <v>129273.19491525424</v>
+      </c>
+      <c r="H96" s="30">
+        <v>27457.63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="22">
+        <v>103750561</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E97" s="28">
+        <v>44619</v>
+      </c>
+      <c r="F97" s="30">
+        <v>1016.95</v>
+      </c>
+      <c r="G97" s="30">
+        <f t="shared" si="4"/>
+        <v>861.82203389830511</v>
+      </c>
+      <c r="H97" s="30">
+        <v>183.05</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="22">
+        <v>103750561</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E98" s="28">
+        <v>44619</v>
+      </c>
+      <c r="F98" s="30">
+        <v>2288.14</v>
+      </c>
+      <c r="G98" s="30">
+        <f t="shared" si="4"/>
+        <v>1939.1016949152543</v>
+      </c>
+      <c r="H98" s="30">
+        <v>411.86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="22">
+        <v>103750561</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E99" s="28">
+        <v>44619</v>
+      </c>
+      <c r="F99" s="30">
+        <v>5125.42</v>
+      </c>
+      <c r="G99" s="30">
+        <f t="shared" si="4"/>
+        <v>4343.5762711864409</v>
+      </c>
+      <c r="H99" s="30">
+        <v>274.58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="22">
+        <v>103750561</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E100" s="28">
+        <v>44619</v>
+      </c>
+      <c r="F100" s="30">
+        <v>3898.31</v>
+      </c>
+      <c r="G100" s="30">
+        <f t="shared" si="4"/>
+        <v>3303.6525423728813</v>
+      </c>
+      <c r="H100" s="30">
+        <v>701.69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="22">
+        <v>102416331</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E101" s="28">
+        <v>44620</v>
+      </c>
+      <c r="F101" s="30">
+        <v>10169.49</v>
+      </c>
+      <c r="G101" s="30">
+        <f t="shared" si="4"/>
+        <v>8618.2118644067796</v>
+      </c>
+      <c r="H101" s="30">
+        <v>1830.51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="22">
+        <v>108737829</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E102" s="28">
+        <v>44620</v>
+      </c>
+      <c r="F102" s="30">
+        <v>296610.17</v>
+      </c>
+      <c r="G102" s="30">
+        <f t="shared" si="4"/>
+        <v>251364.55084745763</v>
+      </c>
+      <c r="H102" s="30">
+        <v>53389.83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="4">
-        <f>SUM(F2:F87)</f>
-        <v>3972468</v>
-      </c>
-      <c r="G88" s="4">
-        <f>SUM(G2:G87)</f>
-        <v>3366498.3050847449</v>
-      </c>
-      <c r="H88" s="4">
-        <f>SUM(H2:H87)</f>
-        <v>605969.69491525402</v>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="30">
+        <f>SUM(F2:F102)</f>
+        <v>4610593.4399999995</v>
+      </c>
+      <c r="G103" s="30">
+        <f>SUM(G2:G102)</f>
+        <v>3907282.5762711852</v>
+      </c>
+      <c r="H103" s="30">
+        <f>SUM(H2:H102)</f>
+        <v>720397.40271186398</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A103:E103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OneClick Hotel/VAT 2022 one.xlsx
+++ b/OneClick Hotel/VAT 2022 one.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC8FACE-912C-44FC-A8CA-30746C62AF89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02070052-68CA-4D0C-8A75-160FCA97A9DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="February 2022" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="225">
   <si>
     <t>TIN</t>
   </si>
@@ -528,6 +529,180 @@
   </si>
   <si>
     <t>SDC007022491/2608</t>
+  </si>
+  <si>
+    <t>SDC002800324/7172</t>
+  </si>
+  <si>
+    <t>JACKSON BISANGABAGABO</t>
+  </si>
+  <si>
+    <t>SDC010014500/2250</t>
+  </si>
+  <si>
+    <t>DANUBE HARDWARE LTD</t>
+  </si>
+  <si>
+    <t>SDC010004321/5702</t>
+  </si>
+  <si>
+    <t>MORAN WINELAND LTD</t>
+  </si>
+  <si>
+    <t>SDC010030665/55</t>
+  </si>
+  <si>
+    <t>M.A.M.TRADING SERVICES LTD</t>
+  </si>
+  <si>
+    <t>SDC007009694/10164</t>
+  </si>
+  <si>
+    <t>SDC007000766/14953</t>
+  </si>
+  <si>
+    <t>SDC007000766/14952</t>
+  </si>
+  <si>
+    <t>SDC005006848/97807</t>
+  </si>
+  <si>
+    <t>SDC010014500/2281</t>
+  </si>
+  <si>
+    <t>PAPETERIE LA GAZELLE</t>
+  </si>
+  <si>
+    <t>SDC010026952/99</t>
+  </si>
+  <si>
+    <t>SDC007072879/14959</t>
+  </si>
+  <si>
+    <t>SDC010003408/14405</t>
+  </si>
+  <si>
+    <t>M.M.I LTD</t>
+  </si>
+  <si>
+    <t>SDC010006157/2122</t>
+  </si>
+  <si>
+    <t>SDC005006848/98169</t>
+  </si>
+  <si>
+    <t>SDC005006848/98060</t>
+  </si>
+  <si>
+    <t>BAABU STEEL  LTD</t>
+  </si>
+  <si>
+    <t>SDC007041430/212</t>
+  </si>
+  <si>
+    <t>SDC010030082/228</t>
+  </si>
+  <si>
+    <t>JEMI ONLINE SERVICE LTD</t>
+  </si>
+  <si>
+    <t>SDC007003970/171</t>
+  </si>
+  <si>
+    <t>STAR AFRICA MEDIA CO LTD</t>
+  </si>
+  <si>
+    <t>SDC007040918/5049</t>
+  </si>
+  <si>
+    <t>TOP B ONE CO LTD</t>
+  </si>
+  <si>
+    <t>SDC010014935/239</t>
+  </si>
+  <si>
+    <t>JUCOU HARDWARE LTD</t>
+  </si>
+  <si>
+    <t>SDC010020771/183</t>
+  </si>
+  <si>
+    <t>SDC010014500/2359</t>
+  </si>
+  <si>
+    <t>PHARMACIE NEZA LTD</t>
+  </si>
+  <si>
+    <t>SDC008000197/14704</t>
+  </si>
+  <si>
+    <t>KIGALI POWER LINKS LTD</t>
+  </si>
+  <si>
+    <t>SDC010004321/4936</t>
+  </si>
+  <si>
+    <t>SDC010003408/14535</t>
+  </si>
+  <si>
+    <t>SDC007004536/8542</t>
+  </si>
+  <si>
+    <t>PAPETERIE WINNING VICTORY LTD</t>
+  </si>
+  <si>
+    <t>SDC007015270/1136</t>
+  </si>
+  <si>
+    <t>SDC007072879/16027</t>
+  </si>
+  <si>
+    <t>EUCL</t>
+  </si>
+  <si>
+    <t>SDC007069937/288745</t>
+  </si>
+  <si>
+    <t>SDC010014935/244</t>
+  </si>
+  <si>
+    <t>SDC002800324/7259</t>
+  </si>
+  <si>
+    <t>SDC010003408/14609</t>
+  </si>
+  <si>
+    <t>ENTERCODEGI LTD</t>
+  </si>
+  <si>
+    <t>SDC010003793/3186</t>
+  </si>
+  <si>
+    <t>CODIMAD COMPANY LTD</t>
+  </si>
+  <si>
+    <t>SDC007070999/7997</t>
+  </si>
+  <si>
+    <t>SDC007072879/16417</t>
+  </si>
+  <si>
+    <t>SDC004004840/56748</t>
+  </si>
+  <si>
+    <t>SDC010014438/3102</t>
+  </si>
+  <si>
+    <t>SDC005006848/98878</t>
+  </si>
+  <si>
+    <t>MIDAS SPARE PARTS AND SERVICES LTD</t>
+  </si>
+  <si>
+    <t>SDC007072435/464</t>
+  </si>
+  <si>
+    <t>SDC010014500/2492</t>
   </si>
 </sst>
 </file>
@@ -535,7 +710,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -638,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -688,15 +863,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -709,6 +884,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1049,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3931,4 +4125,2296 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C164C-349C-499E-8E6B-639B77463B50}">
+  <dimension ref="A1:H103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="46"/>
+    <col min="9" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>103181072</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="24">
+        <v>44621</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G65" si="0">F2*100/118</f>
+        <v>5338.9830508474579</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H65" si="1">G2*18%</f>
+        <v>961.01694915254234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>102781542</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="38">
+        <v>44621</v>
+      </c>
+      <c r="F3" s="4">
+        <v>289000</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>244915.25423728814</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="1"/>
+        <v>44084.745762711864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>102730249</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="38">
+        <v>44622</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>84745.762711864401</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>15254.237288135591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>111679514</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="38">
+        <v>44623</v>
+      </c>
+      <c r="F5" s="3">
+        <v>31000</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>26271.186440677968</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>4728.8135593220341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>103606486</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="24">
+        <v>44623</v>
+      </c>
+      <c r="F6" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>10169.491525423729</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>1830.5084745762713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>102246990</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="24">
+        <v>44623</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>6271.1864406779659</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>1128.8135593220338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>102246990</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="24">
+        <v>44623</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>6271.1864406779659</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>1128.8135593220338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="24">
+        <v>44623</v>
+      </c>
+      <c r="F9" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>13559.322033898305</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>2440.6779661016949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="24">
+        <v>44623</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>12711.864406779661</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>101527570</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="24">
+        <v>44624</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>4661.0169491525421</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>838.98305084745755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>101411885</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="24">
+        <v>44624</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>2542.3728813559323</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>457.62711864406782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>106286070</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="24">
+        <v>44625</v>
+      </c>
+      <c r="F13" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>12711.864406779661</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>113331235</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="24">
+        <v>44625</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>9237.2881355932204</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>1662.7118644067796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="24">
+        <v>44625</v>
+      </c>
+      <c r="F15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>13559.322033898305</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>2440.6779661016949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="24">
+        <v>44626</v>
+      </c>
+      <c r="F16" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>13559.322033898305</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>2440.6779661016949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>107369906</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="24">
+        <v>44627</v>
+      </c>
+      <c r="F17" s="3">
+        <v>300000</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>254237.28813559323</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>45762.711864406781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>107972890</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="24">
+        <v>44627</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>6355.9322033898306</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>1144.0677966101696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>107343569</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="24">
+        <v>44627</v>
+      </c>
+      <c r="F19" s="3">
+        <v>59000</v>
+      </c>
+      <c r="G19" s="3">
+        <f>F19*100/118</f>
+        <v>50000</v>
+      </c>
+      <c r="H19" s="3">
+        <f>G19*18%</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>101526614</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="24">
+        <v>44627</v>
+      </c>
+      <c r="F20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>15254.237288135593</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>2745.7627118644068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>103680774</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" s="24">
+        <v>44627</v>
+      </c>
+      <c r="F21" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>42372.881355932201</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>7627.1186440677957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>119618745</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="24">
+        <v>44627</v>
+      </c>
+      <c r="F22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>18644.067796610168</v>
+      </c>
+      <c r="H22" s="3">
+        <f>G22*18%</f>
+        <v>3355.9322033898302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="24">
+        <v>44627</v>
+      </c>
+      <c r="F23" s="3">
+        <v>191300</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>162118.64406779662</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>29181.355932203391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>102808467</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="24">
+        <v>44628</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>3389.8305084745762</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>610.16949152542372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>101912599</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="24">
+        <v>44628</v>
+      </c>
+      <c r="F25" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>15254.237288135593</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
+        <v>2745.7627118644068</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>106286070</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="24">
+        <v>44628</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>2118.6440677966102</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>381.35593220338984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>100014220</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="24">
+        <v>44628</v>
+      </c>
+      <c r="F27" s="3">
+        <v>68000</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>57627.118644067799</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="1"/>
+        <v>10372.881355932204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>102633790</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="24">
+        <v>44628</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>4237.2881355932204</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
+        <v>762.71186440677968</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>101411885</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="24">
+        <v>44628</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>1779.6610169491526</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="1"/>
+        <v>320.33898305084745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>103372638</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="24">
+        <v>44629</v>
+      </c>
+      <c r="F30" s="3">
+        <v>200000</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>169491.5254237288</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="1"/>
+        <v>30508.474576271183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>103680774</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="24">
+        <v>44629</v>
+      </c>
+      <c r="F31" s="3">
+        <v>60000</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>50847.457627118645</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="1"/>
+        <v>9152.5423728813566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="24">
+        <v>44629</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>4406.7796610169489</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="1"/>
+        <v>793.22033898305074</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>106286070</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="24">
+        <v>44629</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>2118.6440677966102</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
+        <v>381.35593220338984</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>102505180</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" s="24">
+        <v>44630</v>
+      </c>
+      <c r="F34" s="3">
+        <v>25800</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>21864.406779661018</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="1"/>
+        <v>3935.593220338983</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>102039854</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="24">
+        <v>44630</v>
+      </c>
+      <c r="F35" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="0"/>
+        <v>10169.491525423729</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="1"/>
+        <v>1830.5084745762713</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>101411885</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="24">
+        <v>44630</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="0"/>
+        <v>3305.0847457627119</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="1"/>
+        <v>594.91525423728808</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>100027159</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="24">
+        <v>44631</v>
+      </c>
+      <c r="F37" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="0"/>
+        <v>7203.3898305084749</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="1"/>
+        <v>1296.6101694915255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>103387177</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="24">
+        <v>44632</v>
+      </c>
+      <c r="F38" s="3">
+        <v>35000</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="0"/>
+        <v>29661.016949152541</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="1"/>
+        <v>5338.983050847457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E39" s="24">
+        <v>44632</v>
+      </c>
+      <c r="F39" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>6271.1864406779659</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="1"/>
+        <v>1128.8135593220338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>102077681</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="24">
+        <v>44634</v>
+      </c>
+      <c r="F40" s="3">
+        <v>64000</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="0"/>
+        <v>54237.288135593219</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="1"/>
+        <v>9762.7118644067796</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" s="24">
+        <v>44634</v>
+      </c>
+      <c r="F41" s="3">
+        <v>297200</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="0"/>
+        <v>251864.40677966102</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="1"/>
+        <v>45335.593220338982</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3">
+        <f t="shared" ref="G66:G102" si="2">F66*100/118</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" ref="H66:H88" si="3">G66*18%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3">
+        <f t="shared" ref="G79:G103" si="4">F79*100/118</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" ref="H79:H103" si="5">G79*18%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="39"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="39"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="39"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="39"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="39"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="39"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="39"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="39"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="39"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="39"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="39"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="39"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="39"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="39"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="39"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="39"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="41">
+        <f>SUM(F2:F102)</f>
+        <v>2019400</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" si="4"/>
+        <v>1711355.9322033899</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" si="5"/>
+        <v>308044.06779661018</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A103:E103"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OneClick Hotel/VAT 2022 one.xlsx
+++ b/OneClick Hotel/VAT 2022 one.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02070052-68CA-4D0C-8A75-160FCA97A9DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8C4315-F931-4E08-AB67-14C2CC923839}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="February 2022" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="MARCH 2022" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="226">
   <si>
     <t>TIN</t>
   </si>
@@ -703,6 +703,9 @@
   </si>
   <si>
     <t>SDC010014500/2492</t>
+  </si>
+  <si>
+    <t>SDC010014500/2494</t>
   </si>
 </sst>
 </file>
@@ -875,6 +878,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,14 +897,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -901,8 +906,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4098,13 +4101,13 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="33" t="s">
+      <c r="A103" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="35"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="43"/>
       <c r="F103" s="30">
         <f>SUM(F2:F102)</f>
         <v>4610593.4399999995</v>
@@ -4131,8 +4134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C164C-349C-499E-8E6B-639B77463B50}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4141,12 +4144,12 @@
     <col min="2" max="2" width="37.140625" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="46"/>
+    <col min="5" max="5" width="10.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="40"/>
     <col min="9" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4207,13 +4210,13 @@
       <c r="B3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="35">
         <v>44621</v>
       </c>
       <c r="F3" s="4">
@@ -4241,7 +4244,7 @@
       <c r="D4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="35">
         <v>44622</v>
       </c>
       <c r="F4" s="4">
@@ -4269,7 +4272,7 @@
       <c r="D5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="35">
         <v>44623</v>
       </c>
       <c r="F5" s="3">
@@ -5293,21 +5296,31 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="3"/>
+      <c r="D42" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="27">
+        <v>44634</v>
+      </c>
+      <c r="F42" s="3">
+        <v>103550</v>
+      </c>
       <c r="G42" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87754.237288135599</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15795.762711864407</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5734,11 +5747,11 @@
       <c r="E66" s="24"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3">
-        <f t="shared" ref="G66:G102" si="2">F66*100/118</f>
+        <f t="shared" ref="G66:G78" si="2">F66*100/118</f>
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" ref="H66:H88" si="3">G66*18%</f>
+        <f t="shared" ref="H66:H78" si="3">G66*18%</f>
         <v>0</v>
       </c>
     </row>
@@ -6121,14 +6134,14 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="39"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="41"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="36"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="38"/>
       <c r="G88" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6139,14 +6152,14 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="39"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="41"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="36"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="38"/>
       <c r="G89" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6157,14 +6170,14 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="39"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="39"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="41"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="36"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="38"/>
       <c r="G90" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6175,14 +6188,14 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="39"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="39"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="41"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="36"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="38"/>
       <c r="G91" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6193,14 +6206,14 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="39"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="39"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="41"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="36"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="38"/>
       <c r="G92" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6211,14 +6224,14 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="39"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="41"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="36"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="38"/>
       <c r="G93" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6229,14 +6242,14 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="39"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="41"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="36"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="38"/>
       <c r="G94" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6247,14 +6260,14 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="39"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="41"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="36"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="38"/>
       <c r="G95" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6265,14 +6278,14 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="39"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="39"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="41"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="36"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="38"/>
       <c r="G96" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6283,14 +6296,14 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="39"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="39"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="41"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="36"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="38"/>
       <c r="G97" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6301,14 +6314,14 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="39"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="39"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="41"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="36"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="38"/>
       <c r="G98" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6319,14 +6332,14 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="39"/>
-      <c r="E99" s="40"/>
-      <c r="F99" s="41"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="36"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="38"/>
       <c r="G99" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6337,14 +6350,14 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="39"/>
-      <c r="E100" s="40"/>
-      <c r="F100" s="41"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="36"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="38"/>
       <c r="G100" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6355,14 +6368,14 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="39"/>
-      <c r="E101" s="40"/>
-      <c r="F101" s="41"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="36"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="38"/>
       <c r="G101" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6373,14 +6386,14 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="39"/>
-      <c r="E102" s="40"/>
-      <c r="F102" s="41"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="36"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="38"/>
       <c r="G102" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6391,24 +6404,24 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="42" t="s">
+      <c r="A103" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="43"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="41">
+      <c r="B103" s="45"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="46"/>
+      <c r="F103" s="38">
         <f>SUM(F2:F102)</f>
-        <v>2019400</v>
+        <v>2122950</v>
       </c>
       <c r="G103" s="3">
         <f t="shared" si="4"/>
-        <v>1711355.9322033899</v>
+        <v>1799110.1694915255</v>
       </c>
       <c r="H103" s="3">
         <f t="shared" si="5"/>
-        <v>308044.06779661018</v>
+        <v>323839.83050847455</v>
       </c>
     </row>
   </sheetData>

--- a/OneClick Hotel/VAT 2022 one.xlsx
+++ b/OneClick Hotel/VAT 2022 one.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8C4315-F931-4E08-AB67-14C2CC923839}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E0F9AD-365C-424B-80FF-828069012F85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="230">
   <si>
     <t>TIN</t>
   </si>
@@ -706,6 +706,18 @@
   </si>
   <si>
     <t>SDC010014500/2494</t>
+  </si>
+  <si>
+    <t>RWANDA AIRPORTS COMPANY LTD</t>
+  </si>
+  <si>
+    <t>SDC002800147/6071</t>
+  </si>
+  <si>
+    <t>MAPENDO CLAUDINE GUIDEVAY</t>
+  </si>
+  <si>
+    <t>SDC007007877/28</t>
   </si>
 </sst>
 </file>
@@ -4132,10 +4144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C164C-349C-499E-8E6B-639B77463B50}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4145,7 +4157,9 @@
     <col min="3" max="3" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="40"/>
+    <col min="6" max="6" width="10.5703125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="40"/>
     <col min="9" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
@@ -4195,11 +4209,11 @@
         <v>6300</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G65" si="0">F2*100/118</f>
+        <f t="shared" ref="G2:G66" si="0">F2*100/118</f>
         <v>5338.9830508474579</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H65" si="1">G2*18%</f>
+        <f t="shared" ref="H2:H66" si="1">G2*18%</f>
         <v>961.01694915254234</v>
       </c>
     </row>
@@ -5241,58 +5255,58 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>102077681</v>
+        <v>101887556</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E40" s="24">
-        <v>44634</v>
+        <v>44632</v>
       </c>
       <c r="F40" s="3">
-        <v>64000</v>
+        <v>14329920</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="0"/>
-        <v>54237.288135593219</v>
+        <v>12144000</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="1"/>
-        <v>9762.7118644067796</v>
+        <v>2185920</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>102781542</v>
+        <v>102077681</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E41" s="24">
         <v>44634</v>
       </c>
       <c r="F41" s="3">
-        <v>297200</v>
+        <v>64000</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="0"/>
-        <v>251864.40677966102</v>
+        <v>54237.288135593219</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="1"/>
-        <v>45335.593220338982</v>
+        <v>9762.7118644067796</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -5306,57 +5320,77 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" s="24">
+        <v>44634</v>
+      </c>
+      <c r="F42" s="3">
+        <v>297200</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="0"/>
+        <v>251864.40677966102</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="1"/>
+        <v>45335.593220338982</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E43" s="27">
         <v>44634</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F43" s="3">
         <v>103550</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G43" s="3">
         <f t="shared" si="0"/>
         <v>87754.237288135599</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H43" s="3">
         <f t="shared" si="1"/>
         <v>15795.762711864407</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="5">
+        <v>107167198</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="3"/>
+      <c r="D44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E44" s="24">
+        <v>44635</v>
+      </c>
+      <c r="F44" s="3">
+        <v>64800</v>
+      </c>
       <c r="G44" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="G44:G49" si="2">F44*100/118</f>
+        <v>54915.254237288136</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="H44:H49" si="3">G44*18%</f>
+        <v>9884.7457627118638</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -5369,11 +5403,11 @@
       <c r="E45" s="24"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5387,11 +5421,11 @@
       <c r="E46" s="24"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5405,11 +5439,11 @@
       <c r="E47" s="24"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5423,11 +5457,11 @@
       <c r="E48" s="24"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5441,11 +5475,11 @@
       <c r="E49" s="24"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5486,7 +5520,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1" t="s">
         <v>8</v>
@@ -5504,7 +5538,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1" t="s">
         <v>8</v>
@@ -5630,7 +5664,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1" t="s">
         <v>8</v>
@@ -5747,11 +5781,11 @@
       <c r="E66" s="24"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3">
-        <f t="shared" ref="G66:G78" si="2">F66*100/118</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" ref="H66:H78" si="3">G66*18%</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5765,11 +5799,11 @@
       <c r="E67" s="24"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G67:G79" si="4">F67*100/118</f>
         <v>0</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H67:H79" si="5">G67*18%</f>
         <v>0</v>
       </c>
     </row>
@@ -5783,16 +5817,16 @@
       <c r="E68" s="24"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="5"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1" t="s">
         <v>8</v>
@@ -5801,16 +5835,16 @@
       <c r="E69" s="24"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1" t="s">
         <v>8</v>
@@ -5819,11 +5853,11 @@
       <c r="E70" s="24"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5837,11 +5871,11 @@
       <c r="E71" s="24"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5855,11 +5889,11 @@
       <c r="E72" s="24"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H72" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5873,11 +5907,11 @@
       <c r="E73" s="24"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5891,11 +5925,11 @@
       <c r="E74" s="24"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H74" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5909,11 +5943,11 @@
       <c r="E75" s="24"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H75" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5927,11 +5961,11 @@
       <c r="E76" s="24"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5945,11 +5979,11 @@
       <c r="E77" s="24"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H77" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5963,11 +5997,11 @@
       <c r="E78" s="24"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H78" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5981,11 +6015,11 @@
       <c r="E79" s="24"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3">
-        <f t="shared" ref="G79:G103" si="4">F79*100/118</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H79" s="3">
-        <f t="shared" ref="H79:H103" si="5">G79*18%</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5999,11 +6033,11 @@
       <c r="E80" s="24"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G80:G104" si="6">F80*100/118</f>
         <v>0</v>
       </c>
       <c r="H80" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H80:H104" si="7">G80*18%</f>
         <v>0</v>
       </c>
     </row>
@@ -6017,11 +6051,11 @@
       <c r="E81" s="24"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6035,11 +6069,11 @@
       <c r="E82" s="24"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H82" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6053,11 +6087,11 @@
       <c r="E83" s="24"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6071,11 +6105,11 @@
       <c r="E84" s="24"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H84" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6089,11 +6123,11 @@
       <c r="E85" s="24"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H85" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6107,11 +6141,11 @@
       <c r="E86" s="24"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H86" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6125,29 +6159,29 @@
       <c r="E87" s="24"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H87" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="36"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="36"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="38"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="3"/>
       <c r="G88" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H88" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6161,11 +6195,11 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
       <c r="G89" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6179,11 +6213,11 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
       <c r="G90" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H90" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6197,11 +6231,11 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
       <c r="G91" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6215,11 +6249,11 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
       <c r="G92" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H92" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6233,11 +6267,11 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
       <c r="G93" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H93" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6251,11 +6285,11 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
       <c r="G94" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6269,11 +6303,11 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
       <c r="G95" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H95" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6287,11 +6321,11 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
       <c r="G96" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6305,11 +6339,11 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
       <c r="G97" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H97" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6323,11 +6357,11 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
       <c r="G98" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H98" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6341,11 +6375,11 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
       <c r="G99" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H99" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6359,11 +6393,11 @@
       <c r="E100" s="37"/>
       <c r="F100" s="38"/>
       <c r="G100" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6377,11 +6411,11 @@
       <c r="E101" s="37"/>
       <c r="F101" s="38"/>
       <c r="G101" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6395,38 +6429,56 @@
       <c r="E102" s="37"/>
       <c r="F102" s="38"/>
       <c r="G102" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="44" t="s">
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="36"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="3">
+        <f>F103*100/118</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="45"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="46"/>
-      <c r="F103" s="38">
-        <f>SUM(F2:F102)</f>
-        <v>2122950</v>
-      </c>
-      <c r="G103" s="3">
-        <f t="shared" si="4"/>
-        <v>1799110.1694915255</v>
-      </c>
-      <c r="H103" s="3">
-        <f t="shared" si="5"/>
-        <v>323839.83050847455</v>
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="38">
+        <f>SUM(F2:F103)</f>
+        <v>16517670</v>
+      </c>
+      <c r="G104" s="3">
+        <f t="shared" si="6"/>
+        <v>13998025.423728814</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" si="7"/>
+        <v>2519644.5762711866</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OneClick Hotel/VAT 2022 one.xlsx
+++ b/OneClick Hotel/VAT 2022 one.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E0F9AD-365C-424B-80FF-828069012F85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C0C44A-94B1-419A-9279-415C9DC9D620}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="February 2022" sheetId="3" r:id="rId1"/>
     <sheet name="MARCH 2022" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MARCH 2022'!$A$1:$H$104</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -4146,8 +4149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C164C-349C-499E-8E6B-639B77463B50}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6477,6 +6480,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H104" xr:uid="{E018A70D-AA4D-490A-8464-5C69F9CBDF0B}"/>
   <mergeCells count="1">
     <mergeCell ref="A104:E104"/>
   </mergeCells>

--- a/OneClick Hotel/VAT 2022 one.xlsx
+++ b/OneClick Hotel/VAT 2022 one.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C0C44A-94B1-419A-9279-415C9DC9D620}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EE029A-EC82-45BB-928E-233438EBB047}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="MARCH 2022" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MARCH 2022'!$A$1:$H$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MARCH 2022'!$A$1:$H$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="237">
   <si>
     <t>TIN</t>
   </si>
@@ -721,6 +721,27 @@
   </si>
   <si>
     <t>SDC007007877/28</t>
+  </si>
+  <si>
+    <t>ACER LTD</t>
+  </si>
+  <si>
+    <t>SDC007004242/3360</t>
+  </si>
+  <si>
+    <t>SDC002800324/7317</t>
+  </si>
+  <si>
+    <t>BRETHREN CONSULTANCY GROUP (B.C.G) LTD</t>
+  </si>
+  <si>
+    <t>SDC007010575/551</t>
+  </si>
+  <si>
+    <t>QUICK STAR SERVICE RWANDA LTD</t>
+  </si>
+  <si>
+    <t>SDC007010197/963</t>
   </si>
 </sst>
 </file>
@@ -4147,16 +4168,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C164C-349C-499E-8E6B-639B77463B50}">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="39" bestFit="1" customWidth="1"/>
@@ -4212,11 +4233,11 @@
         <v>6300</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G66" si="0">F2*100/118</f>
+        <f t="shared" ref="G2:G67" si="0">F2*100/118</f>
         <v>5338.9830508474579</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H66" si="1">G2*18%</f>
+        <f t="shared" ref="H2:H67" si="1">G2*18%</f>
         <v>961.01694915254234</v>
       </c>
     </row>
@@ -5370,102 +5391,142 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
+        <v>102213906</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" s="27">
+        <v>44634</v>
+      </c>
+      <c r="F44" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="0"/>
+        <v>127118.64406779662</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="1"/>
+        <v>22881.355932203391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>107167198</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E45" s="24">
         <v>44635</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F45" s="3">
         <v>64800</v>
       </c>
-      <c r="G44" s="3">
-        <f t="shared" ref="G44:G49" si="2">F44*100/118</f>
+      <c r="G45" s="3">
+        <f t="shared" ref="G45:G50" si="2">F45*100/118</f>
         <v>54915.254237288136</v>
       </c>
-      <c r="H44" s="3">
-        <f t="shared" ref="H44:H49" si="3">G44*18%</f>
+      <c r="H45" s="3">
+        <f t="shared" ref="H45:H50" si="3">G45*18%</f>
         <v>9884.7457627118638</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="8">
+        <v>101811557</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="3"/>
+      <c r="D46" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="24">
+        <v>44635</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5000</v>
+      </c>
       <c r="G46" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4237.2881355932204</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>762.71186440677968</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="8">
+        <v>102181072</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="3"/>
+      <c r="D47" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="24">
+        <v>44635</v>
+      </c>
+      <c r="F47" s="3">
+        <v>13700</v>
+      </c>
       <c r="G47" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11610.169491525423</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2089.8305084745762</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="8">
+        <v>102089702</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="3"/>
+      <c r="D48" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" s="24">
+        <v>44636</v>
+      </c>
+      <c r="F48" s="3">
+        <v>10000</v>
+      </c>
       <c r="G48" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8474.5762711864409</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1525.4237288135594</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -5496,11 +5557,11 @@
       <c r="E50" s="24"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5541,7 +5602,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1" t="s">
         <v>8</v>
@@ -5559,7 +5620,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="5"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1" t="s">
         <v>8</v>
@@ -5685,7 +5746,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1" t="s">
         <v>8</v>
@@ -5802,11 +5863,11 @@
       <c r="E67" s="24"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3">
-        <f t="shared" ref="G67:G79" si="4">F67*100/118</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" ref="H67:H79" si="5">G67*18%</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5820,11 +5881,11 @@
       <c r="E68" s="24"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G68:G80" si="4">F68*100/118</f>
         <v>0</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H68:H80" si="5">G68*18%</f>
         <v>0</v>
       </c>
     </row>
@@ -5847,7 +5908,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
+      <c r="A70" s="5"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1" t="s">
         <v>8</v>
@@ -5865,7 +5926,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1" t="s">
         <v>8</v>
@@ -6036,11 +6097,11 @@
       <c r="E80" s="24"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3">
-        <f t="shared" ref="G80:G104" si="6">F80*100/118</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H80" s="3">
-        <f t="shared" ref="H80:H104" si="7">G80*18%</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6054,11 +6115,11 @@
       <c r="E81" s="24"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G81:G105" si="6">F81*100/118</f>
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H81:H105" si="7">G81*18%</f>
         <v>0</v>
       </c>
     </row>
@@ -6189,14 +6250,14 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="36"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="36"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="38"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="3"/>
       <c r="G89" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6450,7 +6511,7 @@
       <c r="E103" s="37"/>
       <c r="F103" s="38"/>
       <c r="G103" s="3">
-        <f>F103*100/118</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H103" s="3">
@@ -6459,30 +6520,48 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="45"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="46"/>
-      <c r="F104" s="38">
-        <f>SUM(F2:F103)</f>
-        <v>16517670</v>
-      </c>
+      <c r="A104" s="36"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="36"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="38"/>
       <c r="G104" s="3">
-        <f t="shared" si="6"/>
-        <v>13998025.423728814</v>
+        <f>F104*100/118</f>
+        <v>0</v>
       </c>
       <c r="H104" s="3">
         <f t="shared" si="7"/>
-        <v>2519644.5762711866</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="38">
+        <f>SUM(F2:F104)</f>
+        <v>16696370</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" si="6"/>
+        <v>14149466.101694915</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="7"/>
+        <v>2546903.8983050846</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H104" xr:uid="{E018A70D-AA4D-490A-8464-5C69F9CBDF0B}"/>
+  <autoFilter ref="A1:H105" xr:uid="{E018A70D-AA4D-490A-8464-5C69F9CBDF0B}"/>
   <mergeCells count="1">
-    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:E105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OneClick Hotel/VAT 2022 one.xlsx
+++ b/OneClick Hotel/VAT 2022 one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EE029A-EC82-45BB-928E-233438EBB047}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493F02D8-905D-47FF-AFC0-6C31F37F6080}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="February 2022" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="289">
   <si>
     <t>TIN</t>
   </si>
@@ -742,6 +742,162 @@
   </si>
   <si>
     <t>SDC007010197/963</t>
+  </si>
+  <si>
+    <t>NIMEN GENERAL BUSINESS LTD</t>
+  </si>
+  <si>
+    <t>SDC010024405/147</t>
+  </si>
+  <si>
+    <t>QUINCAILLERIE STANDARD LTD</t>
+  </si>
+  <si>
+    <t>SDC010005028/737</t>
+  </si>
+  <si>
+    <t>ALLIMENTATION LA BONNE SOURCE</t>
+  </si>
+  <si>
+    <t>SDC004005353/1153</t>
+  </si>
+  <si>
+    <t>VANDA'S LTD</t>
+  </si>
+  <si>
+    <t>SDC010003946/229</t>
+  </si>
+  <si>
+    <t>QUINCAILLERIE OXA GAJU LTD</t>
+  </si>
+  <si>
+    <t>SDC003002106/15509</t>
+  </si>
+  <si>
+    <t>SDC010014500/2618</t>
+  </si>
+  <si>
+    <t>DISTRUBUTION ET VENTE DES BOISSONS LTD</t>
+  </si>
+  <si>
+    <t>SDC007074625/295</t>
+  </si>
+  <si>
+    <t>SDC010004321/5330</t>
+  </si>
+  <si>
+    <t>UMUHIRE DENYSE</t>
+  </si>
+  <si>
+    <t>SDC007047482/286</t>
+  </si>
+  <si>
+    <t>SDC010014500/2681</t>
+  </si>
+  <si>
+    <t>PAPETERIE AMAZING LTD</t>
+  </si>
+  <si>
+    <t>SDC010021388/494</t>
+  </si>
+  <si>
+    <t>EBENEZER NBLTD</t>
+  </si>
+  <si>
+    <t>SDC007071719/2729</t>
+  </si>
+  <si>
+    <t>SDC010026952/161</t>
+  </si>
+  <si>
+    <t>M.F SHOP LTD</t>
+  </si>
+  <si>
+    <t>SDC007061337/301</t>
+  </si>
+  <si>
+    <t>KIGALI LINK COMPANY LTD</t>
+  </si>
+  <si>
+    <t>SDC010025295/14</t>
+  </si>
+  <si>
+    <t>SDC007010575/559</t>
+  </si>
+  <si>
+    <t>BM AZMARION GENERAL TRADING LTD</t>
+  </si>
+  <si>
+    <t>SDC007073873/12395</t>
+  </si>
+  <si>
+    <t>SDC007072859/5756</t>
+  </si>
+  <si>
+    <t>SDC004005353/11588</t>
+  </si>
+  <si>
+    <t>RAK CERAMICS &amp; SANITARY WARE LTD</t>
+  </si>
+  <si>
+    <t>SDC007072789/252</t>
+  </si>
+  <si>
+    <t>SDC010003408/15463</t>
+  </si>
+  <si>
+    <t>N.HONEST SUPERMARKET LTD</t>
+  </si>
+  <si>
+    <t>SDC008000841.3730</t>
+  </si>
+  <si>
+    <t>SDC010003946/202</t>
+  </si>
+  <si>
+    <t>SDC005006690/12251</t>
+  </si>
+  <si>
+    <t>SDC010014935/263</t>
+  </si>
+  <si>
+    <t>SDC010003946/224</t>
+  </si>
+  <si>
+    <t>SDC010024405/164</t>
+  </si>
+  <si>
+    <t>SDC002800324/7450</t>
+  </si>
+  <si>
+    <t>SDC010014500/2784</t>
+  </si>
+  <si>
+    <t>SDC007074625/720</t>
+  </si>
+  <si>
+    <t>BAHAYIRDI LIMITED</t>
+  </si>
+  <si>
+    <t>SDC010026358/1128</t>
+  </si>
+  <si>
+    <t>SDC010026258/1129</t>
+  </si>
+  <si>
+    <t>SDC004003502/155708</t>
+  </si>
+  <si>
+    <t>SDC004003502/155700</t>
+  </si>
+  <si>
+    <t>NIYIRORA SPECIOSE</t>
+  </si>
+  <si>
+    <t>SDC007039008/2434</t>
+  </si>
+  <si>
+    <t>SDC007074625/897</t>
   </si>
 </sst>
 </file>
@@ -1282,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4170,8 +4326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C164C-349C-499E-8E6B-639B77463B50}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5530,651 +5686,1011 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="8">
+        <v>102921126</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="3"/>
+      <c r="D49" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="24">
+        <v>44636</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5000</v>
+      </c>
       <c r="G49" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4237.2881355932204</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>762.71186440677968</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="8">
+        <v>102311214</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="3"/>
+      <c r="D50" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" s="24">
+        <v>44639</v>
+      </c>
+      <c r="F50" s="3">
+        <v>14000</v>
+      </c>
       <c r="G50" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11864.406779661016</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2135.593220338983</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="8">
+        <v>100537148</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="3"/>
+      <c r="D51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" s="24">
+        <v>44639</v>
+      </c>
+      <c r="F51" s="3">
+        <v>3200</v>
+      </c>
       <c r="G51" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2711.8644067796608</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>488.13559322033893</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="8">
+        <v>102089688</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="3"/>
+      <c r="D52" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E52" s="24">
+        <v>44639</v>
+      </c>
+      <c r="F52" s="3">
+        <v>37000</v>
+      </c>
       <c r="G52" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31355.932203389832</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5644.0677966101694</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="8">
+        <v>102776375</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="3"/>
+      <c r="D53" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" s="24">
+        <v>44639</v>
+      </c>
+      <c r="F53" s="3">
+        <v>18000</v>
+      </c>
       <c r="G53" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15254.237288135593</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2745.7627118644068</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="3"/>
+      <c r="D54" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E54" s="24">
+        <v>44641</v>
+      </c>
+      <c r="F54" s="3">
+        <v>130300</v>
+      </c>
       <c r="G54" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>110423.72881355933</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19876.271186440677</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="8">
+        <v>101506622</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="3"/>
+      <c r="D55" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E55" s="24">
+        <v>44642</v>
+      </c>
+      <c r="F55" s="3">
+        <v>7400</v>
+      </c>
       <c r="G55" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6271.1864406779659</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1128.8135593220338</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="8">
+        <v>101912599</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="3"/>
+      <c r="D56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" s="24">
+        <v>44643</v>
+      </c>
+      <c r="F56" s="3">
+        <v>20000</v>
+      </c>
       <c r="G56" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16949.152542372882</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3050.8474576271187</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="8">
+        <v>106813563</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="3"/>
+      <c r="D57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E57" s="24">
+        <v>44643</v>
+      </c>
+      <c r="F57" s="3">
+        <v>18000</v>
+      </c>
       <c r="G57" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15254.237288135593</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2745.7627118644068</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="8">
+        <v>102781542</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="3"/>
+      <c r="D58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E58" s="24">
+        <v>44643</v>
+      </c>
+      <c r="F58" s="3">
+        <v>322300</v>
+      </c>
       <c r="G58" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>273135.59322033898</v>
       </c>
       <c r="H58" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>49164.406779661018</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="8">
+        <v>102216880</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="3"/>
+      <c r="D59" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E59" s="24">
+        <v>44643</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5500</v>
+      </c>
       <c r="G59" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4661.0169491525421</v>
       </c>
       <c r="H59" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>838.98305084745755</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="8">
+        <v>107124183</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="3"/>
+      <c r="D60" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E60" s="24">
+        <v>44643</v>
+      </c>
+      <c r="F60" s="3">
+        <v>42000</v>
+      </c>
       <c r="G60" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35593.220338983054</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6406.7796610169498</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="8">
+        <v>101527578</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="3"/>
+      <c r="D61" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E61" s="24">
+        <v>44644</v>
+      </c>
+      <c r="F61" s="3">
+        <v>5500</v>
+      </c>
       <c r="G61" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4661.0169491525421</v>
       </c>
       <c r="H61" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>838.98305084745755</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="5">
+        <v>111552217</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="3"/>
+      <c r="D62" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E62" s="24">
+        <v>44644</v>
+      </c>
+      <c r="F62" s="3">
+        <v>19992</v>
+      </c>
       <c r="G62" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16942.372881355932</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3049.6271186440677</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="5">
+        <v>111850097</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="3"/>
+      <c r="D63" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E63" s="24">
+        <v>44644</v>
+      </c>
+      <c r="F63" s="3">
+        <v>66000</v>
+      </c>
       <c r="G63" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55932.203389830509</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10067.796610169491</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="5">
+        <v>102089702</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="3"/>
+      <c r="D64" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" s="24">
+        <v>44644</v>
+      </c>
+      <c r="F64" s="3">
+        <v>20000</v>
+      </c>
       <c r="G64" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16949.152542372882</v>
       </c>
       <c r="H64" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3050.8474576271187</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="5">
+        <v>102545726</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="3"/>
+      <c r="D65" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E65" s="24">
+        <v>44645</v>
+      </c>
+      <c r="F65" s="3">
+        <v>4100</v>
+      </c>
       <c r="G65" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3474.5762711864409</v>
       </c>
       <c r="H65" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>625.42372881355936</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="5">
+        <v>113472758</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="3"/>
+      <c r="D66" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E66" s="24">
+        <v>44645</v>
+      </c>
+      <c r="F66" s="3">
+        <v>49500</v>
+      </c>
       <c r="G66" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41949.152542372882</v>
       </c>
       <c r="H66" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7550.8474576271183</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="5">
+        <v>100537148</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="3"/>
+      <c r="D67" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E67" s="24">
+        <v>44645</v>
+      </c>
+      <c r="F67" s="3">
+        <v>3200</v>
+      </c>
       <c r="G67" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2711.8644067796608</v>
       </c>
       <c r="H67" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>488.13559322033893</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="5">
+        <v>103247042</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="3"/>
+      <c r="D68" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E68" s="24">
+        <v>44645</v>
+      </c>
+      <c r="F68" s="3">
+        <v>31500</v>
+      </c>
       <c r="G68" s="3">
         <f t="shared" ref="G68:G80" si="4">F68*100/118</f>
-        <v>0</v>
+        <v>26694.915254237287</v>
       </c>
       <c r="H68" s="3">
         <f t="shared" ref="H68:H80" si="5">G68*18%</f>
-        <v>0</v>
+        <v>4805.0847457627115</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="5">
+        <v>106286070</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="3"/>
+      <c r="D69" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E69" s="24">
+        <v>44646</v>
+      </c>
+      <c r="F69" s="3">
+        <v>17500</v>
+      </c>
       <c r="G69" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14830.508474576271</v>
       </c>
       <c r="H69" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2669.4915254237285</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="5">
+        <v>119789715</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="3"/>
+      <c r="D70" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E70" s="24">
+        <v>44647</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2400</v>
+      </c>
       <c r="G70" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2033.8983050847457</v>
       </c>
       <c r="H70" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>366.1016949152542</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="8">
+        <v>102089688</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="C71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="3"/>
+      <c r="D71" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E71" s="24">
+        <v>44622</v>
+      </c>
+      <c r="F71" s="3">
+        <v>35000</v>
+      </c>
       <c r="G71" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>29661.016949152541</v>
       </c>
       <c r="H71" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5338.983050847457</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="C72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="3"/>
+      <c r="D72" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E72" s="24">
+        <v>44635</v>
+      </c>
+      <c r="F72" s="3">
+        <v>14800</v>
+      </c>
       <c r="G72" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12542.372881355932</v>
       </c>
       <c r="H72" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2257.6271186440677</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="5">
+        <v>103680774</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="C73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="3"/>
+      <c r="D73" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" s="24">
+        <v>44637</v>
+      </c>
+      <c r="F73" s="3">
+        <v>27500</v>
+      </c>
       <c r="G73" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>23305.084745762713</v>
       </c>
       <c r="H73" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4194.9152542372885</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="5">
+        <v>102089688</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="C74" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="3"/>
+      <c r="D74" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E74" s="24">
+        <v>44638</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2500</v>
+      </c>
       <c r="G74" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2118.6440677966102</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>381.35593220338984</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="5">
+        <v>102921126</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="C75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="3"/>
+      <c r="D75" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E75" s="24">
+        <v>44648</v>
+      </c>
+      <c r="F75" s="3">
+        <v>199400</v>
+      </c>
       <c r="G75" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>168983.05084745763</v>
       </c>
       <c r="H75" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30416.949152542373</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="3"/>
+      <c r="D76" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E76" s="24">
+        <v>44648</v>
+      </c>
+      <c r="F76" s="3">
+        <v>10400</v>
+      </c>
       <c r="G76" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8813.5593220338978</v>
       </c>
       <c r="H76" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1586.4406779661015</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="2"/>
+      <c r="A77" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="C77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="3"/>
+      <c r="D77" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E77" s="24">
+        <v>44648</v>
+      </c>
+      <c r="F77" s="3">
+        <v>224200</v>
+      </c>
       <c r="G77" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>190000</v>
       </c>
       <c r="H77" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>34200</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="2"/>
+      <c r="A78" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="C78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="3"/>
+      <c r="D78" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E78" s="24">
+        <v>44648</v>
+      </c>
+      <c r="F78" s="3">
+        <v>7400</v>
+      </c>
       <c r="G78" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6271.1864406779659</v>
       </c>
       <c r="H78" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1128.8135593220338</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="2"/>
+      <c r="A79" s="5">
+        <v>103285815</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="C79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="3"/>
+      <c r="D79" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E79" s="24">
+        <v>44649</v>
+      </c>
+      <c r="F79" s="3">
+        <v>9999.9599999999991</v>
+      </c>
       <c r="G79" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8474.5423728813548</v>
       </c>
       <c r="H79" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1525.4176271186438</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="2"/>
+      <c r="A80" s="5">
+        <v>1032385815</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="C80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="3"/>
+      <c r="D80" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E80" s="24">
+        <v>44649</v>
+      </c>
+      <c r="F80" s="3">
+        <v>34999.980000000003</v>
+      </c>
       <c r="G80" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>29661.000000000004</v>
       </c>
       <c r="H80" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5338.9800000000005</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="2"/>
+      <c r="A81" s="5">
+        <v>102416331</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="3"/>
+      <c r="D81" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E81" s="24">
+        <v>44649</v>
+      </c>
+      <c r="F81" s="3">
+        <v>30000</v>
+      </c>
       <c r="G81" s="3">
         <f t="shared" ref="G81:G105" si="6">F81*100/118</f>
-        <v>0</v>
+        <v>25423.728813559323</v>
       </c>
       <c r="H81" s="3">
         <f t="shared" ref="H81:H105" si="7">G81*18%</f>
-        <v>0</v>
+        <v>4576.2711864406783</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="2"/>
+      <c r="A82" s="5">
+        <v>102416331</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C82" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="3"/>
+      <c r="D82" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E82" s="24">
+        <v>44649</v>
+      </c>
+      <c r="F82" s="3">
+        <v>73200</v>
+      </c>
       <c r="G82" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>62033.898305084746</v>
       </c>
       <c r="H82" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>11166.101694915254</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="5">
+        <v>101570833</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="C83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="3"/>
+      <c r="D83" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E83" s="24">
+        <v>44649</v>
+      </c>
+      <c r="F83" s="3">
+        <v>17500</v>
+      </c>
       <c r="G83" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>14830.508474576271</v>
       </c>
       <c r="H83" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2669.4915254237285</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="C84" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="3"/>
+      <c r="D84" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E84" s="24">
+        <v>44649</v>
+      </c>
+      <c r="F84" s="3">
+        <v>14000</v>
+      </c>
       <c r="G84" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11864.406779661016</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2135.593220338983</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -6547,15 +7063,15 @@
       <c r="E105" s="46"/>
       <c r="F105" s="38">
         <f>SUM(F2:F104)</f>
-        <v>16696370</v>
+        <v>18239661.940000001</v>
       </c>
       <c r="G105" s="3">
         <f t="shared" si="6"/>
-        <v>14149466.101694915</v>
+        <v>15457340.627118645</v>
       </c>
       <c r="H105" s="3">
         <f t="shared" si="7"/>
-        <v>2546903.8983050846</v>
+        <v>2782321.3128813561</v>
       </c>
     </row>
   </sheetData>

--- a/OneClick Hotel/VAT 2022 one.xlsx
+++ b/OneClick Hotel/VAT 2022 one.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493F02D8-905D-47FF-AFC0-6C31F37F6080}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB07888C-A04C-4897-8F46-537875802F60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="February 2022" sheetId="3" r:id="rId1"/>
     <sheet name="MARCH 2022" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MARCH 2022'!$A$1:$H$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MARCH 2022'!$A$1:$H$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="317">
   <si>
     <t>TIN</t>
   </si>
@@ -849,9 +849,6 @@
     <t>N.HONEST SUPERMARKET LTD</t>
   </si>
   <si>
-    <t>SDC008000841.3730</t>
-  </si>
-  <si>
     <t>SDC010003946/202</t>
   </si>
   <si>
@@ -898,6 +895,93 @@
   </si>
   <si>
     <t>SDC007074625/897</t>
+  </si>
+  <si>
+    <t>SDC010014439/3740</t>
+  </si>
+  <si>
+    <t>SDC010014500/2846</t>
+  </si>
+  <si>
+    <t>SDC008000533/4346</t>
+  </si>
+  <si>
+    <t>ITURIZE MUMAHORO COMPAN LTD</t>
+  </si>
+  <si>
+    <t>SDC010004183/13709</t>
+  </si>
+  <si>
+    <t>SDC010014439/3752</t>
+  </si>
+  <si>
+    <t>SDC010035295/22</t>
+  </si>
+  <si>
+    <t>SDC008000841/3730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANYNAME </t>
+  </si>
+  <si>
+    <t>SDC002800324/7171</t>
+  </si>
+  <si>
+    <t>SDC005006690/12073</t>
+  </si>
+  <si>
+    <t>SDC007000467/50996</t>
+  </si>
+  <si>
+    <t>SDC010020771/190</t>
+  </si>
+  <si>
+    <t>SDC010017928/440</t>
+  </si>
+  <si>
+    <t>SDC007052647/784</t>
+  </si>
+  <si>
+    <t>SDC007003843/9197</t>
+  </si>
+  <si>
+    <t>SDC007043891/962</t>
+  </si>
+  <si>
+    <t>SDC007067890/228</t>
+  </si>
+  <si>
+    <t>SDC010020791/535</t>
+  </si>
+  <si>
+    <t>SDC011000805/166130</t>
+  </si>
+  <si>
+    <t>SDC007000674/56837</t>
+  </si>
+  <si>
+    <t>SDC010003946/227</t>
+  </si>
+  <si>
+    <t>SDC005000463/16983</t>
+  </si>
+  <si>
+    <t>SDC007074624/51</t>
+  </si>
+  <si>
+    <t>SDC010035295/13</t>
+  </si>
+  <si>
+    <t>SDC007072789/254</t>
+  </si>
+  <si>
+    <t>SDC011000445/36978</t>
+  </si>
+  <si>
+    <t>SDC011000445/37109</t>
+  </si>
+  <si>
+    <t>SDC011000805/282367</t>
   </si>
 </sst>
 </file>
@@ -1075,11 +1159,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1438,7 +1522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -4324,10 +4408,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C164C-349C-499E-8E6B-639B77463B50}">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4336,10 +4420,10 @@
     <col min="2" max="2" width="41.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="40"/>
+    <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="38"/>
     <col min="9" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
@@ -6284,7 +6368,7 @@
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E70" s="24">
         <v>44647</v>
@@ -6312,7 +6396,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E71" s="24">
         <v>44622</v>
@@ -6340,7 +6424,7 @@
         <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E72" s="24">
         <v>44635</v>
@@ -6368,7 +6452,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E73" s="24">
         <v>44637</v>
@@ -6396,7 +6480,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E74" s="24">
         <v>44638</v>
@@ -6424,7 +6508,7 @@
         <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E75" s="24">
         <v>44648</v>
@@ -6452,7 +6536,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E76" s="24">
         <v>44648</v>
@@ -6480,7 +6564,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E77" s="24">
         <v>44648</v>
@@ -6508,7 +6592,7 @@
         <v>8</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E78" s="24">
         <v>44648</v>
@@ -6530,13 +6614,13 @@
         <v>103285815</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E79" s="24">
         <v>44649</v>
@@ -6558,13 +6642,13 @@
         <v>1032385815</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="E80" s="24">
         <v>44649</v>
@@ -6592,7 +6676,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E81" s="24">
         <v>44649</v>
@@ -6601,11 +6685,11 @@
         <v>30000</v>
       </c>
       <c r="G81" s="3">
-        <f t="shared" ref="G81:G105" si="6">F81*100/118</f>
+        <f t="shared" ref="G81:G88" si="6">F81*100/118</f>
         <v>25423.728813559323</v>
       </c>
       <c r="H81" s="3">
-        <f t="shared" ref="H81:H105" si="7">G81*18%</f>
+        <f t="shared" ref="H81:H88" si="7">G81*18%</f>
         <v>4576.2711864406783</v>
       </c>
     </row>
@@ -6620,7 +6704,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E82" s="24">
         <v>44649</v>
@@ -6642,13 +6726,13 @@
         <v>101570833</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="E83" s="24">
         <v>44649</v>
@@ -6676,7 +6760,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E84" s="24">
         <v>44649</v>
@@ -6694,390 +6778,765 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="2"/>
+      <c r="A85" s="5">
+        <v>103387177</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="C85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="3"/>
+      <c r="D85" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E85" s="24">
+        <v>44651</v>
+      </c>
+      <c r="F85" s="3">
+        <v>35000</v>
+      </c>
       <c r="G85" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>29661.016949152541</v>
       </c>
       <c r="H85" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5338.983050847457</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="2"/>
+      <c r="A86" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="3"/>
+      <c r="D86" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E86" s="24">
+        <v>44651</v>
+      </c>
+      <c r="F86" s="3">
+        <v>200250</v>
+      </c>
       <c r="G86" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>169703.38983050847</v>
       </c>
       <c r="H86" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>30546.610169491523</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="2"/>
+      <c r="A87" s="5">
+        <v>118714718</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="3"/>
+      <c r="D87" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E87" s="24">
+        <v>44651</v>
+      </c>
+      <c r="F87" s="3">
+        <v>82500</v>
+      </c>
       <c r="G87" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>69915.254237288129</v>
       </c>
       <c r="H87" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12584.745762711862</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="2"/>
+      <c r="A88" s="5">
+        <v>102821016</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="3"/>
+      <c r="D88" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E88" s="24">
+        <v>44651</v>
+      </c>
+      <c r="F88" s="3">
+        <v>83100</v>
+      </c>
       <c r="G88" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>70423.728813559326</v>
       </c>
       <c r="H88" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12676.271186440677</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="39">
+        <v>103387177</v>
+      </c>
+      <c r="B89" s="39" t="s">
+        <v>134</v>
+      </c>
       <c r="C89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="3"/>
+      <c r="D89" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="E89" s="40">
+        <v>44651</v>
+      </c>
+      <c r="F89" s="36">
+        <v>3000</v>
+      </c>
       <c r="G89" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="G89:G101" si="8">F89*100/118</f>
+        <v>2542.3728813559323</v>
       </c>
       <c r="H89" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="H89:H90" si="9">G89*18%</f>
+        <v>457.62711864406782</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="36"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="36"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="38"/>
+      <c r="A90" s="39">
+        <v>111850097</v>
+      </c>
+      <c r="B90" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="E90" s="40">
+        <v>44651</v>
+      </c>
+      <c r="F90" s="36">
+        <v>9000</v>
+      </c>
       <c r="G90" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>7627.1186440677966</v>
       </c>
       <c r="H90" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1372.8813559322034</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="36"/>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="36"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="38"/>
+      <c r="A91" s="39">
+        <v>102181072</v>
+      </c>
+      <c r="B91" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="E91" s="40">
+        <v>44621</v>
+      </c>
+      <c r="F91" s="36">
+        <v>122698.98</v>
+      </c>
       <c r="G91" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>103982.18644067796</v>
       </c>
       <c r="H91" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>961.02</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="36"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="38"/>
+      <c r="A92" s="39">
+        <v>101506622</v>
+      </c>
+      <c r="B92" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="E92" s="40">
+        <v>44627</v>
+      </c>
+      <c r="F92" s="36">
+        <v>12542.37</v>
+      </c>
       <c r="G92" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>10629.127118644068</v>
       </c>
       <c r="H92" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2257.63</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="36"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="38"/>
+      <c r="A93" s="39">
+        <v>100144768</v>
+      </c>
+      <c r="B93" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="E93" s="40">
+        <v>44627</v>
+      </c>
+      <c r="F93" s="36">
+        <v>63983.05</v>
+      </c>
       <c r="G93" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>54222.923728813563</v>
       </c>
       <c r="H93" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>11516.95</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="36"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="38"/>
+      <c r="A94" s="39">
+        <v>119618745</v>
+      </c>
+      <c r="B94" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E94" s="40">
+        <v>44629</v>
+      </c>
+      <c r="F94" s="36">
+        <v>3389.83</v>
+      </c>
       <c r="G94" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2872.7372881355932</v>
       </c>
       <c r="H94" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>610.16999999999996</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="36"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="36"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="38"/>
+      <c r="A95" s="39">
+        <v>101806633</v>
+      </c>
+      <c r="B95" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="E95" s="40">
+        <v>44629</v>
+      </c>
+      <c r="F95" s="36">
+        <v>3813.56</v>
+      </c>
       <c r="G95" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>3231.8305084745762</v>
       </c>
       <c r="H95" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>686.44</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="36"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="38"/>
+      <c r="A96" s="39">
+        <v>101910163</v>
+      </c>
+      <c r="B96" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="E96" s="40">
+        <v>44629</v>
+      </c>
+      <c r="F96" s="36">
+        <v>25874.46</v>
+      </c>
       <c r="G96" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>21927.508474576272</v>
       </c>
       <c r="H96" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4652.54</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="36"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="38"/>
+      <c r="A97" s="39">
+        <v>106562632</v>
+      </c>
+      <c r="B97" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="E97" s="40">
+        <v>44629</v>
+      </c>
+      <c r="F97" s="36">
+        <v>8474.58</v>
+      </c>
       <c r="G97" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>7181.8474576271183</v>
       </c>
       <c r="H97" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1525.42</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="36"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="36"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="38"/>
+      <c r="A98" s="39">
+        <v>108526887</v>
+      </c>
+      <c r="B98" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="E98" s="40">
+        <v>44630</v>
+      </c>
+      <c r="F98" s="36">
+        <v>20762.71</v>
+      </c>
       <c r="G98" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>17595.516949152541</v>
       </c>
       <c r="H98" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3737.29</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="36"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="36"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="38"/>
+      <c r="A99" s="39">
+        <v>102163751</v>
+      </c>
+      <c r="B99" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="E99" s="40">
+        <v>44632</v>
+      </c>
+      <c r="F99" s="36">
+        <v>22033.9</v>
+      </c>
       <c r="G99" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>18672.796610169491</v>
       </c>
       <c r="H99" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3966.1</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="36"/>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="36"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="38"/>
+      <c r="A100" s="39">
+        <v>101840295</v>
+      </c>
+      <c r="B100" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="E100" s="40">
+        <v>44632</v>
+      </c>
+      <c r="F100" s="36">
+        <v>1271.19</v>
+      </c>
       <c r="G100" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1077.2796610169491</v>
       </c>
       <c r="H100" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>228.81</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="36"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="36"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="38"/>
+      <c r="A101" s="39">
+        <v>101587390</v>
+      </c>
+      <c r="B101" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="E101" s="40">
+        <v>44633</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1016.95</v>
+      </c>
       <c r="G101" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>861.82203389830511</v>
       </c>
       <c r="H101" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>183.05</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="36"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="36"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="38"/>
+      <c r="A102" s="39">
+        <v>101061491</v>
+      </c>
+      <c r="B102" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="E102" s="40">
+        <v>44635</v>
+      </c>
+      <c r="F102" s="36">
+        <v>13050.85</v>
+      </c>
       <c r="G102" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="G102:G111" si="10">F102*100/118</f>
+        <v>11060.042372881357</v>
       </c>
       <c r="H102" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2349.15</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="36"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="38"/>
+      <c r="A103" s="39">
+        <v>102089688</v>
+      </c>
+      <c r="B103" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="E103" s="40">
+        <v>44638</v>
+      </c>
+      <c r="F103" s="36">
+        <v>2118.64</v>
+      </c>
       <c r="G103" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1795.457627118644</v>
       </c>
       <c r="H103" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>381.36</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="36"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="38"/>
+      <c r="A104" s="39">
+        <v>102089688</v>
+      </c>
+      <c r="B104" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="E104" s="40">
+        <v>44638</v>
+      </c>
+      <c r="F104" s="36">
+        <v>3389.83</v>
+      </c>
       <c r="G104" s="3">
-        <f>F104*100/118</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2872.7372881355932</v>
       </c>
       <c r="H104" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>610.16999999999996</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="44" t="s">
+      <c r="A105" s="39">
+        <v>100605187</v>
+      </c>
+      <c r="B105" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="E105" s="40">
+        <v>44639</v>
+      </c>
+      <c r="F105" s="36">
+        <v>3389.83</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" ref="G105" si="11">F105*100/118</f>
+        <v>2872.7372881355932</v>
+      </c>
+      <c r="H105" s="3">
+        <v>610.16999999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="39">
+        <v>101506622</v>
+      </c>
+      <c r="B106" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="E106" s="40">
+        <v>44640</v>
+      </c>
+      <c r="F106" s="36">
+        <v>36355.93</v>
+      </c>
+      <c r="G106" s="3">
+        <f t="shared" si="10"/>
+        <v>30810.110169491527</v>
+      </c>
+      <c r="H106" s="3">
+        <v>6544.07</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="39">
+        <v>111850097</v>
+      </c>
+      <c r="B107" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="E107" s="40">
+        <v>44643</v>
+      </c>
+      <c r="F107" s="36">
+        <v>29661</v>
+      </c>
+      <c r="G107" s="3">
+        <f t="shared" si="10"/>
+        <v>25136.4406779661</v>
+      </c>
+      <c r="H107" s="3">
+        <v>5338.99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="39">
+        <v>103257042</v>
+      </c>
+      <c r="B108" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="E108" s="40">
+        <v>44648</v>
+      </c>
+      <c r="F108" s="36">
+        <v>13347.46</v>
+      </c>
+      <c r="G108" s="3">
+        <f t="shared" si="10"/>
+        <v>11311.406779661016</v>
+      </c>
+      <c r="H108" s="3">
+        <v>2402.54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="39">
+        <v>101585951</v>
+      </c>
+      <c r="B109" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="E109" s="40">
+        <v>44649</v>
+      </c>
+      <c r="F109" s="36">
+        <v>299831.26</v>
+      </c>
+      <c r="G109" s="3">
+        <f t="shared" si="10"/>
+        <v>254094.28813559323</v>
+      </c>
+      <c r="H109" s="3">
+        <v>53969.63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="39">
+        <v>101585951</v>
+      </c>
+      <c r="B110" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="E110" s="40">
+        <v>44649</v>
+      </c>
+      <c r="F110" s="36">
+        <v>149873.45000000001</v>
+      </c>
+      <c r="G110" s="3">
+        <f t="shared" si="10"/>
+        <v>127011.39830508476</v>
+      </c>
+      <c r="H110" s="3">
+        <v>26977.22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="39">
+        <v>101587390</v>
+      </c>
+      <c r="B111" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="E111" s="40">
+        <v>44650</v>
+      </c>
+      <c r="F111" s="36">
+        <v>2033.9</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" si="10"/>
+        <v>1723.6440677966102</v>
+      </c>
+      <c r="H111" s="3">
+        <v>366.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="45"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="46"/>
-      <c r="F105" s="38">
-        <f>SUM(F2:F104)</f>
-        <v>18239661.940000001</v>
-      </c>
-      <c r="G105" s="3">
-        <f t="shared" si="6"/>
-        <v>15457340.627118645</v>
-      </c>
-      <c r="H105" s="3">
-        <f t="shared" si="7"/>
-        <v>2782321.3128813561</v>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="36">
+        <f>SUM(F2:F111)</f>
+        <v>19491425.669999998</v>
+      </c>
+      <c r="G112" s="36">
+        <f>SUM(G2:G111)</f>
+        <v>16518157.347457631</v>
+      </c>
+      <c r="H112" s="36">
+        <f>SUM(H2:H111)</f>
+        <v>2975173.251525424</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H105" xr:uid="{E018A70D-AA4D-490A-8464-5C69F9CBDF0B}"/>
+  <autoFilter ref="A1:H88" xr:uid="{E018A70D-AA4D-490A-8464-5C69F9CBDF0B}"/>
   <mergeCells count="1">
-    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A112:E112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OneClick Hotel/VAT 2022 one.xlsx
+++ b/OneClick Hotel/VAT 2022 one.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB07888C-A04C-4897-8F46-537875802F60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA21426-EC1E-4273-83E5-83CD03E9C2C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="317">
   <si>
     <t>TIN</t>
   </si>
@@ -615,9 +615,6 @@
     <t>STAR AFRICA MEDIA CO LTD</t>
   </si>
   <si>
-    <t>SDC007040918/5049</t>
-  </si>
-  <si>
     <t>TOP B ONE CO LTD</t>
   </si>
   <si>
@@ -642,9 +639,6 @@
     <t>KIGALI POWER LINKS LTD</t>
   </si>
   <si>
-    <t>SDC010004321/4936</t>
-  </si>
-  <si>
     <t>SDC010003408/14535</t>
   </si>
   <si>
@@ -693,9 +687,6 @@
     <t>SDC004004840/56748</t>
   </si>
   <si>
-    <t>SDC010014438/3102</t>
-  </si>
-  <si>
     <t>SDC005006848/98878</t>
   </si>
   <si>
@@ -759,9 +750,6 @@
     <t>ALLIMENTATION LA BONNE SOURCE</t>
   </si>
   <si>
-    <t>SDC004005353/1153</t>
-  </si>
-  <si>
     <t>VANDA'S LTD</t>
   </si>
   <si>
@@ -783,9 +771,6 @@
     <t>SDC007074625/295</t>
   </si>
   <si>
-    <t>SDC010004321/5330</t>
-  </si>
-  <si>
     <t>UMUHIRE DENYSE</t>
   </si>
   <si>
@@ -819,9 +804,6 @@
     <t>KIGALI LINK COMPANY LTD</t>
   </si>
   <si>
-    <t>SDC010025295/14</t>
-  </si>
-  <si>
     <t>SDC007010575/559</t>
   </si>
   <si>
@@ -879,9 +861,6 @@
     <t>SDC010026358/1128</t>
   </si>
   <si>
-    <t>SDC010026258/1129</t>
-  </si>
-  <si>
     <t>SDC004003502/155708</t>
   </si>
   <si>
@@ -982,6 +961,27 @@
   </si>
   <si>
     <t>SDC011000805/282367</t>
+  </si>
+  <si>
+    <t>SDC010004231/4936</t>
+  </si>
+  <si>
+    <t>SDC010014439/3102</t>
+  </si>
+  <si>
+    <t>SDC004005353/11553</t>
+  </si>
+  <si>
+    <t>SDC010004231/5330</t>
+  </si>
+  <si>
+    <t>SDC010035295/14</t>
+  </si>
+  <si>
+    <t>SDC010026358/1129</t>
+  </si>
+  <si>
+    <t>SDC007040918/5094</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1008,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1024,6 +1024,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1164,6 +1170,22 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4377,13 +4399,13 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="41" t="s">
+      <c r="A103" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="43"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="53"/>
       <c r="F103" s="30">
         <f>SUM(F2:F102)</f>
         <v>4610593.4399999995</v>
@@ -4408,10 +4430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C164C-349C-499E-8E6B-639B77463B50}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4455,7 +4477,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>103181072</v>
+        <v>102181072</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>79</v>
@@ -4537,30 +4559,30 @@
         <v>15254.237288135591</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>111679514</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="25">
         <v>44623</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="18">
         <v>31000</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="18">
         <f t="shared" si="0"/>
         <v>26271.186440677968</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="18">
         <f t="shared" si="1"/>
         <v>4728.8135593220341</v>
       </c>
@@ -4677,30 +4699,30 @@
         <v>2440.6779661016949</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
         <v>102781542</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="44">
         <v>44623</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="45">
         <v>15000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="45">
         <f t="shared" si="0"/>
         <v>12711.864406779661</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="45">
         <f t="shared" si="1"/>
         <v>2288.1355932203392</v>
       </c>
@@ -4968,7 +4990,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="E20" s="24">
         <v>44627</v>
@@ -4981,8 +5003,7 @@
         <v>15254.237288135593</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="1"/>
-        <v>2745.7627118644068</v>
+        <v>2745.76</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4990,13 +5011,13 @@
         <v>103680774</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="E21" s="24">
         <v>44627</v>
@@ -5018,13 +5039,13 @@
         <v>119618745</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="E22" s="24">
         <v>44627</v>
@@ -5052,7 +5073,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E23" s="24">
         <v>44627</v>
@@ -5074,13 +5095,13 @@
         <v>102808467</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="E24" s="24">
         <v>44628</v>
@@ -5102,13 +5123,13 @@
         <v>101912599</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>203</v>
+        <v>310</v>
       </c>
       <c r="E25" s="24">
         <v>44628</v>
@@ -5136,7 +5157,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E26" s="24">
         <v>44628</v>
@@ -5164,7 +5185,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E27" s="24">
         <v>44628</v>
@@ -5186,13 +5207,13 @@
         <v>102633790</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E28" s="24">
         <v>44628</v>
@@ -5220,7 +5241,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E29" s="24">
         <v>44628</v>
@@ -5242,13 +5263,13 @@
         <v>103372638</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E30" s="24">
         <v>44629</v>
@@ -5270,13 +5291,13 @@
         <v>103680774</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E31" s="24">
         <v>44629</v>
@@ -5304,7 +5325,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E32" s="24">
         <v>44629</v>
@@ -5332,7 +5353,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E33" s="24">
         <v>44629</v>
@@ -5349,30 +5370,30 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+    <row r="34" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
         <v>102505180</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E34" s="24">
+      <c r="B34" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="26">
         <v>44630</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="18">
         <v>25800</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="18">
         <f t="shared" si="0"/>
         <v>21864.406779661018</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="18">
         <f t="shared" si="1"/>
         <v>3935.593220338983</v>
       </c>
@@ -5382,13 +5403,13 @@
         <v>102039854</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E35" s="24">
         <v>44630</v>
@@ -5416,7 +5437,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E36" s="24">
         <v>44630</v>
@@ -5433,30 +5454,30 @@
         <v>594.91525423728808</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+    <row r="37" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
         <v>100027159</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E37" s="24">
+      <c r="C37" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="26">
         <v>44631</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="18">
         <v>8500</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="18">
         <f t="shared" si="0"/>
         <v>7203.3898305084749</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="18">
         <f t="shared" si="1"/>
         <v>1296.6101694915255</v>
       </c>
@@ -5472,7 +5493,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>220</v>
+        <v>311</v>
       </c>
       <c r="E38" s="24">
         <v>44632</v>
@@ -5500,7 +5521,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E39" s="24">
         <v>44632</v>
@@ -5522,13 +5543,13 @@
         <v>101887556</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E40" s="24">
         <v>44632</v>
@@ -5550,13 +5571,13 @@
         <v>102077681</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E41" s="24">
         <v>44634</v>
@@ -5584,7 +5605,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E42" s="24">
         <v>44634</v>
@@ -5612,7 +5633,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E43" s="27">
         <v>44634</v>
@@ -5634,13 +5655,13 @@
         <v>102213906</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E44" s="27">
         <v>44634</v>
@@ -5662,13 +5683,13 @@
         <v>107167198</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E45" s="24">
         <v>44635</v>
@@ -5690,13 +5711,13 @@
         <v>101811557</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E46" s="24">
         <v>44635</v>
@@ -5724,7 +5745,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E47" s="24">
         <v>44635</v>
@@ -5746,13 +5767,13 @@
         <v>102089702</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E48" s="24">
         <v>44636</v>
@@ -5774,13 +5795,13 @@
         <v>102921126</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E49" s="24">
         <v>44636</v>
@@ -5802,13 +5823,13 @@
         <v>102311214</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E50" s="24">
         <v>44639</v>
@@ -5825,32 +5846,31 @@
         <v>2135.593220338983</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
         <v>100537148</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E51" s="24">
+      <c r="B51" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E51" s="26">
         <v>44639</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="18">
         <v>3200</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="18">
         <f t="shared" si="0"/>
         <v>2711.8644067796608</v>
       </c>
-      <c r="H51" s="3">
-        <f t="shared" si="1"/>
-        <v>488.13559322033893</v>
+      <c r="H51" s="18">
+        <v>488.14</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -5858,13 +5878,13 @@
         <v>102089688</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E52" s="24">
         <v>44639</v>
@@ -5881,30 +5901,30 @@
         <v>5644.0677966101694</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+    <row r="53" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="47">
         <v>102776375</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E53" s="24">
+      <c r="B53" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" s="44">
         <v>44639</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="45">
         <v>18000</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="45">
         <f t="shared" si="0"/>
         <v>15254.237288135593</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="45">
         <f t="shared" si="1"/>
         <v>2745.7627118644068</v>
       </c>
@@ -5920,7 +5940,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E54" s="24">
         <v>44641</v>
@@ -5937,30 +5957,30 @@
         <v>19876.271186440677</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21">
         <v>101506622</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E55" s="24">
+      <c r="B55" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E55" s="26">
         <v>44642</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="18">
         <v>7400</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="18">
         <f t="shared" si="0"/>
         <v>6271.1864406779659</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="18">
         <f t="shared" si="1"/>
         <v>1128.8135593220338</v>
       </c>
@@ -5970,13 +5990,13 @@
         <v>101912599</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="E56" s="24">
         <v>44643</v>
@@ -5995,16 +6015,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
-        <v>106813563</v>
+        <v>106833563</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E57" s="24">
         <v>44643</v>
@@ -6032,7 +6052,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E58" s="24">
         <v>44643</v>
@@ -6054,13 +6074,13 @@
         <v>102216880</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E59" s="24">
         <v>44643</v>
@@ -6077,37 +6097,37 @@
         <v>838.98305084745755</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21">
         <v>107124183</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E60" s="24">
+      <c r="B60" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E60" s="26">
         <v>44643</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="18">
         <v>42000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="18">
         <f t="shared" si="0"/>
         <v>35593.220338983054</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="18">
         <f t="shared" si="1"/>
         <v>6406.7796610169498</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
-        <v>101527578</v>
+        <v>101527570</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>180</v>
@@ -6116,7 +6136,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E61" s="24">
         <v>44644</v>
@@ -6133,30 +6153,30 @@
         <v>838.98305084745755</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
         <v>111552217</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E62" s="24">
+      <c r="B62" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62" s="26">
         <v>44644</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="18">
         <v>19992</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="18">
         <f t="shared" si="0"/>
         <v>16942.372881355932</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="18">
         <f t="shared" si="1"/>
         <v>3049.6271186440677</v>
       </c>
@@ -6166,13 +6186,13 @@
         <v>111850097</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="E63" s="24">
         <v>44644</v>
@@ -6194,13 +6214,13 @@
         <v>102089702</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E64" s="24">
         <v>44644</v>
@@ -6222,13 +6242,13 @@
         <v>102545726</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E65" s="24">
         <v>44645</v>
@@ -6256,7 +6276,7 @@
         <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E66" s="24">
         <v>44645</v>
@@ -6278,13 +6298,13 @@
         <v>100537148</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E67" s="24">
         <v>44645</v>
@@ -6306,13 +6326,13 @@
         <v>103247042</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E68" s="24">
         <v>44645</v>
@@ -6340,7 +6360,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E69" s="24">
         <v>44646</v>
@@ -6362,13 +6382,13 @@
         <v>119789715</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E70" s="24">
         <v>44647</v>
@@ -6390,13 +6410,13 @@
         <v>102089688</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E71" s="24">
         <v>44622</v>
@@ -6418,13 +6438,13 @@
         <v>101506622</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E72" s="24">
         <v>44635</v>
@@ -6446,13 +6466,13 @@
         <v>103680774</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E73" s="24">
         <v>44637</v>
@@ -6474,13 +6494,13 @@
         <v>102089688</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E74" s="24">
         <v>44638</v>
@@ -6502,13 +6522,13 @@
         <v>102921126</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E75" s="24">
         <v>44648</v>
@@ -6536,7 +6556,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E76" s="24">
         <v>44648</v>
@@ -6564,7 +6584,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E77" s="24">
         <v>44648</v>
@@ -6581,30 +6601,30 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="20">
         <v>101506622</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E78" s="24">
+      <c r="B78" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E78" s="26">
         <v>44648</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="18">
         <v>7400</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="18">
         <f t="shared" si="4"/>
         <v>6271.1864406779659</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="18">
         <f t="shared" si="5"/>
         <v>1128.8135593220338</v>
       </c>
@@ -6614,13 +6634,13 @@
         <v>103285815</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="E79" s="24">
         <v>44649</v>
@@ -6639,16 +6659,16 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>1032385815</v>
+        <v>103285815</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E80" s="24">
         <v>44649</v>
@@ -6665,58 +6685,58 @@
         <v>5338.9800000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="20">
         <v>102416331</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E81" s="24">
+      <c r="C81" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E81" s="26">
         <v>44649</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="18">
         <v>30000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="18">
         <f t="shared" ref="G81:G88" si="6">F81*100/118</f>
         <v>25423.728813559323</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="18">
         <f t="shared" ref="H81:H88" si="7">G81*18%</f>
         <v>4576.2711864406783</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="20">
         <v>102416331</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E82" s="24">
+      <c r="C82" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E82" s="26">
         <v>44649</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="18">
         <v>73200</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="18">
         <f t="shared" si="6"/>
         <v>62033.898305084746</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="18">
         <f t="shared" si="7"/>
         <v>11166.101694915254</v>
       </c>
@@ -6726,13 +6746,13 @@
         <v>101570833</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E83" s="24">
         <v>44649</v>
@@ -6745,34 +6765,33 @@
         <v>14830.508474576271</v>
       </c>
       <c r="H83" s="3">
-        <f t="shared" si="7"/>
-        <v>2669.4915254237285</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+        <v>2288.14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20">
         <v>101506622</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E84" s="24">
+      <c r="B84" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E84" s="26">
         <v>44649</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="18">
         <v>14000</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="18">
         <f t="shared" si="6"/>
         <v>11864.406779661016</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="18">
         <f t="shared" si="7"/>
         <v>2135.593220338983</v>
       </c>
@@ -6788,7 +6807,7 @@
         <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E85" s="24">
         <v>44651</v>
@@ -6805,30 +6824,30 @@
         <v>5338.983050847457</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="20">
         <v>102781542</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E86" s="24">
+      <c r="C86" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="E86" s="26">
         <v>44651</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="18">
         <v>200250</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="18">
         <f t="shared" si="6"/>
         <v>169703.38983050847</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="18">
         <f t="shared" si="7"/>
         <v>30546.610169491523</v>
       </c>
@@ -6844,7 +6863,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E87" s="24">
         <v>44651</v>
@@ -6866,13 +6885,13 @@
         <v>102821016</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E88" s="24">
         <v>44651</v>
@@ -6900,7 +6919,7 @@
         <v>8</v>
       </c>
       <c r="D89" s="39" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E89" s="40">
         <v>44651</v>
@@ -6917,30 +6936,30 @@
         <v>457.62711864406782</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="39">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="48">
         <v>111850097</v>
       </c>
-      <c r="B90" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="E90" s="40">
+      <c r="B90" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E90" s="49">
         <v>44651</v>
       </c>
-      <c r="F90" s="36">
+      <c r="F90" s="50">
         <v>9000</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="18">
         <f t="shared" si="8"/>
         <v>7627.1186440677966</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="18">
         <f t="shared" si="9"/>
         <v>1372.8813559322034</v>
       </c>
@@ -6950,13 +6969,13 @@
         <v>102181072</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="39" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E91" s="40">
         <v>44621</v>
@@ -6977,13 +6996,13 @@
         <v>101506622</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="39" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E92" s="40">
         <v>44627</v>
@@ -7004,13 +7023,13 @@
         <v>100144768</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="39" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E93" s="40">
         <v>44627</v>
@@ -7031,13 +7050,13 @@
         <v>119618745</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="39" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E94" s="40">
         <v>44629</v>
@@ -7058,13 +7077,13 @@
         <v>101806633</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="39" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E95" s="40">
         <v>44629</v>
@@ -7085,13 +7104,13 @@
         <v>101910163</v>
       </c>
       <c r="B96" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="39" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E96" s="40">
         <v>44629</v>
@@ -7112,13 +7131,13 @@
         <v>106562632</v>
       </c>
       <c r="B97" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="39" t="s">
         <v>296</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="39" t="s">
-        <v>303</v>
       </c>
       <c r="E97" s="40">
         <v>44629</v>
@@ -7139,13 +7158,13 @@
         <v>108526887</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="39" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E98" s="40">
         <v>44630</v>
@@ -7166,13 +7185,13 @@
         <v>102163751</v>
       </c>
       <c r="B99" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="39" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E99" s="40">
         <v>44632</v>
@@ -7193,13 +7212,13 @@
         <v>101840295</v>
       </c>
       <c r="B100" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="39" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E100" s="40">
         <v>44632</v>
@@ -7220,13 +7239,13 @@
         <v>101587390</v>
       </c>
       <c r="B101" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="39" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E101" s="40">
         <v>44633</v>
@@ -7247,13 +7266,13 @@
         <v>101061491</v>
       </c>
       <c r="B102" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="39" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E102" s="40">
         <v>44635</v>
@@ -7262,7 +7281,7 @@
         <v>13050.85</v>
       </c>
       <c r="G102" s="3">
-        <f t="shared" ref="G102:G111" si="10">F102*100/118</f>
+        <f t="shared" ref="G102:G110" si="10">F102*100/118</f>
         <v>11060.042372881357</v>
       </c>
       <c r="H102" s="3">
@@ -7274,49 +7293,49 @@
         <v>102089688</v>
       </c>
       <c r="B103" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="39" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="E103" s="40">
         <v>44638</v>
       </c>
       <c r="F103" s="36">
-        <v>2118.64</v>
+        <v>3389.83</v>
       </c>
       <c r="G103" s="3">
         <f t="shared" si="10"/>
-        <v>1795.457627118644</v>
+        <v>2872.7372881355932</v>
       </c>
       <c r="H103" s="3">
-        <v>381.36</v>
+        <v>610.16999999999996</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
-        <v>102089688</v>
+        <v>100605187</v>
       </c>
       <c r="B104" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="39" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E104" s="40">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="F104" s="36">
         <v>3389.83</v>
       </c>
       <c r="G104" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G104" si="11">F104*100/118</f>
         <v>2872.7372881355932</v>
       </c>
       <c r="H104" s="3">
@@ -7325,110 +7344,110 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
-        <v>100605187</v>
+        <v>101506622</v>
       </c>
       <c r="B105" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="39" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E105" s="40">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="F105" s="36">
-        <v>3389.83</v>
+        <v>36355.93</v>
       </c>
       <c r="G105" s="3">
-        <f t="shared" ref="G105" si="11">F105*100/118</f>
-        <v>2872.7372881355932</v>
+        <f t="shared" si="10"/>
+        <v>30810.110169491527</v>
       </c>
       <c r="H105" s="3">
-        <v>610.16999999999996</v>
+        <v>6544.07</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
-        <v>101506622</v>
+        <v>111850097</v>
       </c>
       <c r="B106" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="39" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E106" s="40">
-        <v>44640</v>
+        <v>44643</v>
       </c>
       <c r="F106" s="36">
-        <v>36355.93</v>
+        <v>29661</v>
       </c>
       <c r="G106" s="3">
         <f t="shared" si="10"/>
-        <v>30810.110169491527</v>
+        <v>25136.4406779661</v>
       </c>
       <c r="H106" s="3">
-        <v>6544.07</v>
+        <v>5338.99</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
-        <v>111850097</v>
+        <v>103247042</v>
       </c>
       <c r="B107" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="39" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E107" s="40">
-        <v>44643</v>
+        <v>44648</v>
       </c>
       <c r="F107" s="36">
-        <v>29661</v>
+        <v>13347.46</v>
       </c>
       <c r="G107" s="3">
         <f t="shared" si="10"/>
-        <v>25136.4406779661</v>
+        <v>11311.406779661016</v>
       </c>
       <c r="H107" s="3">
-        <v>5338.99</v>
+        <v>2402.54</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
-        <v>103257042</v>
+        <v>101585951</v>
       </c>
       <c r="B108" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="39" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E108" s="40">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="F108" s="36">
-        <v>13347.46</v>
+        <v>299831.26</v>
       </c>
       <c r="G108" s="3">
         <f t="shared" si="10"/>
-        <v>11311.406779661016</v>
+        <v>254094.28813559323</v>
       </c>
       <c r="H108" s="3">
-        <v>2402.54</v>
+        <v>53969.63</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -7436,107 +7455,80 @@
         <v>101585951</v>
       </c>
       <c r="B109" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="39" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E109" s="40">
         <v>44649</v>
       </c>
       <c r="F109" s="36">
-        <v>299831.26</v>
+        <v>149873.45000000001</v>
       </c>
       <c r="G109" s="3">
         <f t="shared" si="10"/>
-        <v>254094.28813559323</v>
+        <v>127011.39830508476</v>
       </c>
       <c r="H109" s="3">
-        <v>53969.63</v>
+        <v>26977.22</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
-        <v>101585951</v>
+        <v>101587390</v>
       </c>
       <c r="B110" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="39" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E110" s="40">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="F110" s="36">
-        <v>149873.45000000001</v>
+        <v>2033.9</v>
       </c>
       <c r="G110" s="3">
         <f t="shared" si="10"/>
-        <v>127011.39830508476</v>
+        <v>1723.6440677966102</v>
       </c>
       <c r="H110" s="3">
-        <v>26977.22</v>
+        <v>366.1</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="39">
-        <v>101587390</v>
-      </c>
-      <c r="B111" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="E111" s="40">
-        <v>44650</v>
-      </c>
+      <c r="A111" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="55"/>
+      <c r="C111" s="55"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="56"/>
       <c r="F111" s="36">
-        <v>2033.9</v>
-      </c>
-      <c r="G111" s="3">
-        <f t="shared" si="10"/>
-        <v>1723.6440677966102</v>
-      </c>
-      <c r="H111" s="3">
-        <v>366.1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" s="45"/>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="46"/>
-      <c r="F112" s="36">
-        <f>SUM(F2:F111)</f>
-        <v>19491425.669999998</v>
-      </c>
-      <c r="G112" s="36">
-        <f>SUM(G2:G111)</f>
-        <v>16518157.347457631</v>
-      </c>
-      <c r="H112" s="36">
-        <f>SUM(H2:H111)</f>
-        <v>2975173.251525424</v>
+        <f>SUM(F2:F110)</f>
+        <v>19489307.029999997</v>
+      </c>
+      <c r="G111" s="36">
+        <f>SUM(G2:G110)</f>
+        <v>16516361.889830511</v>
+      </c>
+      <c r="H111" s="36">
+        <f>SUM(H2:H110)</f>
+        <v>2974410.5416949159</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H88" xr:uid="{E018A70D-AA4D-490A-8464-5C69F9CBDF0B}"/>
   <mergeCells count="1">
-    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A111:E111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OneClick Hotel/VAT 2022 one.xlsx
+++ b/OneClick Hotel/VAT 2022 one.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA21426-EC1E-4273-83E5-83CD03E9C2C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DF2407-3603-4F8F-82A9-B7509891E3F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="February 2022" sheetId="3" r:id="rId1"/>
     <sheet name="MARCH 2022" sheetId="4" r:id="rId2"/>
+    <sheet name="APRIL 2022" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MARCH 2022'!$A$1:$H$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MARCH 2022'!$A$1:$H$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="359">
   <si>
     <t>TIN</t>
   </si>
@@ -982,6 +983,132 @@
   </si>
   <si>
     <t>SDC007040918/5094</t>
+  </si>
+  <si>
+    <t>SECURITY WORLD TECHNOLOGY LTD</t>
+  </si>
+  <si>
+    <t>SDC002000228/8810</t>
+  </si>
+  <si>
+    <t>ALMART ELECTRONICS SHOP LTD</t>
+  </si>
+  <si>
+    <t>SDC010028680/128</t>
+  </si>
+  <si>
+    <t>SDC010028680/127</t>
+  </si>
+  <si>
+    <t>DISTRIBUTION ET VENTE DES BOISSONS LTD</t>
+  </si>
+  <si>
+    <t>SDC007074625/1117</t>
+  </si>
+  <si>
+    <t>SDC007000766/15362</t>
+  </si>
+  <si>
+    <t>SDC010014439/3793</t>
+  </si>
+  <si>
+    <t>M.A.M TRADING SERVICES LTD</t>
+  </si>
+  <si>
+    <t>SDC007009694/10508</t>
+  </si>
+  <si>
+    <t>SDC010014439/3928</t>
+  </si>
+  <si>
+    <t>SDC004003393/259755</t>
+  </si>
+  <si>
+    <t>SDC010003408/16325</t>
+  </si>
+  <si>
+    <t>SDC007007877/29</t>
+  </si>
+  <si>
+    <t>SDC004005850/153103</t>
+  </si>
+  <si>
+    <t>KIME LTD</t>
+  </si>
+  <si>
+    <t>SDC002800324/7520</t>
+  </si>
+  <si>
+    <t>SDC007057826/11412</t>
+  </si>
+  <si>
+    <t>SDC002800324/7530</t>
+  </si>
+  <si>
+    <t>SDC007074624/369</t>
+  </si>
+  <si>
+    <t>SDC007074624/368</t>
+  </si>
+  <si>
+    <t>UNIPHARMA LTD</t>
+  </si>
+  <si>
+    <t>SDC008000071/220388</t>
+  </si>
+  <si>
+    <t>HEALTHCARE PHARMACY</t>
+  </si>
+  <si>
+    <t>SDC008000428/9508</t>
+  </si>
+  <si>
+    <t>SDC010014500/3020</t>
+  </si>
+  <si>
+    <t>NEW CREATION DESIGN LTD</t>
+  </si>
+  <si>
+    <t>SDC010000612/14</t>
+  </si>
+  <si>
+    <t>YAN BUSINESS LTD</t>
+  </si>
+  <si>
+    <t>SDC007071149/7387</t>
+  </si>
+  <si>
+    <t>SDC010014500/3073</t>
+  </si>
+  <si>
+    <t>SDC002800324/7564</t>
+  </si>
+  <si>
+    <t>SDC010014439/4215</t>
+  </si>
+  <si>
+    <t>LIQUOR STORE HABINEZA COMPANY</t>
+  </si>
+  <si>
+    <t>SDC007072834/188</t>
+  </si>
+  <si>
+    <t>SDC007072834/193</t>
+  </si>
+  <si>
+    <t>SDC007074624/458</t>
+  </si>
+  <si>
+    <t>SDC010014439/4423</t>
+  </si>
+  <si>
+    <t>SDC002800324/7606</t>
+  </si>
+  <si>
+    <t>SDC007071149/7686</t>
+  </si>
+  <si>
+    <t>SDC007057826/11594</t>
   </si>
 </sst>
 </file>
@@ -4432,8 +4559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C164C-349C-499E-8E6B-639B77463B50}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7526,10 +7653,2386 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H88" xr:uid="{E018A70D-AA4D-490A-8464-5C69F9CBDF0B}"/>
+  <autoFilter ref="A1:H111" xr:uid="{E018A70D-AA4D-490A-8464-5C69F9CBDF0B}"/>
   <mergeCells count="1">
     <mergeCell ref="A111:E111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E499E4D-F297-4E7D-AF20-934741EDAB86}">
+  <dimension ref="A1:H112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="38"/>
+    <col min="9" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>101986294</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="24">
+        <v>44652</v>
+      </c>
+      <c r="F2" s="3">
+        <v>80000</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G68" si="0">F2*100/118</f>
+        <v>67796.610169491527</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H68" si="1">G2*18%</f>
+        <v>12203.389830508475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>106377841</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="35">
+        <v>44652</v>
+      </c>
+      <c r="F3" s="4">
+        <v>17000</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>14406.77966101695</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="1"/>
+        <v>2593.2203389830511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>106377841</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" s="35">
+        <v>44652</v>
+      </c>
+      <c r="F4" s="4">
+        <v>29000</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>24576.271186440677</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>4423.7288135593217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="35">
+        <v>44652</v>
+      </c>
+      <c r="F5" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>11949.152542372882</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>2150.8474576271187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>102246990</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="24">
+        <v>44652</v>
+      </c>
+      <c r="F6" s="3">
+        <v>26900</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>22796.610169491527</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>4103.3898305084749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>103387177</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="24">
+        <v>44652</v>
+      </c>
+      <c r="F7" s="3">
+        <v>31999.919999999998</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>27118.576271186441</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>4881.3437288135592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>103606486</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" s="24">
+        <v>44652</v>
+      </c>
+      <c r="F8" s="3">
+        <v>13700</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>11610.169491525423</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>2089.8305084745762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>103387177</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" s="24">
+        <v>44654</v>
+      </c>
+      <c r="F9" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>25423.728813559323</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>4576.2711864406783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>102416331</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E10" s="24">
+        <v>44653</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>2118.6440677966102</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>381.35593220338984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>106286070</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" s="24">
+        <v>44655</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>2118.6440677966102</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>381.35593220338984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>101887556</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="24">
+        <v>44655</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7164960</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>6072000</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>1092960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>102416331</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" s="24">
+        <v>44655</v>
+      </c>
+      <c r="F13" s="3">
+        <v>75000</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>63559.322033898308</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>11440.677966101695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" s="24">
+        <v>44656</v>
+      </c>
+      <c r="F14" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" ref="G14:G78" si="2">F14*100/118</f>
+        <v>10338.983050847457</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" ref="H14:H78" si="3">G14*18%</f>
+        <v>1861.0169491525421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>103372638</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" s="24">
+        <v>44657</v>
+      </c>
+      <c r="F15" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>84745.762711864401</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
+        <v>15254.237288135591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E16" s="24">
+        <v>44657</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>4406.7796610169489</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="3"/>
+        <v>793.22033898305074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>101506622</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E17" s="24">
+        <v>44657</v>
+      </c>
+      <c r="F17" s="3">
+        <v>30100</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>25508.474576271186</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="3"/>
+        <v>4591.5254237288136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E18" s="24">
+        <v>44657</v>
+      </c>
+      <c r="F18" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>12542.372881355932</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="3"/>
+        <v>2257.6271186440677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>101587911</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" s="24">
+        <v>44659</v>
+      </c>
+      <c r="F19" s="3">
+        <v>37980</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>32186.4406779661</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="3"/>
+        <v>5793.5593220338978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>118692990</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="24">
+        <v>44659</v>
+      </c>
+      <c r="F20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>5254.2372881355932</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="3"/>
+        <v>945.7627118644067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E21" s="24">
+        <v>44659</v>
+      </c>
+      <c r="F21" s="3">
+        <v>76400</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>64745.762711864409</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="3"/>
+        <v>11654.237288135593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>107643300</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E22" s="24">
+        <v>44659</v>
+      </c>
+      <c r="F22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="2"/>
+        <v>12711.864406779661</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="3"/>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>103150475</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E23" s="24">
+        <v>44660</v>
+      </c>
+      <c r="F23" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="2"/>
+        <v>12711.864406779661</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="3"/>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="24">
+        <v>44662</v>
+      </c>
+      <c r="F24" s="3">
+        <v>344500</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="2"/>
+        <v>291949.15254237287</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="3"/>
+        <v>52550.847457627118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E25" s="24">
+        <v>44662</v>
+      </c>
+      <c r="F25" s="3">
+        <v>18400</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="2"/>
+        <v>15593.22033898305</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="3"/>
+        <v>2806.7796610169489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>103372638</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" s="24">
+        <v>44663</v>
+      </c>
+      <c r="F26" s="3">
+        <v>249366.31</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="2"/>
+        <v>211327.38135593222</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="3"/>
+        <v>38038.928644067797</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>103387177</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E27" s="24">
+        <v>44664</v>
+      </c>
+      <c r="F27" s="3">
+        <v>35000</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="2"/>
+        <v>29661.016949152541</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="3"/>
+        <v>5338.983050847457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>119553030</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E28" s="24">
+        <v>44664</v>
+      </c>
+      <c r="F28" s="3">
+        <v>35000</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="2"/>
+        <v>29661.016949152541</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="3"/>
+        <v>5338.983050847457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>119553030</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E29" s="24">
+        <v>44665</v>
+      </c>
+      <c r="F29" s="3">
+        <v>70000</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="2"/>
+        <v>59322.033898305082</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="3"/>
+        <v>10677.966101694914</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E30" s="24">
+        <v>44665</v>
+      </c>
+      <c r="F30" s="3">
+        <v>34300</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="2"/>
+        <v>29067.796610169491</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="3"/>
+        <v>5232.2033898305081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>103387177</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E31" s="24">
+        <v>44667</v>
+      </c>
+      <c r="F31" s="3">
+        <v>32000</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="2"/>
+        <v>27118.644067796609</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="3"/>
+        <v>4881.3559322033898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>102181072</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E32" s="24">
+        <v>44667</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="2"/>
+        <v>3389.8305084745762</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="3"/>
+        <v>610.16949152542372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>103150475</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E33" s="24">
+        <v>44667</v>
+      </c>
+      <c r="F33" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="2"/>
+        <v>12711.864406779661</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="3"/>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3">
+        <f t="shared" ref="G79:G111" si="4">F79*100/118</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" ref="H79:H111" si="5">G79*18%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="39"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="39"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="39"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="39"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="39"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="39"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="39"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="39"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="39"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="39"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="39"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="39"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="39"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="39"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="39"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="39"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="39"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="39"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="39"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="39"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="39"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="39"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="39"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="39"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="39"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="39"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="39"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="39"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="55"/>
+      <c r="C112" s="55"/>
+      <c r="D112" s="55"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="36">
+        <f>SUM(F2:F111)</f>
+        <v>8638106.2300000004</v>
+      </c>
+      <c r="G112" s="36">
+        <f>SUM(G2:G111)</f>
+        <v>7320429.0084745744</v>
+      </c>
+      <c r="H112" s="36">
+        <f>SUM(H2:H111)</f>
+        <v>1317677.2215254239</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A112:E112"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OneClick Hotel/VAT 2022 one.xlsx
+++ b/OneClick Hotel/VAT 2022 one.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DF2407-3603-4F8F-82A9-B7509891E3F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C729513-8F2F-4ED2-A324-DD89603C1E88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="February 2022" sheetId="3" r:id="rId1"/>
     <sheet name="MARCH 2022" sheetId="4" r:id="rId2"/>
     <sheet name="APRIL 2022" sheetId="5" r:id="rId3"/>
+    <sheet name="MAY 2022" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'APRIL 2022'!$A$1:$H$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MARCH 2022'!$A$1:$H$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="477">
   <si>
     <t>TIN</t>
   </si>
@@ -1030,9 +1032,6 @@
     <t>SDC007007877/29</t>
   </si>
   <si>
-    <t>SDC004005850/153103</t>
-  </si>
-  <si>
     <t>KIME LTD</t>
   </si>
   <si>
@@ -1054,15 +1053,9 @@
     <t>UNIPHARMA LTD</t>
   </si>
   <si>
-    <t>SDC008000071/220388</t>
-  </si>
-  <si>
     <t>HEALTHCARE PHARMACY</t>
   </si>
   <si>
-    <t>SDC008000428/9508</t>
-  </si>
-  <si>
     <t>SDC010014500/3020</t>
   </si>
   <si>
@@ -1109,6 +1102,369 @@
   </si>
   <si>
     <t>SDC007057826/11594</t>
+  </si>
+  <si>
+    <t>SDC010014500/2901</t>
+  </si>
+  <si>
+    <t>SDC010014500/2941</t>
+  </si>
+  <si>
+    <t>SDC010014439/4460</t>
+  </si>
+  <si>
+    <t>MAGASIN SHARMA</t>
+  </si>
+  <si>
+    <t>SDC008000409/17712</t>
+  </si>
+  <si>
+    <t>ECOWILL LTD</t>
+  </si>
+  <si>
+    <t>SDC007073592/417</t>
+  </si>
+  <si>
+    <t>SDC007074625/2156</t>
+  </si>
+  <si>
+    <t>SDC007073210/579</t>
+  </si>
+  <si>
+    <t>SDC007074625/2165</t>
+  </si>
+  <si>
+    <t>GOOD NEWS ENTERPRISES LTD</t>
+  </si>
+  <si>
+    <t>SDC010002707/3892</t>
+  </si>
+  <si>
+    <t>NIYAV TRADING LTD</t>
+  </si>
+  <si>
+    <t>SDC010018251/714</t>
+  </si>
+  <si>
+    <t>AARON NZENGIMANA</t>
+  </si>
+  <si>
+    <t>SDC010006082/1767</t>
+  </si>
+  <si>
+    <t>SDC007074625/2274</t>
+  </si>
+  <si>
+    <t>RAFACO LTD</t>
+  </si>
+  <si>
+    <t>SDC007000766/15611</t>
+  </si>
+  <si>
+    <t>OLIVIER SIBOMANA</t>
+  </si>
+  <si>
+    <t>SDC010015466/960</t>
+  </si>
+  <si>
+    <t>LA NOUVELLE</t>
+  </si>
+  <si>
+    <t>SDC001000653/142369</t>
+  </si>
+  <si>
+    <t>SDC007071149/7824</t>
+  </si>
+  <si>
+    <t>SDC004005850/135176</t>
+  </si>
+  <si>
+    <t>SDC004005850/64072</t>
+  </si>
+  <si>
+    <t>SDC007074625/2398</t>
+  </si>
+  <si>
+    <t>COME ONE COME ALL LTD</t>
+  </si>
+  <si>
+    <t>SDC007000820/18474</t>
+  </si>
+  <si>
+    <t>SDC010004321/7098</t>
+  </si>
+  <si>
+    <t>SDC002800324/7648</t>
+  </si>
+  <si>
+    <t>SDC010014500/3212</t>
+  </si>
+  <si>
+    <t>SDC010014500/3292</t>
+  </si>
+  <si>
+    <t>SDC010001656/5139</t>
+  </si>
+  <si>
+    <t>SDC007074624/626</t>
+  </si>
+  <si>
+    <t>WASAC</t>
+  </si>
+  <si>
+    <t>SDC011000216/4310241</t>
+  </si>
+  <si>
+    <t>SDC010004231/6139</t>
+  </si>
+  <si>
+    <t>SDC010014500/3360</t>
+  </si>
+  <si>
+    <t>SIMBA SUPERMARKET LTD</t>
+  </si>
+  <si>
+    <t>SDC011000805/472722</t>
+  </si>
+  <si>
+    <t>SDC010006487/1497</t>
+  </si>
+  <si>
+    <t>NIECO LTD</t>
+  </si>
+  <si>
+    <t>SDC010017707/226</t>
+  </si>
+  <si>
+    <t>SDC010006487/1498</t>
+  </si>
+  <si>
+    <t>SDC007010575/580</t>
+  </si>
+  <si>
+    <t>SDC007000766/15725</t>
+  </si>
+  <si>
+    <t>SDC007000766/15724</t>
+  </si>
+  <si>
+    <t>SDC010003408/16257</t>
+  </si>
+  <si>
+    <t>SDC007009694/10520</t>
+  </si>
+  <si>
+    <t>SDC007074624/305</t>
+  </si>
+  <si>
+    <t>SDC007000766/15775</t>
+  </si>
+  <si>
+    <t>SDC007009694/10797</t>
+  </si>
+  <si>
+    <t>SDC010014500/3447</t>
+  </si>
+  <si>
+    <t>SDC004005850/133103</t>
+  </si>
+  <si>
+    <t>SDC008000071/220368</t>
+  </si>
+  <si>
+    <t>SDC008000428/9506</t>
+  </si>
+  <si>
+    <t>SDC010011864/758</t>
+  </si>
+  <si>
+    <t>SDC010003408/16520</t>
+  </si>
+  <si>
+    <t>SDC010003408/16661</t>
+  </si>
+  <si>
+    <t>SDC011000445/39896</t>
+  </si>
+  <si>
+    <t>SDC007040918/5603</t>
+  </si>
+  <si>
+    <t>SDC007010197/1045</t>
+  </si>
+  <si>
+    <t>SDC007073592/416</t>
+  </si>
+  <si>
+    <t>SDC010003408/17841</t>
+  </si>
+  <si>
+    <t>SDC007000467/51291</t>
+  </si>
+  <si>
+    <t>SDC007000766/15669</t>
+  </si>
+  <si>
+    <t>SDC007057826/11926</t>
+  </si>
+  <si>
+    <t>SDC010016882/5318</t>
+  </si>
+  <si>
+    <t>SDC011000805/402709</t>
+  </si>
+  <si>
+    <t>SDC010014500/3545</t>
+  </si>
+  <si>
+    <t>SDC002800324/7736</t>
+  </si>
+  <si>
+    <t>SDC007057826/12403</t>
+  </si>
+  <si>
+    <t>SDC007074625/3127</t>
+  </si>
+  <si>
+    <t>SDC007072834/209</t>
+  </si>
+  <si>
+    <t>SDC007007877/30</t>
+  </si>
+  <si>
+    <t>SDC010014439/5052</t>
+  </si>
+  <si>
+    <t>SDC002800324/7742</t>
+  </si>
+  <si>
+    <t>DISTRIBUTION ET VENTE DES BOISSONS</t>
+  </si>
+  <si>
+    <t>SDC002800324/7751</t>
+  </si>
+  <si>
+    <t>SDC002800324/7752</t>
+  </si>
+  <si>
+    <t>SDC002800324/7753</t>
+  </si>
+  <si>
+    <t>ECK STRONG LTD</t>
+  </si>
+  <si>
+    <t>SDC010019789/363</t>
+  </si>
+  <si>
+    <t>SDC010014500/3609</t>
+  </si>
+  <si>
+    <t>SDC010014500/3693</t>
+  </si>
+  <si>
+    <t>SDC010014500/3669</t>
+  </si>
+  <si>
+    <t>GOLIKA LTD</t>
+  </si>
+  <si>
+    <t>SDC007072490/422</t>
+  </si>
+  <si>
+    <t>SDC002800324/7796</t>
+  </si>
+  <si>
+    <t>SDC007000766/15884</t>
+  </si>
+  <si>
+    <t>SOCIETE FOREX SARL</t>
+  </si>
+  <si>
+    <t>SDC010001656/5379</t>
+  </si>
+  <si>
+    <t>LIQUID TELECOMMUNICATION</t>
+  </si>
+  <si>
+    <t>SDC011000445/45436</t>
+  </si>
+  <si>
+    <t>SDC007074625/3493</t>
+  </si>
+  <si>
+    <t>SDC002800324/7833</t>
+  </si>
+  <si>
+    <t>SDC010014500/3764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARADIS DU COEUR &amp; PARADIS DU CORPRS </t>
+  </si>
+  <si>
+    <t>SDC007042825/1481</t>
+  </si>
+  <si>
+    <t>KAREMERA</t>
+  </si>
+  <si>
+    <t>SDC010015833/130</t>
+  </si>
+  <si>
+    <t>SDC010017707/241</t>
+  </si>
+  <si>
+    <t>ABELTS</t>
+  </si>
+  <si>
+    <t>SDC010008927/492</t>
+  </si>
+  <si>
+    <t>SCD010008927/489</t>
+  </si>
+  <si>
+    <t>CLASSIC TOOLS LTD</t>
+  </si>
+  <si>
+    <t>SDC010017591/418</t>
+  </si>
+  <si>
+    <t>FRESH POINT SUPPLY LTD</t>
+  </si>
+  <si>
+    <t>SDC007048968/15871</t>
+  </si>
+  <si>
+    <t>SDC007003970/185</t>
+  </si>
+  <si>
+    <t>SDC010014439/5343</t>
+  </si>
+  <si>
+    <t>SDC004004840/821777</t>
+  </si>
+  <si>
+    <t>PERMANET TRADING COMPANY LTD</t>
+  </si>
+  <si>
+    <t>SDC010022023/413</t>
+  </si>
+  <si>
+    <t>DANIEL SAFARI</t>
+  </si>
+  <si>
+    <t>SDC005006010/1935</t>
+  </si>
+  <si>
+    <t>SDC010014500/3824</t>
+  </si>
+  <si>
+    <t>SDC010003408/20480</t>
+  </si>
+  <si>
+    <t>SDC002800324/7874</t>
+  </si>
+  <si>
+    <t>SDC010001656/5499</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1221,11 +1577,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1313,6 +1697,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4526,13 +4928,13 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="51" t="s">
+      <c r="A103" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="53"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="59"/>
       <c r="F103" s="30">
         <f>SUM(F2:F102)</f>
         <v>4610593.4399999995</v>
@@ -4559,7 +4961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C164C-349C-499E-8E6B-639B77463B50}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
@@ -7632,13 +8034,13 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="54" t="s">
+      <c r="A111" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="55"/>
-      <c r="C111" s="55"/>
-      <c r="D111" s="55"/>
-      <c r="E111" s="56"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="61"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="62"/>
       <c r="F111" s="36">
         <f>SUM(F2:F110)</f>
         <v>19489307.029999997</v>
@@ -7663,10 +8065,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E499E4D-F297-4E7D-AF20-934741EDAB86}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7674,7 +8076,7 @@
     <col min="1" max="1" width="11" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="38" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="38" bestFit="1" customWidth="1"/>
@@ -7728,11 +8130,11 @@
         <v>80000</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G68" si="0">F2*100/118</f>
+        <f t="shared" ref="G2:G13" si="0">F2*100/118</f>
         <v>67796.610169491527</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H68" si="1">G2*18%</f>
+        <f t="shared" ref="H2:H13" si="1">G2*18%</f>
         <v>12203.389830508475</v>
       </c>
     </row>
@@ -8027,7 +8429,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>332</v>
+        <v>410</v>
       </c>
       <c r="E13" s="24">
         <v>44655</v>
@@ -8049,13 +8451,13 @@
         <v>102181072</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="E14" s="24">
         <v>44656</v>
@@ -8064,11 +8466,11 @@
         <v>12200</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" ref="G14:G78" si="2">F14*100/118</f>
+        <f t="shared" ref="G14:G75" si="2">F14*100/118</f>
         <v>10338.983050847457</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" ref="H14:H78" si="3">G14*18%</f>
+        <f t="shared" ref="H14:H75" si="3">G14*18%</f>
         <v>1861.0169491525421</v>
       </c>
     </row>
@@ -8083,7 +8485,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E15" s="24">
         <v>44657</v>
@@ -8096,8 +8498,7 @@
         <v>84745.762711864401</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="3"/>
-        <v>15254.237288135591</v>
+        <v>15215.57</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8105,13 +8506,13 @@
         <v>102181072</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E16" s="24">
         <v>44657</v>
@@ -8139,7 +8540,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E17" s="24">
         <v>44657</v>
@@ -8167,7 +8568,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E18" s="24">
         <v>44657</v>
@@ -8189,13 +8590,13 @@
         <v>101587911</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>340</v>
+        <v>411</v>
       </c>
       <c r="E19" s="24">
         <v>44659</v>
@@ -8217,13 +8618,13 @@
         <v>118692990</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>342</v>
+        <v>412</v>
       </c>
       <c r="E20" s="24">
         <v>44659</v>
@@ -8251,7 +8652,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E21" s="24">
         <v>44659</v>
@@ -8273,13 +8674,13 @@
         <v>107643300</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E22" s="24">
         <v>44659</v>
@@ -8301,13 +8702,13 @@
         <v>103150475</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E23" s="24">
         <v>44660</v>
@@ -8335,7 +8736,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E24" s="24">
         <v>44662</v>
@@ -8357,13 +8758,13 @@
         <v>102181072</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E25" s="24">
         <v>44662</v>
@@ -8391,7 +8792,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E26" s="24">
         <v>44663</v>
@@ -8419,7 +8820,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E27" s="24">
         <v>44664</v>
@@ -8441,13 +8842,13 @@
         <v>119553030</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E28" s="24">
         <v>44664</v>
@@ -8469,13 +8870,13 @@
         <v>119553030</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E29" s="24">
         <v>44665</v>
@@ -8503,7 +8904,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E30" s="24">
         <v>44665</v>
@@ -8531,7 +8932,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E31" s="24">
         <v>44667</v>
@@ -8553,13 +8954,13 @@
         <v>102181072</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E32" s="24">
         <v>44667</v>
@@ -8581,13 +8982,13 @@
         <v>103150475</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E33" s="24">
         <v>44667</v>
@@ -8605,129 +9006,2700 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="3"/>
+      <c r="D34" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="E34" s="53">
+        <v>44653</v>
+      </c>
+      <c r="F34" s="52">
+        <v>64400</v>
+      </c>
       <c r="G34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G34:G40" si="4">F34*100/118</f>
+        <v>54576.271186440681</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" ref="H34:H40" si="5">G34*18%</f>
+        <v>9823.7288135593226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="E35" s="56">
+        <v>44655</v>
+      </c>
+      <c r="F35" s="55">
+        <v>244450</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="4"/>
+        <v>207161.01694915254</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="5"/>
+        <v>37288.983050847455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>103387177</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E36" s="24">
+        <v>44668</v>
+      </c>
+      <c r="F36" s="3">
+        <v>32000</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="4"/>
+        <v>27118.644067796609</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="5"/>
+        <v>4881.3559322033898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>101346738</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E37" s="24">
+        <v>44669</v>
+      </c>
+      <c r="F37" s="38">
+        <v>10000</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="4"/>
+        <v>8474.5762711864409</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="5"/>
+        <v>1525.4237288135594</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>103112648</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E38" s="24">
+        <v>44668</v>
+      </c>
+      <c r="F38" s="38">
+        <v>35000</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="4"/>
+        <v>29661.016949152541</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="5"/>
+        <v>5338.983050847457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E39" s="24">
+        <v>44668</v>
+      </c>
+      <c r="F39" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="4"/>
+        <v>10254.237288135593</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="5"/>
+        <v>1845.7627118644068</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>108173992</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E40" s="24">
+        <v>44669</v>
+      </c>
+      <c r="F40" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="4"/>
+        <v>9322.0338983050842</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="5"/>
+        <v>1677.9661016949151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E41" s="24">
+        <v>44668</v>
+      </c>
+      <c r="F41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="2"/>
+        <v>12542.372881355932</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="3"/>
+        <v>2257.6271186440677</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>101998283</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E42" s="24">
+        <v>44670</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="2"/>
+        <v>6949.1525423728817</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="3"/>
+        <v>1250.8474576271187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>103468675</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E43" s="24">
+        <v>44670</v>
+      </c>
+      <c r="F43" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="2"/>
+        <v>42372.881355932201</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="3"/>
+        <v>7627.1186440677957</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>106511429</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="27">
+        <v>44670</v>
+      </c>
+      <c r="F44" s="3">
+        <v>47000</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="2"/>
+        <v>39830.508474576272</v>
+      </c>
+      <c r="H44" s="3">
+        <v>7169.49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E45" s="27">
+        <v>44670</v>
+      </c>
+      <c r="F45" s="3">
+        <v>45000</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="2"/>
+        <v>38135.593220338982</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="3"/>
+        <v>6864.4067796610161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>102246990</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E46" s="24">
+        <v>44670</v>
+      </c>
+      <c r="F46" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="2"/>
+        <v>9322.0338983050842</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="3"/>
+        <v>1677.9661016949151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>103386408</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E47" s="24">
+        <v>44671</v>
+      </c>
+      <c r="F47" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="2"/>
+        <v>10169.491525423729</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="3"/>
+        <v>1830.5084745762713</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>102231856</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E48" s="24">
+        <v>44668</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="2"/>
+        <v>3813.5593220338983</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="3"/>
+        <v>686.4406779661017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>103150475</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E49" s="24">
+        <v>44671</v>
+      </c>
+      <c r="F49" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="2"/>
+        <v>21186.4406779661</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="3"/>
+        <v>3813.5593220338978</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>102416331</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E50" s="24">
+        <v>44671</v>
+      </c>
+      <c r="F50" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="2"/>
+        <v>15254.237288135593</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="3"/>
+        <v>2745.7627118644068</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>102416331</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E51" s="24">
+        <v>44671</v>
+      </c>
+      <c r="F51" s="3">
+        <v>28800</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="2"/>
+        <v>24406.77966101695</v>
+      </c>
+      <c r="H51" s="3">
+        <v>4393.22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>101506622</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E52" s="24">
+        <v>44672</v>
+      </c>
+      <c r="F52" s="3">
+        <v>38200</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="2"/>
+        <v>32372.881355932204</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="3"/>
+        <v>5827.1186440677966</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>101967453</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E53" s="24">
+        <v>44672</v>
+      </c>
+      <c r="F53" s="3">
+        <v>46400</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="2"/>
+        <v>39322.033898305082</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="3"/>
+        <v>7077.9661016949149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>102730249</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E54" s="24">
+        <v>44673</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45000</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="2"/>
+        <v>38135.593220338982</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="3"/>
+        <v>6864.4067796610161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E55" s="24">
+        <v>44672</v>
+      </c>
+      <c r="F55" s="3">
+        <v>18400</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="2"/>
+        <v>15593.22033898305</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="3"/>
+        <v>2806.7796610169489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E56" s="24">
+        <v>44669</v>
+      </c>
+      <c r="F56" s="3">
+        <v>284000</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="2"/>
+        <v>240677.96610169491</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="3"/>
+        <v>43322.033898305082</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E57" s="24">
+        <v>44672</v>
+      </c>
+      <c r="F57" s="3">
+        <v>319450</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" ref="G57" si="6">F57*100/118</f>
+        <v>270720.33898305084</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" ref="H57" si="7">G57*18%</f>
+        <v>48729.661016949147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>101546434</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E58" s="24">
+        <v>44674</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="2"/>
+        <v>3389.8305084745762</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="3"/>
+        <v>610.16949152542372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>101506622</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E59" s="24">
+        <v>44675</v>
+      </c>
+      <c r="F59" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="2"/>
+        <v>13559.322033898305</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="3"/>
+        <v>2440.6779661016949</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>103370539</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E60" s="24">
+        <v>44673</v>
+      </c>
+      <c r="F60" s="3">
+        <v>119008.9</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="2"/>
+        <v>100855</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="3"/>
+        <v>18153.899999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>101912599</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E61" s="24">
+        <v>44676</v>
+      </c>
+      <c r="F61" s="3">
+        <v>36000</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="2"/>
+        <v>30508.474576271186</v>
+      </c>
+      <c r="H61" s="3">
+        <v>3432.21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>102781542</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E62" s="24">
+        <v>44676</v>
+      </c>
+      <c r="F62" s="3">
+        <v>392200</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="2"/>
+        <v>332372.88135593222</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="3"/>
+        <v>59827.118644067799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>101587390</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E63" s="24">
+        <v>44677</v>
+      </c>
+      <c r="F63" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="2"/>
+        <v>4576.2711864406783</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="3"/>
+        <v>823.72881355932202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>119098861</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E64" s="24">
+        <v>44677</v>
+      </c>
+      <c r="F64" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="2"/>
+        <v>21186.4406779661</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="3"/>
+        <v>3813.5593220338978</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>107654416</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E65" s="24">
+        <v>44677</v>
+      </c>
+      <c r="F65" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="2"/>
+        <v>5084.7457627118647</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="3"/>
+        <v>915.25423728813564</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>119098861</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E66" s="24">
+        <v>44677</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="2"/>
+        <v>847.45762711864404</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="3"/>
+        <v>152.54237288135593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>102089702</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E67" s="24">
+        <v>44678</v>
+      </c>
+      <c r="F67" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="2"/>
+        <v>16949.152542372882</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="3"/>
+        <v>3050.8474576271187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>102246990</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E68" s="24">
+        <v>44678</v>
+      </c>
+      <c r="F68" s="3">
+        <v>23100</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="2"/>
+        <v>19576.271186440677</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="3"/>
+        <v>3523.7288135593217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>102246990</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E69" s="24">
+        <v>44678</v>
+      </c>
+      <c r="F69" s="3">
+        <v>36250</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="2"/>
+        <v>30720.338983050846</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="3"/>
+        <v>5529.6610169491523</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>106286070</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E70" s="24">
+        <v>44653</v>
+      </c>
+      <c r="F70" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="2"/>
+        <v>16949.152542372882</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="3"/>
+        <v>3050.8474576271187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>103606486</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E71" s="24">
+        <v>44653</v>
+      </c>
+      <c r="F71" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="2"/>
+        <v>7796.6101694915251</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="3"/>
+        <v>1403.3898305084745</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>101506622</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E72" s="24">
+        <v>44653</v>
+      </c>
+      <c r="F72" s="3">
+        <v>22200</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="2"/>
+        <v>18813.5593220339</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="3"/>
+        <v>3386.4406779661017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>102246990</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E73" s="24">
+        <v>44681</v>
+      </c>
+      <c r="F73" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="2"/>
+        <v>12542.372881355932</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="3"/>
+        <v>2257.6271186440677</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>103606486</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E74" s="24">
+        <v>44681</v>
+      </c>
+      <c r="F74" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="2"/>
+        <v>10169.491525423729</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="3"/>
+        <v>1830.5084745762713</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E75" s="24">
+        <v>44679</v>
+      </c>
+      <c r="F75" s="3">
+        <v>222000</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="2"/>
+        <v>188135.59322033898</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="3"/>
+        <v>33864.406779661018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>111615104</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E76" s="24">
+        <v>44654</v>
+      </c>
+      <c r="F76" s="3">
+        <f>G76*118/100</f>
+        <v>9000.0015999999996</v>
+      </c>
+      <c r="G76" s="3">
+        <v>7627.12</v>
+      </c>
+      <c r="H76" s="3">
+        <f>G76*18%</f>
+        <v>1372.8815999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>106286070</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E77" s="24">
+        <v>44657</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" ref="F77:F88" si="8">G77*118/100</f>
+        <v>2499.9951999999998</v>
+      </c>
+      <c r="G77" s="3">
+        <v>2118.64</v>
+      </c>
+      <c r="H77" s="3">
+        <f>G77*18%</f>
+        <v>381.35519999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>106286070</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E78" s="24">
+        <v>44659</v>
+      </c>
+      <c r="F78" s="3">
+        <f t="shared" si="8"/>
+        <v>2499.9951999999998</v>
+      </c>
+      <c r="G78" s="3">
+        <v>2118.64</v>
+      </c>
+      <c r="H78" s="3">
+        <f>G78*18%</f>
+        <v>381.35519999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>101585951</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E79" s="24">
+        <v>44659</v>
+      </c>
+      <c r="F79" s="3">
+        <f t="shared" si="8"/>
+        <v>235800.88680000001</v>
+      </c>
+      <c r="G79" s="3">
+        <v>199831.26</v>
+      </c>
+      <c r="H79" s="3">
+        <f>G79*18%</f>
+        <v>35969.626799999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>101526614</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E80" s="24">
+        <v>44665</v>
+      </c>
+      <c r="F80" s="3">
+        <f t="shared" si="8"/>
+        <v>26000.002</v>
+      </c>
+      <c r="G80" s="3">
+        <v>22033.9</v>
+      </c>
+      <c r="H80" s="3">
+        <f>G80*18%</f>
+        <v>3966.1020000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>101587390</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E81" s="24">
+        <v>44666</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" si="8"/>
+        <v>8837.2441999999992</v>
+      </c>
+      <c r="G81" s="3">
+        <v>7489.19</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1128.81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>102213906</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E82" s="24">
+        <v>44667</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" si="8"/>
+        <v>149999.9952</v>
+      </c>
+      <c r="G82" s="3">
+        <v>127118.64</v>
+      </c>
+      <c r="H82" s="3">
+        <f>G82*18%</f>
+        <v>22881.355199999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>103112648</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E83" s="24">
+        <v>44668</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" si="8"/>
+        <v>32499.996599999999</v>
+      </c>
+      <c r="G83" s="3">
+        <v>27542.37</v>
+      </c>
+      <c r="H83" s="3">
+        <f>G83*18%</f>
+        <v>4957.6265999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>106286070</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E84" s="24">
+        <v>44670</v>
+      </c>
+      <c r="F84" s="3">
+        <f t="shared" si="8"/>
+        <v>5000.0021999999999</v>
+      </c>
+      <c r="G84" s="3">
+        <v>4237.29</v>
+      </c>
+      <c r="H84" s="3">
+        <f>G84*18%</f>
+        <v>762.71219999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>100144768</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E85" s="24">
+        <v>44672</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" si="8"/>
+        <v>44500.006600000001</v>
+      </c>
+      <c r="G85" s="3">
+        <v>37711.870000000003</v>
+      </c>
+      <c r="H85" s="3">
+        <f>G85*18%</f>
+        <v>6788.1365999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>102246990</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E86" s="24">
+        <v>44674</v>
+      </c>
+      <c r="F86" s="3">
+        <f t="shared" si="8"/>
+        <v>14799.996600000002</v>
+      </c>
+      <c r="G86" s="3">
+        <v>12542.37</v>
+      </c>
+      <c r="H86" s="3">
+        <f>G86*18%</f>
+        <v>2257.6266000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>103372638</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E87" s="24">
+        <v>44676</v>
+      </c>
+      <c r="F87" s="3">
+        <f t="shared" si="8"/>
+        <v>50022.807800000002</v>
+      </c>
+      <c r="G87" s="3">
+        <v>42392.21</v>
+      </c>
+      <c r="H87" s="3">
+        <v>7607.79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>100842112</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E88" s="24">
+        <v>44678</v>
+      </c>
+      <c r="F88" s="3">
+        <f t="shared" si="8"/>
+        <v>27499.994400000003</v>
+      </c>
+      <c r="G88" s="3">
+        <v>23305.08</v>
+      </c>
+      <c r="H88" s="3">
+        <f>G88*18%</f>
+        <v>4194.9144000000006</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="61"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="36">
+        <f>SUM(F2:F88)</f>
+        <v>11655926.054400004</v>
+      </c>
+      <c r="G89" s="36">
+        <f>SUM(G2:G88)</f>
+        <v>9877903.4359322041</v>
+      </c>
+      <c r="H89" s="36">
+        <f>SUM(H2:H88)</f>
+        <v>1775682.5818915262</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H89" xr:uid="{A60B0912-353F-4EEE-8C57-3B451618D50E}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A89:E89"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40850D3D-9461-4510-9677-2B002EF22204}">
+  <dimension ref="A1:H89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="38"/>
+    <col min="9" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" s="24">
+        <v>44683</v>
+      </c>
+      <c r="F2" s="3">
+        <v>87700</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G9" si="0">F2*100/118</f>
+        <v>74322.03389830509</v>
+      </c>
+      <c r="H2" s="3">
+        <v>793.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>102181072</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E3" s="35">
+        <v>44684</v>
+      </c>
+      <c r="F3" s="4">
+        <v>54000</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>45762.711864406781</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>103372638</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" s="35">
+        <v>44686</v>
+      </c>
+      <c r="F4" s="4">
+        <v>299239.57</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>253592.85593220338</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H8" si="1">G4*18%</f>
+        <v>45646.714067796609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E5" s="35">
+        <v>44686</v>
+      </c>
+      <c r="F5" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>12542.372881355932</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>2257.6271186440677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E6" s="24">
+        <v>44686</v>
+      </c>
+      <c r="F6" s="3">
+        <v>91950</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>77923.728813559326</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E7" s="24">
+        <v>44686</v>
+      </c>
+      <c r="F7" s="3">
+        <v>21000</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>17796.610169491527</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>119553030</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="24">
+        <v>44686</v>
+      </c>
+      <c r="F8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>25423.728813559323</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>4576.2711864406783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" s="24">
+        <v>44686</v>
+      </c>
+      <c r="F9" s="3">
+        <v>27500</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>23305.084745762713</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>101887556</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E10" s="24">
+        <v>44687</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7164960</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" ref="G10:G73" si="2">F10*100/118</f>
+        <v>6072000</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" ref="H10:H73" si="3">G10*18%</f>
+        <v>1092960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>103387177</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E11" s="24">
+        <v>44687</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>2542.3728813559323</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="3"/>
+        <v>457.62711864406782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>103719433</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" s="24">
+        <v>44688</v>
+      </c>
+      <c r="F12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>20338.983050847459</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="3"/>
+        <v>3661.0169491525426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E13" s="24">
+        <v>44683</v>
+      </c>
+      <c r="F13" s="3">
+        <v>275700</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>233644.06779661018</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="3"/>
+        <v>42055.932203389828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E14" s="24">
+        <v>44686</v>
+      </c>
+      <c r="F14" s="3">
+        <v>220300</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>186694.91525423728</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
+        <v>33605.08474576271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E15" s="24">
+        <v>44688</v>
+      </c>
+      <c r="F15" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>10169.491525423729</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
+        <v>1830.5084745762713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E16" s="24">
+        <v>44689</v>
+      </c>
+      <c r="F16" s="3">
+        <v>221600</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>187796.61016949153</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="3"/>
+        <v>33803.389830508473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>118739741</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E17" s="24">
+        <v>44690</v>
+      </c>
+      <c r="F17" s="3">
+        <v>25500</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>21610.169491525423</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="3"/>
+        <v>3889.8305084745762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E18" s="24">
+        <v>44690</v>
+      </c>
+      <c r="F18" s="3">
+        <v>131000</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>111016.94915254238</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1677.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>102246990</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E19" s="24">
+        <v>44691</v>
+      </c>
+      <c r="F19" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>12542.372881355932</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="3"/>
+        <v>2257.6271186440677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>101546434</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E20" s="24">
+        <v>44691</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>2118.6440677966102</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="3"/>
+        <v>381.35593220338984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>101585951</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E21" s="24">
+        <v>44689</v>
+      </c>
+      <c r="F21" s="3">
+        <v>235800</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>199830.50847457626</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="3"/>
+        <v>35969.491525423728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E22" s="24">
+        <v>44693</v>
+      </c>
+      <c r="F22" s="3">
+        <v>19500</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="2"/>
+        <v>16525.423728813559</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="3"/>
+        <v>2974.5762711864404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E23" s="24">
+        <v>44693</v>
+      </c>
+      <c r="F23" s="3">
+        <v>137000</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="2"/>
+        <v>116101.69491525424</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2440.6999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E24" s="24">
+        <v>44693</v>
+      </c>
+      <c r="F24" s="3">
+        <v>194500</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="2"/>
+        <v>164830.50847457626</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="3"/>
+        <v>29669.491525423724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>111601197</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E25" s="24">
+        <v>44694</v>
+      </c>
+      <c r="F25" s="3">
+        <v>55000</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="2"/>
+        <v>46610.169491525427</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="3"/>
+        <v>8389.8305084745771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>100846084</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E26" s="24">
+        <v>44689</v>
+      </c>
+      <c r="F26" s="3">
+        <v>65300</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="2"/>
+        <v>55338.983050847455</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="3"/>
+        <v>9961.0169491525412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>107654416</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E27" s="24">
+        <v>44690</v>
+      </c>
+      <c r="F27" s="3">
+        <v>114200</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="2"/>
+        <v>96779.661016949147</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="3"/>
+        <v>17420.338983050846</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>107531579</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E28" s="24">
+        <v>44690</v>
+      </c>
+      <c r="F28" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="2"/>
+        <v>11864.406779661016</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="3"/>
+        <v>2135.593220338983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>107531579</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E29" s="24">
+        <v>44689</v>
+      </c>
+      <c r="F29" s="3">
+        <v>28000</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="2"/>
+        <v>23728.813559322032</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="3"/>
+        <v>4271.1864406779659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>106415852</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E30" s="24">
+        <v>44689</v>
+      </c>
+      <c r="F30" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="2"/>
+        <v>3813.5593220338983</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="3"/>
+        <v>686.4406779661017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>111967405</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E31" s="24">
+        <v>44694</v>
+      </c>
+      <c r="F31" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="2"/>
+        <v>6355.9322033898306</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="3"/>
+        <v>1144.0677966101696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>107343569</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E32" s="24">
+        <v>44694</v>
+      </c>
+      <c r="F32" s="3">
+        <v>17700</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="3"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>103387177</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E33" s="24">
+        <v>44696</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="2"/>
+        <v>2542.3728813559323</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="3"/>
+        <v>457.62711864406782</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>100027159</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>468</v>
+      </c>
+      <c r="E34" s="53">
+        <v>44691</v>
+      </c>
+      <c r="F34" s="52">
+        <v>2200</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="2"/>
+        <v>1864.406779661017</v>
+      </c>
       <c r="H34" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="2"/>
+        <v>335.59322033898303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>102609359</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="3"/>
+      <c r="D35" s="54" t="s">
+        <v>470</v>
+      </c>
+      <c r="E35" s="56">
+        <v>44696</v>
+      </c>
+      <c r="F35" s="55">
+        <v>12500</v>
+      </c>
       <c r="G35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10593.22033898305</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1906.7796610169489</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="5">
+        <v>100971981</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="3"/>
+      <c r="D36" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E36" s="24">
+        <v>44695</v>
+      </c>
+      <c r="F36" s="3">
+        <v>10000</v>
+      </c>
       <c r="G36" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8474.5762711864409</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1525.4237288135594</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="3"/>
+      <c r="D37" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E37" s="24">
+        <v>44697</v>
+      </c>
+      <c r="F37" s="38">
+        <v>222200</v>
+      </c>
       <c r="G37" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>188305.08474576272</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>33894.91525423729</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="5">
+        <v>106286070</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="3"/>
+      <c r="D38" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E38" s="24">
+        <v>44697</v>
+      </c>
+      <c r="F38" s="38">
+        <v>2500</v>
+      </c>
       <c r="G38" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2118.6440677966102</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>381.35593220338984</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="3"/>
+      <c r="D39" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E39" s="24">
+        <v>44697</v>
+      </c>
+      <c r="F39" s="3">
+        <v>15000</v>
+      </c>
       <c r="G39" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12711.864406779661</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2288.1355932203392</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="5">
+        <v>101546434</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>447</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="3"/>
+      <c r="D40" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E40" s="24">
+        <v>44697</v>
+      </c>
+      <c r="F40" s="3">
+        <v>7500</v>
+      </c>
       <c r="G40" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6355.9322033898306</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1144.0677966101696</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -9001,7 +11973,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+      <c r="A56" s="5"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1" t="s">
         <v>8</v>
@@ -9019,7 +11991,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
+      <c r="A57" s="5"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1" t="s">
         <v>8</v>
@@ -9334,11 +12306,11 @@
       <c r="E74" s="24"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G74:G88" si="4">F74*100/118</f>
         <v>0</v>
       </c>
       <c r="H74" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H74:H88" si="5">G74*18%</f>
         <v>0</v>
       </c>
     </row>
@@ -9352,11 +12324,11 @@
       <c r="E75" s="24"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H75" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9370,11 +12342,11 @@
       <c r="E76" s="24"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9388,11 +12360,11 @@
       <c r="E77" s="24"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H77" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9406,11 +12378,11 @@
       <c r="E78" s="24"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H78" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9424,11 +12396,11 @@
       <c r="E79" s="24"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3">
-        <f t="shared" ref="G79:G111" si="4">F79*100/118</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H79" s="3">
-        <f t="shared" ref="H79:H111" si="5">G79*18%</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9595,443 +12567,29 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="39"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="39"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="39"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="39"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="39"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="39"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="39"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="39"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="39"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="39"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="39"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="39"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="39"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H97" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="39"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="39"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="39"/>
-      <c r="E99" s="40"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H99" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="39"/>
-      <c r="E100" s="40"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="39"/>
-      <c r="E101" s="40"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="39"/>
-      <c r="E102" s="40"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="39"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="39"/>
-      <c r="E103" s="40"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H103" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="39"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="39"/>
-      <c r="E104" s="40"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H104" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="39"/>
-      <c r="E105" s="40"/>
-      <c r="F105" s="36"/>
-      <c r="G105" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H105" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="39"/>
-      <c r="E106" s="40"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H106" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="39"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="39"/>
-      <c r="E107" s="40"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H107" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="39"/>
-      <c r="E108" s="40"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="39"/>
-      <c r="E109" s="40"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H109" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="39"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="39"/>
-      <c r="E110" s="40"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H110" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="39"/>
-      <c r="E111" s="40"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H111" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="54" t="s">
+      <c r="A89" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="55"/>
-      <c r="C112" s="55"/>
-      <c r="D112" s="55"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="36">
-        <f>SUM(F2:F111)</f>
-        <v>8638106.2300000004</v>
-      </c>
-      <c r="G112" s="36">
-        <f>SUM(G2:G111)</f>
-        <v>7320429.0084745744</v>
-      </c>
-      <c r="H112" s="36">
-        <f>SUM(H2:H111)</f>
-        <v>1317677.2215254239</v>
+      <c r="B89" s="61"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="36">
+        <f>SUM(F2:F88)</f>
+        <v>9889449.5700000003</v>
+      </c>
+      <c r="G89" s="36">
+        <f>SUM(G2:G88)</f>
+        <v>8380889.4661016958</v>
+      </c>
+      <c r="H89" s="36">
+        <f>SUM(H2:H88)</f>
+        <v>1429550.7674576268</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A89:E89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OneClick Hotel/VAT 2022 one.xlsx
+++ b/OneClick Hotel/VAT 2022 one.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACTIVE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C729513-8F2F-4ED2-A324-DD89603C1E88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67904D99-8004-E04B-A33F-31BCDE868FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="February 2022" sheetId="3" r:id="rId1"/>
     <sheet name="MARCH 2022" sheetId="4" r:id="rId2"/>
     <sheet name="APRIL 2022" sheetId="5" r:id="rId3"/>
     <sheet name="MAY 2022" sheetId="6" r:id="rId4"/>
+    <sheet name="JUNE 2022" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'APRIL 2022'!$A$1:$H$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'JUNE 2022'!$A$1:$H$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MARCH 2022'!$A$1:$H$111</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="613">
   <si>
     <t>TIN</t>
   </si>
@@ -1335,21 +1342,9 @@
     <t>SDC010014439/5052</t>
   </si>
   <si>
-    <t>SDC002800324/7742</t>
-  </si>
-  <si>
     <t>DISTRIBUTION ET VENTE DES BOISSONS</t>
   </si>
   <si>
-    <t>SDC002800324/7751</t>
-  </si>
-  <si>
-    <t>SDC002800324/7752</t>
-  </si>
-  <si>
-    <t>SDC002800324/7753</t>
-  </si>
-  <si>
     <t>ECK STRONG LTD</t>
   </si>
   <si>
@@ -1419,9 +1414,6 @@
     <t>SDC010008927/492</t>
   </si>
   <si>
-    <t>SCD010008927/489</t>
-  </si>
-  <si>
     <t>CLASSIC TOOLS LTD</t>
   </si>
   <si>
@@ -1458,23 +1450,447 @@
     <t>SDC010014500/3824</t>
   </si>
   <si>
-    <t>SDC010003408/20480</t>
-  </si>
-  <si>
     <t>SDC002800324/7874</t>
   </si>
   <si>
     <t>SDC010001656/5499</t>
+  </si>
+  <si>
+    <t>SDC007010005/15541</t>
+  </si>
+  <si>
+    <t>TELEDISTRIBUTION LTD</t>
+  </si>
+  <si>
+    <t>SDC007000467/51472</t>
+  </si>
+  <si>
+    <t>SDC007010197/1178</t>
+  </si>
+  <si>
+    <t>QUINCAILLERIE AMANI &amp; FURAHA LTD</t>
+  </si>
+  <si>
+    <t>SDC010003830/1037</t>
+  </si>
+  <si>
+    <t>SOFAR HARDWARE LTD</t>
+  </si>
+  <si>
+    <t>SDC007004993/2211</t>
+  </si>
+  <si>
+    <t>QUINCAILLERIE SOLIDAIRE LTD</t>
+  </si>
+  <si>
+    <t>SDC007003483/2151</t>
+  </si>
+  <si>
+    <t>SDC010001656/5544</t>
+  </si>
+  <si>
+    <t>SDC010003408/20661</t>
+  </si>
+  <si>
+    <t>SDC010006157/2793</t>
+  </si>
+  <si>
+    <t>SDC007074625/3946</t>
+  </si>
+  <si>
+    <t>MARTIN HARDWARE LTD</t>
+  </si>
+  <si>
+    <t>SDC007006220/65934</t>
+  </si>
+  <si>
+    <t>SAVITA HARDWARE LTD</t>
+  </si>
+  <si>
+    <t>SDC010017928/662</t>
+  </si>
+  <si>
+    <t>SDC010014500/3900</t>
+  </si>
+  <si>
+    <t>SDC002800063/372827</t>
+  </si>
+  <si>
+    <t>SDC010014439/5470</t>
+  </si>
+  <si>
+    <t>SDC007074625/4113</t>
+  </si>
+  <si>
+    <t>SDC011000216/4514326</t>
+  </si>
+  <si>
+    <t>SDC007057826/12919</t>
+  </si>
+  <si>
+    <t>SDC002800324/7945</t>
+  </si>
+  <si>
+    <t>SDC002800063/373299</t>
+  </si>
+  <si>
+    <t>SDC010014500/3981</t>
+  </si>
+  <si>
+    <t>KEYNES GROUP LTD</t>
+  </si>
+  <si>
+    <t>SDC010037435/79</t>
+  </si>
+  <si>
+    <t>QUINCAILLERIE LAGOON LTD</t>
+  </si>
+  <si>
+    <t>SDC007043413/9909</t>
+  </si>
+  <si>
+    <t>SDC010003408/21001</t>
+  </si>
+  <si>
+    <t>SDC010019789/403</t>
+  </si>
+  <si>
+    <t>SDC007042825/1488</t>
+  </si>
+  <si>
+    <t>CONSOLEE MUKARUSANGA</t>
+  </si>
+  <si>
+    <t>SDC007013446/26941</t>
+  </si>
+  <si>
+    <t>SDC007067890/283</t>
+  </si>
+  <si>
+    <t>SIMBA SUPERMARKET</t>
+  </si>
+  <si>
+    <t>SDC011000805/692966</t>
+  </si>
+  <si>
+    <t>SDC010008927/489</t>
+  </si>
+  <si>
+    <t>SDC007013446/27011</t>
+  </si>
+  <si>
+    <t>SDC002800324/7977</t>
+  </si>
+  <si>
+    <t>SDC010014500/4049</t>
+  </si>
+  <si>
+    <t>JEANNETTE MUKAKARANGWA</t>
+  </si>
+  <si>
+    <t>SDC010037435/86</t>
+  </si>
+  <si>
+    <t>SDC004005959/64206</t>
+  </si>
+  <si>
+    <t>CHINA INVESTEMENT GROUP LTD</t>
+  </si>
+  <si>
+    <t>SDC008000810/838</t>
+  </si>
+  <si>
+    <t>SDC007042825/1493</t>
+  </si>
+  <si>
+    <t>SDC007013446/27115</t>
+  </si>
+  <si>
+    <t>SDC010014500/4094</t>
+  </si>
+  <si>
+    <t>SDC007000467/51559</t>
+  </si>
+  <si>
+    <t>SDC010001656/5774</t>
+  </si>
+  <si>
+    <t>SDC007005002/2078</t>
+  </si>
+  <si>
+    <t>N.K.S COMPANY LTD</t>
+  </si>
+  <si>
+    <t>SDC007059501/4723</t>
+  </si>
+  <si>
+    <t>SDC010002707/4168</t>
+  </si>
+  <si>
+    <t>SDC007000766/15850</t>
+  </si>
+  <si>
+    <t>SDC010003408/20128</t>
+  </si>
+  <si>
+    <t>SDC010024405/260</t>
+  </si>
+  <si>
+    <t>SDC007003483/2149</t>
+  </si>
+  <si>
+    <t>SDC010003830/1044</t>
+  </si>
+  <si>
+    <t>SDC007042825/1484</t>
+  </si>
+  <si>
+    <t>SDC008000121/13298</t>
+  </si>
+  <si>
+    <t>SDC008000121/13308</t>
+  </si>
+  <si>
+    <t>SDC010003408/21501</t>
+  </si>
+  <si>
+    <t>SDC008000810/847</t>
+  </si>
+  <si>
+    <t>SDC010001656/5778</t>
+  </si>
+  <si>
+    <t>SDC010003408/20489</t>
+  </si>
+  <si>
+    <t>SDC010029757/27</t>
+  </si>
+  <si>
+    <t>SDC002800324/8033</t>
+  </si>
+  <si>
+    <t>GENERAL TRADE IMPORTATION AND RUBLIC</t>
+  </si>
+  <si>
+    <t>SDC005001626/4453</t>
+  </si>
+  <si>
+    <t>SDC010035295/109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMBA SUPERMARKET </t>
+  </si>
+  <si>
+    <t>SDC011000805/778319</t>
+  </si>
+  <si>
+    <t>SDC007000820/19270</t>
+  </si>
+  <si>
+    <t>SDC010014439/5929</t>
+  </si>
+  <si>
+    <t>SDC010014500/4258</t>
+  </si>
+  <si>
+    <t>SDC010014500/4251</t>
+  </si>
+  <si>
+    <t>SDC007057826/13834</t>
+  </si>
+  <si>
+    <t>SDC010003830/1122</t>
+  </si>
+  <si>
+    <t>QUINCAILLERIE IVAN LTD</t>
+  </si>
+  <si>
+    <t>SDC007004635/732</t>
+  </si>
+  <si>
+    <t>SDC007004635/731</t>
+  </si>
+  <si>
+    <t>SDC007004635/733</t>
+  </si>
+  <si>
+    <t>PARADIS DU COEUR &amp; PARADIS DU CORP I</t>
+  </si>
+  <si>
+    <t>SDC007042825/1503</t>
+  </si>
+  <si>
+    <t>SDC007007877/31</t>
+  </si>
+  <si>
+    <t>SDC007013446/27347</t>
+  </si>
+  <si>
+    <t>KAYDO &amp; TINA LTD</t>
+  </si>
+  <si>
+    <t>SDC007040310/2545</t>
+  </si>
+  <si>
+    <t>SDC010014500/4328</t>
+  </si>
+  <si>
+    <t>SDC010037435/113</t>
+  </si>
+  <si>
+    <t>SDC007013446/27498</t>
+  </si>
+  <si>
+    <t>SDC004005962/67873</t>
+  </si>
+  <si>
+    <t>SDC007013446/27517</t>
+  </si>
+  <si>
+    <t>SDC010014500/4410</t>
+  </si>
+  <si>
+    <t>SDC007010197/1234</t>
+  </si>
+  <si>
+    <t>SDC007042825/1514</t>
+  </si>
+  <si>
+    <t>SDC007042825/1504</t>
+  </si>
+  <si>
+    <t>SDC007000820/19524</t>
+  </si>
+  <si>
+    <t>SDC010014500/4502</t>
+  </si>
+  <si>
+    <t>SDC002800324/8164</t>
+  </si>
+  <si>
+    <t>SDC007072879/30524</t>
+  </si>
+  <si>
+    <t>SDC010014500/4527</t>
+  </si>
+  <si>
+    <t>SDC011000216/4806549</t>
+  </si>
+  <si>
+    <t>SDC010014439/6573</t>
+  </si>
+  <si>
+    <t>SDC010014500/4743</t>
+  </si>
+  <si>
+    <t>SDC007013446/27452</t>
+  </si>
+  <si>
+    <t>THIRWE HARDWARE TOOLS LTD</t>
+  </si>
+  <si>
+    <t>SDC010025471/314</t>
+  </si>
+  <si>
+    <t>SDC007057826/14654</t>
+  </si>
+  <si>
+    <t>SDC007000820/19800</t>
+  </si>
+  <si>
+    <t>LIQUID</t>
+  </si>
+  <si>
+    <t>SDC011000445/50925</t>
+  </si>
+  <si>
+    <t>STAR AFRICA MEDIA CO. LTD</t>
+  </si>
+  <si>
+    <t>SDC007010005/15947</t>
+  </si>
+  <si>
+    <t>MIRCROCHIPS LTD</t>
+  </si>
+  <si>
+    <t>SDC010001260/2166</t>
+  </si>
+  <si>
+    <t>SDC010001260/2173</t>
+  </si>
+  <si>
+    <t>SDC007072879/31675</t>
+  </si>
+  <si>
+    <t>SDC007000467/51756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESTING TECHNOLOGIES AND SUPPLY </t>
+  </si>
+  <si>
+    <t>SDC010008759/2570</t>
+  </si>
+  <si>
+    <t>SDC007071719/5174</t>
+  </si>
+  <si>
+    <t>FLESH POINT SUPPLY LTD</t>
+  </si>
+  <si>
+    <t>SDC007049938/24790</t>
+  </si>
+  <si>
+    <t>CITY LIGHT HARDWARE LTD</t>
+  </si>
+  <si>
+    <t>SDC007068722/8022</t>
+  </si>
+  <si>
+    <t>SDC007067588/20078</t>
+  </si>
+  <si>
+    <t>SDC010001656/6229</t>
+  </si>
+  <si>
+    <t>SDC007048968/17810</t>
+  </si>
+  <si>
+    <t>SDC010039556/277</t>
+  </si>
+  <si>
+    <t>SDC010003408/23999</t>
+  </si>
+  <si>
+    <t>SDC007009694/11823</t>
+  </si>
+  <si>
+    <t>SDC010037435/124</t>
+  </si>
+  <si>
+    <t>SDC010037435/125</t>
+  </si>
+  <si>
+    <t>SDC007004635/781</t>
+  </si>
+  <si>
+    <t>SDC010039556/334</t>
+  </si>
+  <si>
+    <t>SDC007013446/27590</t>
+  </si>
+  <si>
+    <t>SDC007013446/27582</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1486,6 +1902,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1517,7 +1939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1605,11 +2027,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1715,6 +2150,33 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1733,12 +2195,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF200765"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2070,24 +2555,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="31"/>
+    <col min="1" max="1" width="11.02734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.27734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.76171875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.14453125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2113,7 +2598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>101967453</v>
       </c>
@@ -2141,7 +2626,7 @@
         <v>41277.966101694918</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>102416331</v>
       </c>
@@ -2169,7 +2654,7 @@
         <v>3661.0169491525426</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>107343569</v>
       </c>
@@ -2197,7 +2682,7 @@
         <v>7627.1186440677957</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>106286070</v>
       </c>
@@ -2225,7 +2710,7 @@
         <v>3172.881355932203</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>102565074</v>
       </c>
@@ -2253,7 +2738,7 @@
         <v>741.35593220338978</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>102997974</v>
       </c>
@@ -2281,7 +2766,7 @@
         <v>14491.525423728812</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>101411885</v>
       </c>
@@ -2309,7 +2794,7 @@
         <v>594.91525423728808</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>101546434</v>
       </c>
@@ -2337,7 +2822,7 @@
         <v>2745.7627118644068</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>102997974</v>
       </c>
@@ -2365,7 +2850,7 @@
         <v>14491.525423728812</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>101506622</v>
       </c>
@@ -2393,7 +2878,7 @@
         <v>2440.6779661016949</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>100014220</v>
       </c>
@@ -2421,7 +2906,7 @@
         <v>3661.0169491525426</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>101546434</v>
       </c>
@@ -2449,7 +2934,7 @@
         <v>3050.8474576271187</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>101546434</v>
       </c>
@@ -2477,7 +2962,7 @@
         <v>2471.1864406779659</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>103027028</v>
       </c>
@@ -2505,7 +2990,7 @@
         <v>13881.355932203391</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>102565074</v>
       </c>
@@ -2533,7 +3018,7 @@
         <v>701.69491525423723</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>103375391</v>
       </c>
@@ -2561,7 +3046,7 @@
         <v>11120.338983050848</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>102080243</v>
       </c>
@@ -2589,7 +3074,7 @@
         <v>915.25423728813564</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>101710867</v>
       </c>
@@ -2617,7 +3102,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>105336378</v>
       </c>
@@ -2645,7 +3130,7 @@
         <v>2898.3050847457625</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>119553030</v>
       </c>
@@ -2673,7 +3158,7 @@
         <v>2820.8135593220336</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>103319698</v>
       </c>
@@ -2701,7 +3186,7 @@
         <v>9152.5423728813566</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>103214294</v>
       </c>
@@ -2729,7 +3214,7 @@
         <v>762.71186440677968</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>103319698</v>
       </c>
@@ -2757,7 +3242,7 @@
         <v>4576.2711864406783</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>101710867</v>
       </c>
@@ -2785,7 +3270,7 @@
         <v>1525.4237288135594</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>102163751</v>
       </c>
@@ -2813,7 +3298,7 @@
         <v>12203.389830508475</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>103187684</v>
       </c>
@@ -2841,7 +3326,7 @@
         <v>2745.7627118644068</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>102080243</v>
       </c>
@@ -2869,7 +3354,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>113472758</v>
       </c>
@@ -2897,7 +3382,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>119789715</v>
       </c>
@@ -2925,7 +3410,7 @@
         <v>274.57627118644069</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>107794460</v>
       </c>
@@ -2953,7 +3438,7 @@
         <v>4728.8135593220341</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>108246916</v>
       </c>
@@ -2981,7 +3466,7 @@
         <v>5338.983050847457</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>108458464</v>
       </c>
@@ -3009,7 +3494,7 @@
         <v>6864.4067796610161</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>101873476</v>
       </c>
@@ -3037,7 +3522,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20">
         <v>106498874</v>
       </c>
@@ -3065,7 +3550,7 @@
         <v>6864.4067796610161</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>107343569</v>
       </c>
@@ -3093,7 +3578,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>106286070</v>
       </c>
@@ -3121,7 +3606,7 @@
         <v>762.71186440677968</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>106286070</v>
       </c>
@@ -3149,7 +3634,7 @@
         <v>1525.4237288135594</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>113472758</v>
       </c>
@@ -3177,7 +3662,7 @@
         <v>7322.0338983050851</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>107972890</v>
       </c>
@@ -3205,7 +3690,7 @@
         <v>6864.4067796610161</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>102416331</v>
       </c>
@@ -3233,7 +3718,7 @@
         <v>4301.6949152542375</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>100028318</v>
       </c>
@@ -3261,7 +3746,7 @@
         <v>11288.135593220339</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>102181072</v>
       </c>
@@ -3289,7 +3774,7 @@
         <v>808.47457627118638</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>106286070</v>
       </c>
@@ -3317,7 +3802,7 @@
         <v>3813.5593220338978</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>102089702</v>
       </c>
@@ -3345,7 +3830,7 @@
         <v>1906.7796610169489</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>101411885</v>
       </c>
@@ -3373,7 +3858,7 @@
         <v>320.33898305084745</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>101967453</v>
       </c>
@@ -3401,7 +3886,7 @@
         <v>1830.5084745762713</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>102781542</v>
       </c>
@@ -3429,7 +3914,7 @@
         <v>34245.762711864409</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>102781542</v>
       </c>
@@ -3457,7 +3942,7 @@
         <v>62298.305084745763</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>102781991</v>
       </c>
@@ -3485,7 +3970,7 @@
         <v>5886</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>102089702</v>
       </c>
@@ -3513,7 +3998,7 @@
         <v>1525.4237288135594</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>107167198</v>
       </c>
@@ -3541,7 +4026,7 @@
         <v>9884.7457627118638</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21">
         <v>106562632</v>
       </c>
@@ -3569,7 +4054,7 @@
         <v>3050.8474576271187</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>102781542</v>
       </c>
@@ -3597,7 +4082,7 @@
         <v>366.1016949152542</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>101411885</v>
       </c>
@@ -3625,7 +4110,7 @@
         <v>457.62711864406782</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21">
         <v>100022231</v>
       </c>
@@ -3653,7 +4138,7 @@
         <v>152.54237288135593</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>119098861</v>
       </c>
@@ -3681,7 +4166,7 @@
         <v>1830.5084745762713</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>102781542</v>
       </c>
@@ -3709,7 +4194,7 @@
         <v>34688.135593220337</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>103549544</v>
       </c>
@@ -3737,7 +4222,7 @@
         <v>22881.355932203391</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>103499152</v>
       </c>
@@ -3765,7 +4250,7 @@
         <v>3661.0169491525426</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>103319698</v>
       </c>
@@ -3793,7 +4278,7 @@
         <v>18762.711864406778</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20">
         <v>111738571</v>
       </c>
@@ -3821,7 +4306,7 @@
         <v>6261.8644067796604</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>102181072</v>
       </c>
@@ -3849,7 +4334,7 @@
         <v>3737.2881355932204</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>101506622</v>
       </c>
@@ -3877,7 +4362,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>101873476</v>
       </c>
@@ -3905,7 +4390,7 @@
         <v>3661.0169491525426</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>101546434</v>
       </c>
@@ -3933,7 +4418,7 @@
         <v>3966.101694915254</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>101506622</v>
       </c>
@@ -3961,7 +4446,7 @@
         <v>2440.6779661016949</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>119250153</v>
       </c>
@@ -3989,7 +4474,7 @@
         <v>1220.3389830508474</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>101506622</v>
       </c>
@@ -4017,7 +4502,7 @@
         <v>1128.8135593220338</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>106286070</v>
       </c>
@@ -4045,7 +4530,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>104476892</v>
       </c>
@@ -4073,7 +4558,7 @@
         <v>915.25423728813564</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>108173992</v>
       </c>
@@ -4101,7 +4586,7 @@
         <v>762.71186440677968</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>102416331</v>
       </c>
@@ -4129,7 +4614,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>100451040</v>
       </c>
@@ -4157,7 +4642,7 @@
         <v>457.62711864406782</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>102246990</v>
       </c>
@@ -4185,7 +4670,7 @@
         <v>4606.7796610169489</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>103109750</v>
       </c>
@@ -4213,7 +4698,7 @@
         <v>4118.6440677966102</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>100306858</v>
       </c>
@@ -4241,7 +4726,7 @@
         <v>305.08474576271186</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>103387177</v>
       </c>
@@ -4269,7 +4754,7 @@
         <v>5186.4406779661022</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20">
         <v>100027159</v>
       </c>
@@ -4297,7 +4782,7 @@
         <v>533.89830508474574</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20">
         <v>105336378</v>
       </c>
@@ -4325,7 +4810,7 @@
         <v>1296.6101694915255</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>103750561</v>
       </c>
@@ -4353,7 +4838,7 @@
         <v>427.11864406779659</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20">
         <v>102181072</v>
       </c>
@@ -4381,7 +4866,7 @@
         <v>747.45762711864404</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20">
         <v>107124183</v>
       </c>
@@ -4409,7 +4894,7 @@
         <v>13728.813559322032</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>102416331</v>
       </c>
@@ -4437,7 +4922,7 @@
         <v>30477.966101694914</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20">
         <v>109138210</v>
       </c>
@@ -4465,7 +4950,7 @@
         <v>53740.677966101699</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>118714718</v>
       </c>
@@ -4493,7 +4978,7 @@
         <v>7322.0338983050851</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20">
         <v>100027159</v>
       </c>
@@ -4521,7 +5006,7 @@
         <v>244.06779661016947</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="22">
         <v>102921126</v>
       </c>
@@ -4549,7 +5034,7 @@
         <v>646.3662711864406</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="22">
         <v>102781542</v>
       </c>
@@ -4576,7 +5061,7 @@
         <v>610.16</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="22">
         <v>107220933</v>
       </c>
@@ -4603,7 +5088,7 @@
         <v>1144.07</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="22">
         <v>101967453</v>
       </c>
@@ -4630,7 +5115,7 @@
         <v>11593.22</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="22">
         <v>111401091</v>
       </c>
@@ -4657,7 +5142,7 @@
         <v>7932.2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="22">
         <v>101411885</v>
       </c>
@@ -4684,7 +5169,7 @@
         <v>320.33999999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="22">
         <v>107343569</v>
       </c>
@@ -4711,7 +5196,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="22">
         <v>102921126</v>
       </c>
@@ -4738,7 +5223,7 @@
         <v>762.71</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="22">
         <v>108737829</v>
       </c>
@@ -4765,7 +5250,7 @@
         <v>27457.63</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="22">
         <v>103750561</v>
       </c>
@@ -4792,7 +5277,7 @@
         <v>183.05</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="22">
         <v>103750561</v>
       </c>
@@ -4819,7 +5304,7 @@
         <v>411.86</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="22">
         <v>103750561</v>
       </c>
@@ -4846,7 +5331,7 @@
         <v>274.58</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="22">
         <v>103750561</v>
       </c>
@@ -4873,7 +5358,7 @@
         <v>701.69</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="22">
         <v>102416331</v>
       </c>
@@ -4900,7 +5385,7 @@
         <v>1830.51</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="22">
         <v>108737829</v>
       </c>
@@ -4927,14 +5412,14 @@
         <v>53389.83</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="57" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="58"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="59"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="78"/>
       <c r="F103" s="30">
         <f>SUM(F2:F102)</f>
         <v>4610593.4399999995</v>
@@ -4958,27 +5443,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C164C-349C-499E-8E6B-639B77463B50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="38"/>
-    <col min="9" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="11.02734375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.4296875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.27734375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.58203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.76171875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.0859375" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.14453125" style="38"/>
+    <col min="9" max="16384" width="9.14453125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5004,7 +5489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>102181072</v>
       </c>
@@ -5032,7 +5517,7 @@
         <v>961.01694915254234</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>102781542</v>
       </c>
@@ -5060,7 +5545,7 @@
         <v>44084.745762711864</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>102730249</v>
       </c>
@@ -5088,7 +5573,7 @@
         <v>15254.237288135591</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>111679514</v>
       </c>
@@ -5116,7 +5601,7 @@
         <v>4728.8135593220341</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>103606486</v>
       </c>
@@ -5144,7 +5629,7 @@
         <v>1830.5084745762713</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>102246990</v>
       </c>
@@ -5172,7 +5657,7 @@
         <v>1128.8135593220338</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>102246990</v>
       </c>
@@ -5200,7 +5685,7 @@
         <v>1128.8135593220338</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>101506622</v>
       </c>
@@ -5228,7 +5713,7 @@
         <v>2440.6779661016949</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41">
         <v>102781542</v>
       </c>
@@ -5256,7 +5741,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>101527570</v>
       </c>
@@ -5284,7 +5769,7 @@
         <v>838.98305084745755</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>101411885</v>
       </c>
@@ -5312,7 +5797,7 @@
         <v>457.62711864406782</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>106286070</v>
       </c>
@@ -5340,7 +5825,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>113331235</v>
       </c>
@@ -5368,7 +5853,7 @@
         <v>1662.7118644067796</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>101506622</v>
       </c>
@@ -5396,7 +5881,7 @@
         <v>2440.6779661016949</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>101506622</v>
       </c>
@@ -5424,7 +5909,7 @@
         <v>2440.6779661016949</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>107369906</v>
       </c>
@@ -5452,7 +5937,7 @@
         <v>45762.711864406781</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>107972890</v>
       </c>
@@ -5480,7 +5965,7 @@
         <v>1144.0677966101696</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>107343569</v>
       </c>
@@ -5508,7 +5993,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>101526614</v>
       </c>
@@ -5535,7 +6020,7 @@
         <v>2745.76</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>103680774</v>
       </c>
@@ -5563,7 +6048,7 @@
         <v>7627.1186440677957</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>119618745</v>
       </c>
@@ -5591,7 +6076,7 @@
         <v>3355.9322033898302</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>102781542</v>
       </c>
@@ -5619,7 +6104,7 @@
         <v>29181.355932203391</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>102808467</v>
       </c>
@@ -5647,7 +6132,7 @@
         <v>610.16949152542372</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>101912599</v>
       </c>
@@ -5675,7 +6160,7 @@
         <v>2745.7627118644068</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>106286070</v>
       </c>
@@ -5703,7 +6188,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>100014220</v>
       </c>
@@ -5731,7 +6216,7 @@
         <v>10372.881355932204</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>102633790</v>
       </c>
@@ -5759,7 +6244,7 @@
         <v>762.71186440677968</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>101411885</v>
       </c>
@@ -5787,7 +6272,7 @@
         <v>320.33898305084745</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>103372638</v>
       </c>
@@ -5815,7 +6300,7 @@
         <v>30508.474576271183</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>103680774</v>
       </c>
@@ -5843,7 +6328,7 @@
         <v>9152.5423728813566</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>102181072</v>
       </c>
@@ -5871,7 +6356,7 @@
         <v>793.22033898305074</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>106286070</v>
       </c>
@@ -5899,7 +6384,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20">
         <v>102505180</v>
       </c>
@@ -5927,7 +6412,7 @@
         <v>3935.593220338983</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>102039854</v>
       </c>
@@ -5955,7 +6440,7 @@
         <v>1830.5084745762713</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>101411885</v>
       </c>
@@ -5983,7 +6468,7 @@
         <v>594.91525423728808</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20">
         <v>100027159</v>
       </c>
@@ -6011,7 +6496,7 @@
         <v>1296.6101694915255</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>103387177</v>
       </c>
@@ -6039,7 +6524,7 @@
         <v>5338.983050847457</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>101506622</v>
       </c>
@@ -6067,7 +6552,7 @@
         <v>1128.8135593220338</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>101887556</v>
       </c>
@@ -6095,7 +6580,7 @@
         <v>2185920</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>102077681</v>
       </c>
@@ -6123,7 +6608,7 @@
         <v>9762.7118644067796</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>102781542</v>
       </c>
@@ -6151,7 +6636,7 @@
         <v>45335.593220338982</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>102781542</v>
       </c>
@@ -6179,7 +6664,7 @@
         <v>15795.762711864407</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>102213906</v>
       </c>
@@ -6207,7 +6692,7 @@
         <v>22881.355932203391</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>107167198</v>
       </c>
@@ -6235,7 +6720,7 @@
         <v>9884.7457627118638</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>101811557</v>
       </c>
@@ -6263,7 +6748,7 @@
         <v>762.71186440677968</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>102181072</v>
       </c>
@@ -6291,7 +6776,7 @@
         <v>2089.8305084745762</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>102089702</v>
       </c>
@@ -6319,7 +6804,7 @@
         <v>1525.4237288135594</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>102921126</v>
       </c>
@@ -6347,7 +6832,7 @@
         <v>762.71186440677968</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>102311214</v>
       </c>
@@ -6375,7 +6860,7 @@
         <v>2135.593220338983</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21">
         <v>100537148</v>
       </c>
@@ -6402,7 +6887,7 @@
         <v>488.14</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>102089688</v>
       </c>
@@ -6430,7 +6915,7 @@
         <v>5644.0677966101694</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="47">
         <v>102776375</v>
       </c>
@@ -6458,7 +6943,7 @@
         <v>2745.7627118644068</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>102781542</v>
       </c>
@@ -6486,7 +6971,7 @@
         <v>19876.271186440677</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21">
         <v>101506622</v>
       </c>
@@ -6514,7 +6999,7 @@
         <v>1128.8135593220338</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>101912599</v>
       </c>
@@ -6542,7 +7027,7 @@
         <v>3050.8474576271187</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>106833563</v>
       </c>
@@ -6570,7 +7055,7 @@
         <v>2745.7627118644068</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>102781542</v>
       </c>
@@ -6598,7 +7083,7 @@
         <v>49164.406779661018</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>102216880</v>
       </c>
@@ -6626,7 +7111,7 @@
         <v>838.98305084745755</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21">
         <v>107124183</v>
       </c>
@@ -6654,7 +7139,7 @@
         <v>6406.7796610169498</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>101527570</v>
       </c>
@@ -6682,7 +7167,7 @@
         <v>838.98305084745755</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20">
         <v>111552217</v>
       </c>
@@ -6710,7 +7195,7 @@
         <v>3049.6271186440677</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>111850097</v>
       </c>
@@ -6738,7 +7223,7 @@
         <v>10067.796610169491</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>102089702</v>
       </c>
@@ -6766,7 +7251,7 @@
         <v>3050.8474576271187</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>102545726</v>
       </c>
@@ -6794,7 +7279,7 @@
         <v>625.42372881355936</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>113472758</v>
       </c>
@@ -6822,7 +7307,7 @@
         <v>7550.8474576271183</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>100537148</v>
       </c>
@@ -6850,7 +7335,7 @@
         <v>488.13559322033893</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>103247042</v>
       </c>
@@ -6878,7 +7363,7 @@
         <v>4805.0847457627115</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>106286070</v>
       </c>
@@ -6906,7 +7391,7 @@
         <v>2669.4915254237285</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>119789715</v>
       </c>
@@ -6934,7 +7419,7 @@
         <v>366.1016949152542</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>102089688</v>
       </c>
@@ -6962,7 +7447,7 @@
         <v>5338.983050847457</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>101506622</v>
       </c>
@@ -6990,7 +7475,7 @@
         <v>2257.6271186440677</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>103680774</v>
       </c>
@@ -7018,7 +7503,7 @@
         <v>4194.9152542372885</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>102089688</v>
       </c>
@@ -7046,7 +7531,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>102921126</v>
       </c>
@@ -7074,7 +7559,7 @@
         <v>30416.949152542373</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>102181072</v>
       </c>
@@ -7102,7 +7587,7 @@
         <v>1586.4406779661015</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>102781542</v>
       </c>
@@ -7130,7 +7615,7 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20">
         <v>101506622</v>
       </c>
@@ -7158,7 +7643,7 @@
         <v>1128.8135593220338</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>103285815</v>
       </c>
@@ -7186,7 +7671,7 @@
         <v>1525.4176271186438</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>103285815</v>
       </c>
@@ -7214,7 +7699,7 @@
         <v>5338.9800000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20">
         <v>102416331</v>
       </c>
@@ -7242,7 +7727,7 @@
         <v>4576.2711864406783</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20">
         <v>102416331</v>
       </c>
@@ -7270,7 +7755,7 @@
         <v>11166.101694915254</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>101570833</v>
       </c>
@@ -7297,7 +7782,7 @@
         <v>2288.14</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20">
         <v>101506622</v>
       </c>
@@ -7325,7 +7810,7 @@
         <v>2135.593220338983</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>103387177</v>
       </c>
@@ -7353,7 +7838,7 @@
         <v>5338.983050847457</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20">
         <v>102781542</v>
       </c>
@@ -7381,7 +7866,7 @@
         <v>30546.610169491523</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>118714718</v>
       </c>
@@ -7409,7 +7894,7 @@
         <v>12584.745762711862</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>102821016</v>
       </c>
@@ -7437,7 +7922,7 @@
         <v>12676.271186440677</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="39">
         <v>103387177</v>
       </c>
@@ -7465,7 +7950,7 @@
         <v>457.62711864406782</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="48">
         <v>111850097</v>
       </c>
@@ -7493,7 +7978,7 @@
         <v>1372.8813559322034</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="39">
         <v>102181072</v>
       </c>
@@ -7520,7 +8005,7 @@
         <v>961.02</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="39">
         <v>101506622</v>
       </c>
@@ -7547,7 +8032,7 @@
         <v>2257.63</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="39">
         <v>100144768</v>
       </c>
@@ -7574,7 +8059,7 @@
         <v>11516.95</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="39">
         <v>119618745</v>
       </c>
@@ -7601,7 +8086,7 @@
         <v>610.16999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="39">
         <v>101806633</v>
       </c>
@@ -7628,7 +8113,7 @@
         <v>686.44</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="39">
         <v>101910163</v>
       </c>
@@ -7655,7 +8140,7 @@
         <v>4652.54</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="39">
         <v>106562632</v>
       </c>
@@ -7682,7 +8167,7 @@
         <v>1525.42</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="39">
         <v>108526887</v>
       </c>
@@ -7709,7 +8194,7 @@
         <v>3737.29</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="39">
         <v>102163751</v>
       </c>
@@ -7736,7 +8221,7 @@
         <v>3966.1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="39">
         <v>101840295</v>
       </c>
@@ -7763,7 +8248,7 @@
         <v>228.81</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="39">
         <v>101587390</v>
       </c>
@@ -7790,7 +8275,7 @@
         <v>183.05</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="39">
         <v>101061491</v>
       </c>
@@ -7817,7 +8302,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="39">
         <v>102089688</v>
       </c>
@@ -7844,7 +8329,7 @@
         <v>610.16999999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="39">
         <v>100605187</v>
       </c>
@@ -7871,7 +8356,7 @@
         <v>610.16999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="39">
         <v>101506622</v>
       </c>
@@ -7898,7 +8383,7 @@
         <v>6544.07</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="39">
         <v>111850097</v>
       </c>
@@ -7925,7 +8410,7 @@
         <v>5338.99</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="39">
         <v>103247042</v>
       </c>
@@ -7952,7 +8437,7 @@
         <v>2402.54</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="39">
         <v>101585951</v>
       </c>
@@ -7979,7 +8464,7 @@
         <v>53969.63</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="39">
         <v>101585951</v>
       </c>
@@ -8006,7 +8491,7 @@
         <v>26977.22</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="39">
         <v>101587390</v>
       </c>
@@ -8033,14 +8518,14 @@
         <v>366.1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="60" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="61"/>
-      <c r="C111" s="61"/>
-      <c r="D111" s="61"/>
-      <c r="E111" s="62"/>
+      <c r="B111" s="80"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="80"/>
+      <c r="E111" s="81"/>
       <c r="F111" s="36">
         <f>SUM(F2:F110)</f>
         <v>19489307.029999997</v>
@@ -8055,7 +8540,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H111" xr:uid="{E018A70D-AA4D-490A-8464-5C69F9CBDF0B}"/>
+  <autoFilter ref="A1:H111" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A111:E111"/>
   </mergeCells>
@@ -8064,27 +8549,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E499E4D-F297-4E7D-AF20-934741EDAB86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="38"/>
-    <col min="9" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="11.02734375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.4296875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.27734375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.65625" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.76171875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.0859375" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.14453125" style="38"/>
+    <col min="9" max="16384" width="9.14453125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -8110,7 +8595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>101986294</v>
       </c>
@@ -8138,7 +8623,7 @@
         <v>12203.389830508475</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>106377841</v>
       </c>
@@ -8166,7 +8651,7 @@
         <v>2593.2203389830511</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>106377841</v>
       </c>
@@ -8194,7 +8679,7 @@
         <v>4423.7288135593217</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>101506622</v>
       </c>
@@ -8222,7 +8707,7 @@
         <v>2150.8474576271187</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>102246990</v>
       </c>
@@ -8250,7 +8735,7 @@
         <v>4103.3898305084749</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>103387177</v>
       </c>
@@ -8278,7 +8763,7 @@
         <v>4881.3437288135592</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>103606486</v>
       </c>
@@ -8306,7 +8791,7 @@
         <v>2089.8305084745762</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>103387177</v>
       </c>
@@ -8334,7 +8819,7 @@
         <v>4576.2711864406783</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>102416331</v>
       </c>
@@ -8362,7 +8847,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>106286070</v>
       </c>
@@ -8390,7 +8875,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>101887556</v>
       </c>
@@ -8418,7 +8903,7 @@
         <v>1092960</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>102416331</v>
       </c>
@@ -8446,7 +8931,7 @@
         <v>11440.677966101695</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>102181072</v>
       </c>
@@ -8474,7 +8959,7 @@
         <v>1861.0169491525421</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>103372638</v>
       </c>
@@ -8501,7 +8986,7 @@
         <v>15215.57</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>102181072</v>
       </c>
@@ -8529,7 +9014,7 @@
         <v>793.22033898305074</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>101506622</v>
       </c>
@@ -8557,7 +9042,7 @@
         <v>4591.5254237288136</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>101506622</v>
       </c>
@@ -8585,7 +9070,7 @@
         <v>2257.6271186440677</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>101587911</v>
       </c>
@@ -8613,7 +9098,7 @@
         <v>5793.5593220338978</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>118692990</v>
       </c>
@@ -8641,7 +9126,7 @@
         <v>945.7627118644067</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>102781542</v>
       </c>
@@ -8669,7 +9154,7 @@
         <v>11654.237288135593</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>107643300</v>
       </c>
@@ -8697,7 +9182,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>103150475</v>
       </c>
@@ -8725,7 +9210,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>102781542</v>
       </c>
@@ -8753,7 +9238,7 @@
         <v>52550.847457627118</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>102181072</v>
       </c>
@@ -8781,7 +9266,7 @@
         <v>2806.7796610169489</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>103372638</v>
       </c>
@@ -8809,7 +9294,7 @@
         <v>38038.928644067797</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>103387177</v>
       </c>
@@ -8837,7 +9322,7 @@
         <v>5338.983050847457</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>119553030</v>
       </c>
@@ -8865,7 +9350,7 @@
         <v>5338.983050847457</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>119553030</v>
       </c>
@@ -8893,7 +9378,7 @@
         <v>10677.966101694914</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>101506622</v>
       </c>
@@ -8921,7 +9406,7 @@
         <v>5232.2033898305081</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>103387177</v>
       </c>
@@ -8949,7 +9434,7 @@
         <v>4881.3559322033898</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>102181072</v>
       </c>
@@ -8977,7 +9462,7 @@
         <v>610.16949152542372</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>103150475</v>
       </c>
@@ -9005,7 +9490,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>102781542</v>
       </c>
@@ -9033,7 +9518,7 @@
         <v>9823.7288135593226</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>102781542</v>
       </c>
@@ -9061,7 +9546,7 @@
         <v>37288.983050847455</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>103387177</v>
       </c>
@@ -9089,7 +9574,7 @@
         <v>4881.3559322033898</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>101346738</v>
       </c>
@@ -9117,7 +9602,7 @@
         <v>1525.4237288135594</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>103112648</v>
       </c>
@@ -9145,7 +9630,7 @@
         <v>5338.983050847457</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>101506622</v>
       </c>
@@ -9173,7 +9658,7 @@
         <v>1845.7627118644068</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>108173992</v>
       </c>
@@ -9201,7 +9686,7 @@
         <v>1677.9661016949151</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>101506622</v>
       </c>
@@ -9229,7 +9714,7 @@
         <v>2257.6271186440677</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>101998283</v>
       </c>
@@ -9257,7 +9742,7 @@
         <v>1250.8474576271187</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>103468675</v>
       </c>
@@ -9285,7 +9770,7 @@
         <v>7627.1186440677957</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>106511429</v>
       </c>
@@ -9312,7 +9797,7 @@
         <v>7169.49</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>101506622</v>
       </c>
@@ -9340,7 +9825,7 @@
         <v>6864.4067796610161</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>102246990</v>
       </c>
@@ -9368,7 +9853,7 @@
         <v>1677.9661016949151</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>103386408</v>
       </c>
@@ -9396,7 +9881,7 @@
         <v>1830.5084745762713</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>102231856</v>
       </c>
@@ -9424,7 +9909,7 @@
         <v>686.4406779661017</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>103150475</v>
       </c>
@@ -9452,7 +9937,7 @@
         <v>3813.5593220338978</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>102416331</v>
       </c>
@@ -9480,7 +9965,7 @@
         <v>2745.7627118644068</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>102416331</v>
       </c>
@@ -9507,7 +9992,7 @@
         <v>4393.22</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>101506622</v>
       </c>
@@ -9535,7 +10020,7 @@
         <v>5827.1186440677966</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>101967453</v>
       </c>
@@ -9563,7 +10048,7 @@
         <v>7077.9661016949149</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>102730249</v>
       </c>
@@ -9591,7 +10076,7 @@
         <v>6864.4067796610161</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>102181072</v>
       </c>
@@ -9619,7 +10104,7 @@
         <v>2806.7796610169489</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>102781542</v>
       </c>
@@ -9647,7 +10132,7 @@
         <v>43322.033898305082</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>102781542</v>
       </c>
@@ -9675,7 +10160,7 @@
         <v>48729.661016949147</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>101546434</v>
       </c>
@@ -9703,7 +10188,7 @@
         <v>610.16949152542372</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>101506622</v>
       </c>
@@ -9731,7 +10216,7 @@
         <v>2440.6779661016949</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>103370539</v>
       </c>
@@ -9759,7 +10244,7 @@
         <v>18153.899999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>101912599</v>
       </c>
@@ -9786,7 +10271,7 @@
         <v>3432.21</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>102781542</v>
       </c>
@@ -9814,7 +10299,7 @@
         <v>59827.118644067799</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>101587390</v>
       </c>
@@ -9842,7 +10327,7 @@
         <v>823.72881355932202</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>119098861</v>
       </c>
@@ -9870,7 +10355,7 @@
         <v>3813.5593220338978</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>107654416</v>
       </c>
@@ -9898,7 +10383,7 @@
         <v>915.25423728813564</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>119098861</v>
       </c>
@@ -9926,7 +10411,7 @@
         <v>152.54237288135593</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>102089702</v>
       </c>
@@ -9954,7 +10439,7 @@
         <v>3050.8474576271187</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>102246990</v>
       </c>
@@ -9982,7 +10467,7 @@
         <v>3523.7288135593217</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>102246990</v>
       </c>
@@ -10010,7 +10495,7 @@
         <v>5529.6610169491523</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>106286070</v>
       </c>
@@ -10038,7 +10523,7 @@
         <v>3050.8474576271187</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>103606486</v>
       </c>
@@ -10066,7 +10551,7 @@
         <v>1403.3898305084745</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>101506622</v>
       </c>
@@ -10094,7 +10579,7 @@
         <v>3386.4406779661017</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>102246990</v>
       </c>
@@ -10122,7 +10607,7 @@
         <v>2257.6271186440677</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>103606486</v>
       </c>
@@ -10150,7 +10635,7 @@
         <v>1830.5084745762713</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>102781542</v>
       </c>
@@ -10178,7 +10663,7 @@
         <v>33864.406779661018</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>111615104</v>
       </c>
@@ -10206,7 +10691,7 @@
         <v>1372.8815999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>106286070</v>
       </c>
@@ -10234,7 +10719,7 @@
         <v>381.35519999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>106286070</v>
       </c>
@@ -10262,7 +10747,7 @@
         <v>381.35519999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>101585951</v>
       </c>
@@ -10290,7 +10775,7 @@
         <v>35969.626799999998</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>101526614</v>
       </c>
@@ -10318,7 +10803,7 @@
         <v>3966.1020000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>101587390</v>
       </c>
@@ -10345,7 +10830,7 @@
         <v>1128.81</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>102213906</v>
       </c>
@@ -10373,7 +10858,7 @@
         <v>22881.355199999998</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>103112648</v>
       </c>
@@ -10401,7 +10886,7 @@
         <v>4957.6265999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>106286070</v>
       </c>
@@ -10429,7 +10914,7 @@
         <v>762.71219999999994</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>100144768</v>
       </c>
@@ -10457,7 +10942,7 @@
         <v>6788.1365999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>102246990</v>
       </c>
@@ -10485,7 +10970,7 @@
         <v>2257.6266000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>103372638</v>
       </c>
@@ -10512,7 +10997,7 @@
         <v>7607.79</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>100842112</v>
       </c>
@@ -10540,14 +11025,14 @@
         <v>4194.9144000000006</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="60" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="61"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="62"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="81"/>
       <c r="F89" s="36">
         <f>SUM(F2:F88)</f>
         <v>11655926.054400004</v>
@@ -10562,7 +11047,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H89" xr:uid="{A60B0912-353F-4EEE-8C57-3B451618D50E}"/>
+  <autoFilter ref="A1:H89" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A89:E89"/>
   </mergeCells>
@@ -10571,27 +11056,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40850D3D-9461-4510-9677-2B002EF22204}">
-  <dimension ref="A1:H89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="38"/>
-    <col min="9" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="11.02734375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.953125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.27734375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.65625" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.76171875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.0859375" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.14453125" style="38"/>
+    <col min="9" max="16384" width="9.14453125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -10617,7 +11102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>102181072</v>
       </c>
@@ -10637,98 +11122,2693 @@
         <v>87700</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G9" si="0">F2*100/118</f>
+        <f t="shared" ref="G2:G5" si="0">F2*100/118</f>
         <v>74322.03389830509</v>
       </c>
       <c r="H2" s="3">
         <v>793.2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>102181072</v>
+        <v>103372638</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E3" s="35">
-        <v>44684</v>
+        <v>44686</v>
       </c>
       <c r="F3" s="4">
-        <v>54000</v>
+        <v>299239.57</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>45762.711864406781</v>
+        <v>253592.85593220338</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>103372638</v>
+        <f t="shared" ref="H3:H5" si="1">G3*18%</f>
+        <v>45646.714067796609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>101506622</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>207</v>
+        <v>433</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E4" s="35">
         <v>44686</v>
       </c>
-      <c r="F4" s="4">
-        <v>299239.57</v>
+      <c r="F4" s="3">
+        <v>14800</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>253592.85593220338</v>
+        <v>12542.372881355932</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H8" si="1">G4*18%</f>
-        <v>45646.714067796609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2257.6271186440677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>101506622</v>
+        <v>119553030</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>434</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E5" s="35">
+        <v>430</v>
+      </c>
+      <c r="E5" s="24">
         <v>44686</v>
       </c>
       <c r="F5" s="3">
-        <v>14800</v>
+        <v>30000</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>12542.372881355932</v>
+        <v>25423.728813559323</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
+        <v>4576.2711864406783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>101887556</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E6" s="24">
+        <v>44687</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7164960</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" ref="G6:G71" si="2">F6*100/118</f>
+        <v>6072000</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6:H71" si="3">G6*18%</f>
+        <v>1092960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>103387177</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E7" s="24">
+        <v>44687</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>2542.3728813559323</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="3"/>
+        <v>457.62711864406782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>103719433</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E8" s="24">
+        <v>44688</v>
+      </c>
+      <c r="F8" s="3">
+        <v>24000</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>20338.983050847459</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="3"/>
+        <v>3661.0169491525426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E9" s="24">
+        <v>44683</v>
+      </c>
+      <c r="F9" s="3">
+        <v>275700</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>233644.06779661018</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="3"/>
+        <v>42055.932203389828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" s="24">
+        <v>44686</v>
+      </c>
+      <c r="F10" s="3">
+        <v>220300</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>186694.91525423728</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="3"/>
+        <v>33605.08474576271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E11" s="24">
+        <v>44688</v>
+      </c>
+      <c r="F11" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>10169.491525423729</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="3"/>
+        <v>1830.5084745762713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E12" s="24">
+        <v>44690</v>
+      </c>
+      <c r="F12" s="3">
+        <v>221600</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>187796.61016949153</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="3"/>
+        <v>33803.389830508473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>118739741</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E13" s="24">
+        <v>44690</v>
+      </c>
+      <c r="F13" s="3">
+        <v>25500</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>21610.169491525423</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="3"/>
+        <v>3889.8305084745762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E14" s="24">
+        <v>44690</v>
+      </c>
+      <c r="F14" s="3">
+        <v>131000</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>111016.94915254238</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1677.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>102246990</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E15" s="24">
+        <v>44691</v>
+      </c>
+      <c r="F15" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>12542.372881355932</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
         <v>2257.6271186440677</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>101546434</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E16" s="24">
+        <v>44691</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>2118.6440677966102</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="3"/>
+        <v>381.35593220338984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>101585951</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E17" s="24">
+        <v>44689</v>
+      </c>
+      <c r="F17" s="3">
+        <v>235800</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>199830.50847457626</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="3"/>
+        <v>35969.491525423728</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E18" s="24">
+        <v>44693</v>
+      </c>
+      <c r="F18" s="3">
+        <v>19500</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>16525.423728813559</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="3"/>
+        <v>2974.5762711864404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E19" s="24">
+        <v>44693</v>
+      </c>
+      <c r="F19" s="3">
+        <v>137000</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>116101.69491525424</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2440.6999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E20" s="24">
+        <v>44693</v>
+      </c>
+      <c r="F20" s="3">
+        <v>194500</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>164830.50847457626</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="3"/>
+        <v>29669.491525423724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>111601197</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E21" s="24">
+        <v>44694</v>
+      </c>
+      <c r="F21" s="3">
+        <v>55000</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>46610.169491525427</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="3"/>
+        <v>8389.8305084745771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>100846084</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E22" s="24">
+        <v>44689</v>
+      </c>
+      <c r="F22" s="3">
+        <v>65300</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="2"/>
+        <v>55338.983050847455</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="3"/>
+        <v>9961.0169491525412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>107654416</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E23" s="24">
+        <v>44690</v>
+      </c>
+      <c r="F23" s="3">
+        <v>114200</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="2"/>
+        <v>96779.661016949147</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="3"/>
+        <v>17420.338983050846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>107531579</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E24" s="24">
+        <v>44690</v>
+      </c>
+      <c r="F24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="2"/>
+        <v>11864.406779661016</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="3"/>
+        <v>2135.593220338983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>107531579</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E25" s="24">
+        <v>44689</v>
+      </c>
+      <c r="F25" s="3">
+        <v>28000</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="2"/>
+        <v>23728.813559322032</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="3"/>
+        <v>4271.1864406779659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>106415852</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E26" s="24">
+        <v>44689</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="2"/>
+        <v>3813.5593220338983</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="3"/>
+        <v>686.4406779661017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>111967405</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E27" s="24">
+        <v>44694</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="2"/>
+        <v>6355.9322033898306</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="3"/>
+        <v>1144.0677966101696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>107343569</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E28" s="24">
+        <v>44694</v>
+      </c>
+      <c r="F28" s="3">
+        <v>17700</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="3"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>103387177</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E29" s="24">
+        <v>44696</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="2"/>
+        <v>2542.3728813559323</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="3"/>
+        <v>457.62711864406782</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>100027159</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>463</v>
+      </c>
+      <c r="E30" s="53">
+        <v>44691</v>
+      </c>
+      <c r="F30" s="52">
+        <v>2200</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="2"/>
+        <v>1864.406779661017</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="3"/>
+        <v>335.59322033898303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>102609359</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>465</v>
+      </c>
+      <c r="E31" s="53">
+        <v>44696</v>
+      </c>
+      <c r="F31" s="52">
+        <v>12500</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="2"/>
+        <v>10593.22033898305</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="3"/>
+        <v>1906.7796610169489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>100971981</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="72" t="s">
+        <v>467</v>
+      </c>
+      <c r="E32" s="73">
+        <v>44695</v>
+      </c>
+      <c r="F32" s="74">
+        <v>10000</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="2"/>
+        <v>8474.5762711864409</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="3"/>
+        <v>1525.4237288135594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E33" s="24">
+        <v>44697</v>
+      </c>
+      <c r="F33" s="38">
+        <v>222200</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="2"/>
+        <v>188305.08474576272</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="3"/>
+        <v>33894.91525423729</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>106286070</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E34" s="24">
+        <v>44697</v>
+      </c>
+      <c r="F34" s="38">
+        <v>2500</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="2"/>
+        <v>2118.6440677966102</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="3"/>
+        <v>381.35593220338984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E35" s="24">
+        <v>44697</v>
+      </c>
+      <c r="F35" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="2"/>
+        <v>12711.864406779661</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="3"/>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>101546434</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E36" s="24">
+        <v>44697</v>
+      </c>
+      <c r="F36" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="2"/>
+        <v>6355.9322033898306</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="3"/>
+        <v>1144.0677966101696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>101526614</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E37" s="24">
+        <v>44698</v>
+      </c>
+      <c r="F37" s="3">
+        <v>26000</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="2"/>
+        <v>22033.898305084746</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="3"/>
+        <v>3966.101694915254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>100144768</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E38" s="24">
+        <v>44698</v>
+      </c>
+      <c r="F38" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="2"/>
+        <v>12457.627118644068</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="3"/>
+        <v>2242.3728813559323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>102213906</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E39" s="24">
+        <v>44699</v>
+      </c>
+      <c r="F39" s="3">
+        <v>190000</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="2"/>
+        <v>161016.94915254237</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="3"/>
+        <v>28983.050847457624</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>102565074</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E40" s="27">
+        <v>44699</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="2"/>
+        <v>1779.6610169491526</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="3"/>
+        <v>320.33898305084745</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>103584675</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E41" s="27">
+        <v>44699</v>
+      </c>
+      <c r="F41" s="3">
+        <v>45000</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="2"/>
+        <v>38135.593220338982</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="3"/>
+        <v>6864.4067796610161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>102645900</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E42" s="24">
+        <v>44699</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="2"/>
+        <v>1694.9152542372881</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="3"/>
+        <v>305.08474576271186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>101546434</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E43" s="24">
+        <v>44699</v>
+      </c>
+      <c r="F43" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="2"/>
+        <v>25423.728813559323</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="3"/>
+        <v>4576.2711864406783</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>106286070</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E44" s="24">
+        <v>44700</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G44" s="3">
+        <f>F44*100/118</f>
+        <v>2118.6440677966102</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="3"/>
+        <v>381.35593220338984</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
+        <v>113331235</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E45" s="24">
+        <v>44700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="2"/>
+        <v>10169.491525423729</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="3"/>
+        <v>1830.5084745762713</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
+        <v>101506622</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E46" s="24">
+        <v>44700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>30100</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="2"/>
+        <v>25508.474576271186</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="3"/>
+        <v>4591.5254237288136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
+        <v>102635415</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E47" s="24">
+        <v>44698</v>
+      </c>
+      <c r="F47" s="3">
+        <v>13600</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="2"/>
+        <v>11525.423728813559</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="3"/>
+        <v>2074.5762711864404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
+        <v>101806633</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E48" s="24">
+        <v>44698</v>
+      </c>
+      <c r="F48" s="3">
+        <v>700</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="2"/>
+        <v>593.22033898305085</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="3"/>
+        <v>106.77966101694915</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
+        <v>102781542</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E49" s="24">
+        <v>44700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>117700</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="2"/>
+        <v>99745.762711864401</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="3"/>
+        <v>17954.237288135591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
+        <v>103370539</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E50" s="24">
+        <v>44700</v>
+      </c>
+      <c r="F50" s="3">
+        <v>115904.32000000001</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="2"/>
+        <v>98224</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="3"/>
+        <v>17680.32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
+        <v>103372638</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E51" s="24">
+        <v>44699</v>
+      </c>
+      <c r="F51" s="3">
+        <v>299239.57</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="2"/>
+        <v>253592.85593220338</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="3"/>
+        <v>45646.714067796609</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
+        <v>102181072</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E52" s="24">
+        <v>44702</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="2"/>
+        <v>4406.7796610169489</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="3"/>
+        <v>793.22033898305074</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>103387177</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E53" s="24">
+        <v>44702</v>
+      </c>
+      <c r="F53" s="3">
+        <v>27000</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="2"/>
+        <v>22881.355932203391</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="3"/>
+        <v>4118.6440677966102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>101506622</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E54" s="24">
+        <v>44703</v>
+      </c>
+      <c r="F54" s="3">
+        <v>28100</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="2"/>
+        <v>23813.5593220339</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="3"/>
+        <v>4286.4406779661022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E55" s="24">
+        <v>44704</v>
+      </c>
+      <c r="F55" s="3">
+        <v>21400</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="2"/>
+        <v>18135.593220338982</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="3"/>
+        <v>3264.4067796610166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E56" s="24">
+        <v>44704</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="2"/>
+        <v>1271.1864406779662</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="3"/>
+        <v>228.81355932203391</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
+        <v>102781542</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E57" s="24">
+        <v>44704</v>
+      </c>
+      <c r="F57" s="3">
+        <v>101200</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="2"/>
+        <v>85762.711864406781</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="3"/>
+        <v>15437.28813559322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
+        <v>119622565</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E58" s="24">
+        <v>44704</v>
+      </c>
+      <c r="F58" s="3">
+        <v>31500</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="2"/>
+        <v>26694.915254237287</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="3"/>
+        <v>4805.0847457627115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
+        <v>103170882</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E59" s="24">
+        <v>44704</v>
+      </c>
+      <c r="F59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="2"/>
+        <v>12711.864406779661</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="3"/>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
+        <v>106286070</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E60" s="24">
+        <v>44704</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="2"/>
+        <v>2118.6440677966102</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="3"/>
+        <v>381.35593220338984</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>103719433</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E61" s="24">
+        <v>44705</v>
+      </c>
+      <c r="F61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="2"/>
+        <v>3898.3050847457625</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="3"/>
+        <v>701.69491525423723</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>111601197</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E62" s="24">
+        <v>44705</v>
+      </c>
+      <c r="F62" s="3">
+        <v>55000</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="2"/>
+        <v>46610.169491525427</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="3"/>
+        <v>8389.8305084745771</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>100948383</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E63" s="24">
+        <v>44705</v>
+      </c>
+      <c r="F63" s="3">
+        <v>33600</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="2"/>
+        <v>28474.576271186441</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="3"/>
+        <v>5125.4237288135591</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>102163751</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E64" s="24">
+        <v>44705</v>
+      </c>
+      <c r="F64" s="3">
+        <v>120000</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="2"/>
+        <v>101694.91525423729</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="3"/>
+        <v>18305.084745762713</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>101587390</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E65" s="24">
+        <v>44705</v>
+      </c>
+      <c r="F65" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="2"/>
+        <v>3898.3050847457625</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="3"/>
+        <v>701.69491525423723</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>100948383</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E66" s="24">
+        <v>44707</v>
+      </c>
+      <c r="F66" s="3">
+        <v>51600</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="2"/>
+        <v>43728.813559322036</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="3"/>
+        <v>7871.1864406779659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>102181072</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E67" s="24">
+        <v>44707</v>
+      </c>
+      <c r="F67" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="2"/>
+        <v>19491.525423728814</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="3"/>
+        <v>3508.4745762711864</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E68" s="24">
+        <v>44707</v>
+      </c>
+      <c r="F68" s="3">
+        <v>270600</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="2"/>
+        <v>229322.03389830509</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="3"/>
+        <v>41277.966101694918</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="64">
+        <v>101979213</v>
+      </c>
+      <c r="B69" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="E69" s="24">
+        <v>44707</v>
+      </c>
+      <c r="F69" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="2"/>
+        <v>16949.152542372882</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="3"/>
+        <v>3050.8474576271187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="8">
+        <v>119622565</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E70" s="24">
+        <v>44707</v>
+      </c>
+      <c r="F70" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="2"/>
+        <v>11864.406779661016</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="3"/>
+        <v>2135.593220338983</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>102416331</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E71" s="24">
+        <v>44708</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="2"/>
+        <v>847.45762711864404</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="3"/>
+        <v>152.54237288135593</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>101973284</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E72" s="24">
+        <v>44708</v>
+      </c>
+      <c r="F72" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" ref="G72:G79" si="4">F72*100/118</f>
+        <v>3389.8305084745762</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" ref="H72:H79" si="5">G72*18%</f>
+        <v>610.16949152542372</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>111601197</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E73" s="24">
+        <v>44711</v>
+      </c>
+      <c r="F73" s="3">
+        <v>55000</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="4"/>
+        <v>46610.169491525427</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="5"/>
+        <v>8389.8305084745771</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
+        <v>100948383</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E74" s="24">
+        <v>44711</v>
+      </c>
+      <c r="F74" s="3">
+        <v>44800</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="4"/>
+        <v>37966.101694915254</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="5"/>
+        <v>6833.8983050847455</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <v>102781542</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="E75" s="59">
+        <v>44711</v>
+      </c>
+      <c r="F75" s="52">
+        <v>244200</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="4"/>
+        <v>206949.15254237287</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="5"/>
+        <v>37250.847457627118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <v>100144768</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E76" s="24">
+        <v>44711</v>
+      </c>
+      <c r="F76" s="3">
+        <v>59200</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="4"/>
+        <v>50169.491525423728</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="5"/>
+        <v>9030.5084745762706</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <v>101546434</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E77" s="24">
+        <v>44711</v>
+      </c>
+      <c r="F77" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="4"/>
+        <v>6355.9322033898306</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="5"/>
+        <v>1144.0677966101696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>102997974</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E78" s="24">
+        <v>44707</v>
+      </c>
+      <c r="F78" s="3">
+        <v>350000</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="4"/>
+        <v>296610.16949152545</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" si="5"/>
+        <v>53389.830508474581</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>109187111</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E79" s="24">
+        <v>44687</v>
+      </c>
+      <c r="F79" s="3">
+        <v>900000</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="4"/>
+        <v>762711.86440677964</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" si="5"/>
+        <v>137288.13559322033</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="57">
+        <v>101998283</v>
+      </c>
+      <c r="B80" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="E80" s="61">
+        <v>44683</v>
+      </c>
+      <c r="F80" s="62">
+        <f>G80*118/100</f>
+        <v>3999.9994000000002</v>
+      </c>
+      <c r="G80" s="62">
+        <v>3389.83</v>
+      </c>
+      <c r="H80" s="62">
+        <f>G80*18%</f>
+        <v>610.1694</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="57">
+        <v>102246990</v>
+      </c>
+      <c r="B81" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="60" t="s">
+        <v>528</v>
+      </c>
+      <c r="E81" s="61">
+        <v>44688</v>
+      </c>
+      <c r="F81" s="62">
+        <f>G81*118/100</f>
+        <v>22200.000800000002</v>
+      </c>
+      <c r="G81" s="62">
+        <v>18813.560000000001</v>
+      </c>
+      <c r="H81" s="62">
+        <f>G81*18%</f>
+        <v>3386.4408000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="39">
+        <v>106286070</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="E82" s="40">
+        <v>44691</v>
+      </c>
+      <c r="F82" s="62">
+        <f t="shared" ref="F82:F91" si="6">G82*118/100</f>
+        <v>2499.9951999999998</v>
+      </c>
+      <c r="G82" s="36">
+        <v>2118.64</v>
+      </c>
+      <c r="H82" s="62">
+        <f t="shared" ref="H82:H91" si="7">G82*18%</f>
+        <v>381.35519999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="39">
+        <v>102921126</v>
+      </c>
+      <c r="B83" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="E83" s="40">
+        <v>44692</v>
+      </c>
+      <c r="F83" s="62">
+        <f t="shared" si="6"/>
+        <v>2999.9965999999999</v>
+      </c>
+      <c r="G83" s="36">
+        <v>2542.37</v>
+      </c>
+      <c r="H83" s="62">
+        <f t="shared" si="7"/>
+        <v>457.62659999999994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="39">
+        <v>102645900</v>
+      </c>
+      <c r="B84" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="E84" s="40">
+        <v>44698</v>
+      </c>
+      <c r="F84" s="62">
+        <f t="shared" si="6"/>
+        <v>57916.004800000002</v>
+      </c>
+      <c r="G84" s="36">
+        <v>49081.36</v>
+      </c>
+      <c r="H84" s="62">
+        <v>4118.6400000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="39">
+        <v>102565074</v>
+      </c>
+      <c r="B85" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="E85" s="40">
+        <v>44699</v>
+      </c>
+      <c r="F85" s="62">
+        <f t="shared" si="6"/>
+        <v>7999.9988000000003</v>
+      </c>
+      <c r="G85" s="36">
+        <v>6779.66</v>
+      </c>
+      <c r="H85" s="62">
+        <f t="shared" si="7"/>
+        <v>1220.3388</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="39">
+        <v>111601197</v>
+      </c>
+      <c r="B86" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="E86" s="40">
+        <v>44699</v>
+      </c>
+      <c r="F86" s="62">
+        <f t="shared" si="6"/>
+        <v>55000.000599999999</v>
+      </c>
+      <c r="G86" s="36">
+        <v>46610.17</v>
+      </c>
+      <c r="H86" s="62">
+        <f t="shared" si="7"/>
+        <v>8389.8305999999993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="39">
+        <v>100451874</v>
+      </c>
+      <c r="B87" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="E87" s="40">
+        <v>44704</v>
+      </c>
+      <c r="F87" s="62">
+        <f t="shared" si="6"/>
+        <v>17700</v>
+      </c>
+      <c r="G87" s="36">
+        <v>15000</v>
+      </c>
+      <c r="H87" s="62">
+        <f t="shared" si="7"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="39">
+        <v>100451874</v>
+      </c>
+      <c r="B88" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="E88" s="40">
+        <v>44704</v>
+      </c>
+      <c r="F88" s="62">
+        <f t="shared" si="6"/>
+        <v>17700</v>
+      </c>
+      <c r="G88" s="36">
+        <v>15000</v>
+      </c>
+      <c r="H88" s="62">
+        <f t="shared" si="7"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="39">
+        <v>106286070</v>
+      </c>
+      <c r="B89" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="E89" s="40">
+        <v>44708</v>
+      </c>
+      <c r="F89" s="62">
+        <f t="shared" si="6"/>
+        <v>2499.9951999999998</v>
+      </c>
+      <c r="G89" s="36">
+        <v>2118.64</v>
+      </c>
+      <c r="H89" s="62">
+        <f t="shared" si="7"/>
+        <v>381.35519999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="39">
+        <v>101973284</v>
+      </c>
+      <c r="B90" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="E90" s="40">
+        <v>44708</v>
+      </c>
+      <c r="F90" s="62">
+        <f t="shared" si="6"/>
+        <v>4399.9958000000006</v>
+      </c>
+      <c r="G90" s="36">
+        <v>3728.81</v>
+      </c>
+      <c r="H90" s="62">
+        <f t="shared" si="7"/>
+        <v>671.18579999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="39">
+        <v>101546434</v>
+      </c>
+      <c r="B91" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="E91" s="40">
+        <v>44711</v>
+      </c>
+      <c r="F91" s="62">
+        <f t="shared" si="6"/>
+        <v>27999.995800000001</v>
+      </c>
+      <c r="G91" s="36">
+        <v>23728.81</v>
+      </c>
+      <c r="H91" s="62">
+        <f t="shared" si="7"/>
+        <v>4271.1858000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="83"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="62">
+        <f>SUM(F2:F91)</f>
+        <v>13315559.443000002</v>
+      </c>
+      <c r="G92" s="36">
+        <f>SUM(G2:G91)</f>
+        <v>11284372.409322036</v>
+      </c>
+      <c r="H92" s="62">
+        <f>SUM(H2:H91)</f>
+        <v>1977123.5568440673</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A92:E92"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.02734375" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.953125" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.27734375" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.65625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.76171875" style="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="68" customWidth="1"/>
+    <col min="7" max="7" width="10.0859375" style="68" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.14453125" style="68"/>
+    <col min="9" max="16384" width="9.14453125" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34">
+        <v>102565074</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="E2" s="35">
+        <v>44713</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" ref="G2:G5" si="0">F2*100/118</f>
+        <v>847.45762711864404</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H5" si="1">G2*18%</f>
+        <v>152.54237288135593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="34">
+        <v>107428066</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>553</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="E3" s="35">
+        <v>44713</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="0"/>
+        <v>4237.2881355932204</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="1"/>
+        <v>762.71186440677968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34">
+        <v>107428066</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="E4" s="35">
+        <v>44713</v>
+      </c>
+      <c r="F4" s="4">
+        <v>15000</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>12711.864406779661</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="1"/>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>107428066</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>553</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>556</v>
+      </c>
+      <c r="E5" s="35">
+        <v>44714</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>7627.1186440677966</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="1"/>
+        <v>1372.8813559322034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>102181072</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -10738,134 +13818,137 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>435</v>
+        <v>541</v>
       </c>
       <c r="E6" s="24">
-        <v>44686</v>
+        <v>44714</v>
       </c>
       <c r="F6" s="3">
-        <v>91950</v>
+        <v>62200</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>77923.728813559326</v>
+        <f t="shared" ref="G6" si="2">F6*100/118</f>
+        <v>52711.864406779663</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>102181072</v>
+        <f t="shared" ref="H6" si="3">G6*18%</f>
+        <v>9488.1355932203387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="34">
+        <v>103308737</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E7" s="24">
-        <v>44686</v>
-      </c>
-      <c r="F7" s="3">
-        <v>21000</v>
+        <v>543</v>
+      </c>
+      <c r="E7" s="35">
+        <v>44715</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4000</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>17796.610169491527</v>
+        <f t="shared" ref="G7:G11" si="4">F7*100/118</f>
+        <v>3389.8305084745762</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>119553030</v>
+        <f t="shared" ref="H7:H11" si="5">G7*18%</f>
+        <v>610.16949152542372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>111850097</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E8" s="24">
-        <v>44686</v>
+        <v>544</v>
+      </c>
+      <c r="E8" s="35">
+        <v>44715</v>
       </c>
       <c r="F8" s="3">
-        <v>30000</v>
+        <v>125000</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>25423.728813559323</v>
+        <f t="shared" si="4"/>
+        <v>105932.20338983051</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
-        <v>4576.2711864406783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>102181072</v>
+        <f t="shared" si="5"/>
+        <v>19067.796610169491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>101587390</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>437</v>
+        <v>546</v>
       </c>
       <c r="E9" s="24">
-        <v>44686</v>
+        <v>44715</v>
       </c>
       <c r="F9" s="3">
-        <v>27500</v>
+        <v>22100</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>23305.084745762713</v>
+        <f t="shared" si="4"/>
+        <v>18728.813559322032</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>101887556</v>
+        <f t="shared" si="5"/>
+        <v>3371.1864406779655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>101967453</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>431</v>
+        <v>547</v>
       </c>
       <c r="E10" s="24">
-        <v>44687</v>
+        <v>44715</v>
       </c>
       <c r="F10" s="3">
-        <v>7164960</v>
+        <v>809000</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" ref="G10:G73" si="2">F10*100/118</f>
-        <v>6072000</v>
+        <f t="shared" si="4"/>
+        <v>685593.220338983</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" ref="H10:H73" si="3">G10*18%</f>
-        <v>1092960</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+        <f t="shared" si="5"/>
+        <v>123406.77966101693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>103387177</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -10875,1722 +13958,1439 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>432</v>
+        <v>548</v>
       </c>
       <c r="E11" s="24">
-        <v>44687</v>
+        <v>44717</v>
       </c>
       <c r="F11" s="3">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="2"/>
-        <v>2542.3728813559323</v>
+        <f t="shared" si="4"/>
+        <v>25423.728813559323</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="3"/>
-        <v>457.62711864406782</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>103719433</v>
+        <f t="shared" si="5"/>
+        <v>4576.2711864406783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>102781542</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>438</v>
+        <v>168</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>439</v>
+        <v>549</v>
       </c>
       <c r="E12" s="24">
-        <v>44688</v>
+        <v>44718</v>
       </c>
       <c r="F12" s="3">
-        <v>24000</v>
+        <v>222800</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="2"/>
-        <v>20338.983050847459</v>
+        <f t="shared" ref="G12:G61" si="6">F12*100/118</f>
+        <v>188813.55932203389</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="3"/>
-        <v>3661.0169491525426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+        <f t="shared" ref="H12:H50" si="7">G12*18%</f>
+        <v>33986.4406779661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>102781542</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>426</v>
+        <v>550</v>
       </c>
       <c r="E13" s="24">
-        <v>44683</v>
+        <v>44718</v>
       </c>
       <c r="F13" s="3">
-        <v>275700</v>
+        <v>231200</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="2"/>
-        <v>233644.06779661018</v>
+        <f t="shared" si="6"/>
+        <v>195932.20338983051</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="3"/>
-        <v>42055.932203389828</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+        <f t="shared" si="7"/>
+        <v>35267.796610169491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>103372638</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E14" s="24">
+        <v>44719</v>
+      </c>
+      <c r="F14" s="3">
+        <v>299239.57</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="6"/>
+        <v>253592.85593220338</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="7"/>
+        <v>45646.714067796609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>101887556</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E15" s="24">
+        <v>44719</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7164940</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="6"/>
+        <v>6071983.0508474577</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="7"/>
+        <v>1092956.9491525423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>100948383</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E16" s="24">
+        <v>44719</v>
+      </c>
+      <c r="F16" s="3">
+        <v>58800</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="6"/>
+        <v>49830.508474576272</v>
+      </c>
+      <c r="H16" s="3">
+        <v>8969.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>111601197</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E17" s="24">
+        <v>44720</v>
+      </c>
+      <c r="F17" s="3">
+        <v>60000</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="6"/>
+        <v>50847.457627118645</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="7"/>
+        <v>9152.5423728813566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>108945421</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="E18" s="26">
+        <v>44720</v>
+      </c>
+      <c r="F18" s="18">
+        <v>5000</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="6"/>
+        <v>4237.2881355932204</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="7"/>
+        <v>762.71186440677968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="66">
         <v>102781542</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E14" s="24">
-        <v>44686</v>
-      </c>
-      <c r="F14" s="3">
-        <v>220300</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="2"/>
-        <v>186694.91525423728</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="3"/>
-        <v>33605.08474576271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="B19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E19" s="24">
+        <v>44721</v>
+      </c>
+      <c r="F19" s="3">
+        <v>179500</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="6"/>
+        <v>152118.64406779662</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="7"/>
+        <v>27381.355932203391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>102213906</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E20" s="24">
+        <v>44721</v>
+      </c>
+      <c r="F20" s="3">
+        <v>225000</v>
+      </c>
+      <c r="G20" s="3">
+        <f>F20*100/118</f>
+        <v>190677.96610169491</v>
+      </c>
+      <c r="H20" s="3">
+        <f>G20*18%</f>
+        <v>34322.033898305082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>111601197</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E21" s="24">
+        <v>44721</v>
+      </c>
+      <c r="F21" s="3">
+        <v>66000</v>
+      </c>
+      <c r="G21" s="3">
+        <f>F21*100/118</f>
+        <v>55932.203389830509</v>
+      </c>
+      <c r="H21" s="3">
+        <f>G21*18%</f>
+        <v>10067.796610169491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>119622565</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E22" s="24">
+        <v>44723</v>
+      </c>
+      <c r="F22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="6"/>
+        <v>23728.813559322032</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="7"/>
+        <v>4271.1864406779659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>100948383</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E23" s="24">
+        <v>44723</v>
+      </c>
+      <c r="F23" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="6"/>
+        <v>14237.28813559322</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="7"/>
+        <v>2562.7118644067796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>106721065</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E24" s="24">
+        <v>44725</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="6"/>
+        <v>5338.9830508474579</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="7"/>
+        <v>961.01694915254234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>100948383</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E25" s="24">
+        <v>44725</v>
+      </c>
+      <c r="F25" s="3">
+        <v>63000</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="6"/>
+        <v>53389.830508474573</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="7"/>
+        <v>9610.1694915254229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>102416331</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E26" s="24">
+        <v>44725</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="6"/>
+        <v>4745.7627118644068</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="7"/>
+        <v>854.23728813559319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>100948383</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E27" s="24">
+        <v>44725</v>
+      </c>
+      <c r="F27" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="6"/>
+        <v>16101.694915254237</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="7"/>
+        <v>2898.3050847457625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>102781542</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E15" s="24">
-        <v>44688</v>
-      </c>
-      <c r="F15" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="2"/>
-        <v>10169.491525423729</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="3"/>
-        <v>1830.5084745762713</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="B28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E28" s="24">
+        <v>44725</v>
+      </c>
+      <c r="F28" s="3">
+        <v>197100</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="6"/>
+        <v>167033.89830508476</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="7"/>
+        <v>30066.101694915254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>101967453</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E29" s="24">
+        <v>44727</v>
+      </c>
+      <c r="F29" s="3">
+        <v>586000</v>
+      </c>
+      <c r="G29" s="3">
+        <f>F29*100/118</f>
+        <v>496610.16949152545</v>
+      </c>
+      <c r="H29" s="3">
+        <f>G29*18%</f>
+        <v>89389.830508474581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>100948383</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E30" s="24">
+        <v>44728</v>
+      </c>
+      <c r="F30" s="3">
+        <v>68200</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="6"/>
+        <v>57796.610169491527</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="7"/>
+        <v>10403.389830508475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>100948383</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E31" s="24">
+        <v>44727</v>
+      </c>
+      <c r="F31" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="6"/>
+        <v>16101.694915254237</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="7"/>
+        <v>2898.3050847457625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>102781542</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E16" s="24">
-        <v>44689</v>
-      </c>
-      <c r="F16" s="3">
-        <v>221600</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="2"/>
-        <v>187796.61016949153</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="3"/>
-        <v>33803.389830508473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>118739741</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E17" s="24">
-        <v>44690</v>
-      </c>
-      <c r="F17" s="3">
-        <v>25500</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="2"/>
-        <v>21610.169491525423</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="3"/>
-        <v>3889.8305084745762</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="B32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E32" s="24">
+        <v>44728</v>
+      </c>
+      <c r="F32" s="3">
+        <v>304000</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="6"/>
+        <v>257627.11864406778</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="7"/>
+        <v>46372.881355932201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>111601197</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E33" s="24">
+        <v>44728</v>
+      </c>
+      <c r="F33" s="3">
+        <v>136000</v>
+      </c>
+      <c r="G33" s="3">
+        <f>F33*100/118</f>
+        <v>115254.2372881356</v>
+      </c>
+      <c r="H33" s="3">
+        <f>G33*18%</f>
+        <v>20745.762711864409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>102181072</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E18" s="24">
-        <v>44690</v>
-      </c>
-      <c r="F18" s="3">
-        <v>131000</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="2"/>
-        <v>111016.94915254238</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1677.95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>102246990</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E19" s="24">
-        <v>44691</v>
-      </c>
-      <c r="F19" s="3">
-        <v>14800</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="2"/>
-        <v>12542.372881355932</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="3"/>
-        <v>2257.6271186440677</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>101546434</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E20" s="24">
-        <v>44691</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="2"/>
-        <v>2118.6440677966102</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="3"/>
-        <v>381.35593220338984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>101585951</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E21" s="24">
-        <v>44689</v>
-      </c>
-      <c r="F21" s="3">
-        <v>235800</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="2"/>
-        <v>199830.50847457626</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="3"/>
-        <v>35969.491525423728</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>101506622</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E22" s="24">
-        <v>44693</v>
-      </c>
-      <c r="F22" s="3">
-        <v>19500</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="2"/>
-        <v>16525.423728813559</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="3"/>
-        <v>2974.5762711864404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>102181072</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E23" s="24">
-        <v>44693</v>
-      </c>
-      <c r="F23" s="3">
-        <v>137000</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="2"/>
-        <v>116101.69491525424</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2440.6999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E34" s="24">
+        <v>44728</v>
+      </c>
+      <c r="F34" s="3">
+        <v>27200</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="6"/>
+        <v>23050.847457627118</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="7"/>
+        <v>4149.1525423728808</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="67">
         <v>102781542</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E24" s="24">
-        <v>44693</v>
-      </c>
-      <c r="F24" s="3">
-        <v>194500</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="2"/>
-        <v>164830.50847457626</v>
-      </c>
-      <c r="H24" s="3">
-        <f t="shared" si="3"/>
-        <v>29669.491525423724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>111601197</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E25" s="24">
-        <v>44694</v>
-      </c>
-      <c r="F25" s="3">
-        <v>55000</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="2"/>
-        <v>46610.169491525427</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="3"/>
-        <v>8389.8305084745771</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>100846084</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="E26" s="24">
-        <v>44689</v>
-      </c>
-      <c r="F26" s="3">
-        <v>65300</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="2"/>
-        <v>55338.983050847455</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" si="3"/>
-        <v>9961.0169491525412</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>107654416</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E27" s="24">
-        <v>44690</v>
-      </c>
-      <c r="F27" s="3">
-        <v>114200</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="2"/>
-        <v>96779.661016949147</v>
-      </c>
-      <c r="H27" s="3">
-        <f t="shared" si="3"/>
-        <v>17420.338983050846</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>107531579</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E28" s="24">
-        <v>44690</v>
-      </c>
-      <c r="F28" s="3">
-        <v>14000</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="2"/>
-        <v>11864.406779661016</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="3"/>
-        <v>2135.593220338983</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>107531579</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E29" s="24">
-        <v>44689</v>
-      </c>
-      <c r="F29" s="3">
-        <v>28000</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="2"/>
-        <v>23728.813559322032</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" si="3"/>
-        <v>4271.1864406779659</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>106415852</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E30" s="24">
-        <v>44689</v>
-      </c>
-      <c r="F30" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="2"/>
-        <v>3813.5593220338983</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="3"/>
-        <v>686.4406779661017</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>111967405</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E31" s="24">
-        <v>44694</v>
-      </c>
-      <c r="F31" s="3">
-        <v>7500</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="2"/>
-        <v>6355.9322033898306</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="3"/>
-        <v>1144.0677966101696</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>107343569</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E32" s="24">
-        <v>44694</v>
-      </c>
-      <c r="F32" s="3">
-        <v>17700</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="2"/>
-        <v>15000</v>
-      </c>
-      <c r="H32" s="3">
-        <f t="shared" si="3"/>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>103387177</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E33" s="24">
-        <v>44696</v>
-      </c>
-      <c r="F33" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="2"/>
-        <v>2542.3728813559323</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="3"/>
-        <v>457.62711864406782</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>100027159</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="51" t="s">
-        <v>468</v>
-      </c>
-      <c r="E34" s="53">
-        <v>44691</v>
-      </c>
-      <c r="F34" s="52">
-        <v>2200</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="2"/>
-        <v>1864.406779661017</v>
-      </c>
-      <c r="H34" s="3">
-        <f t="shared" si="3"/>
-        <v>335.59322033898303</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>102609359</v>
-      </c>
       <c r="B35" s="2" t="s">
-        <v>469</v>
+        <v>168</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="54" t="s">
-        <v>470</v>
-      </c>
-      <c r="E35" s="56">
-        <v>44696</v>
-      </c>
-      <c r="F35" s="55">
-        <v>12500</v>
+      <c r="D35" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E35" s="24">
+        <v>44729</v>
+      </c>
+      <c r="F35" s="3">
+        <v>370300</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="2"/>
-        <v>10593.22033898305</v>
+        <f>F35*100/118</f>
+        <v>313813.55932203389</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="3"/>
-        <v>1906.7796610169489</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>100971981</v>
+        <f>G35*18%</f>
+        <v>56486.4406779661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>101411885</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>471</v>
+        <v>22</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>472</v>
+        <v>575</v>
       </c>
       <c r="E36" s="24">
-        <v>44695</v>
+        <v>44729</v>
       </c>
       <c r="F36" s="3">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="2"/>
-        <v>8474.5762711864409</v>
+        <f t="shared" si="6"/>
+        <v>5084.7457627118647</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="3"/>
-        <v>1525.4237288135594</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>102781542</v>
+        <f t="shared" si="7"/>
+        <v>915.25423728813564</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>101526614</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>587</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>473</v>
+        <v>588</v>
       </c>
       <c r="E37" s="24">
-        <v>44697</v>
-      </c>
-      <c r="F37" s="38">
-        <v>222200</v>
+        <v>44730</v>
+      </c>
+      <c r="F37" s="3">
+        <v>26000</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="2"/>
-        <v>188305.08474576272</v>
+        <f t="shared" si="6"/>
+        <v>22033.898305084746</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="3"/>
-        <v>33894.91525423729</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>106286070</v>
+        <f t="shared" si="7"/>
+        <v>3966.101694915254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>103370539</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>16</v>
+        <v>391</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>474</v>
+        <v>577</v>
       </c>
       <c r="E38" s="24">
-        <v>44697</v>
-      </c>
-      <c r="F38" s="38">
-        <v>2500</v>
+        <v>44732</v>
+      </c>
+      <c r="F38" s="3">
+        <v>106666.1</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="2"/>
-        <v>2118.6440677966102</v>
+        <f t="shared" si="6"/>
+        <v>90395</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="3"/>
-        <v>381.35593220338984</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>102181072</v>
+        <f t="shared" si="7"/>
+        <v>16271.099999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>103532661</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>589</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>475</v>
+        <v>590</v>
       </c>
       <c r="E39" s="24">
-        <v>44697</v>
+        <v>44734</v>
       </c>
       <c r="F39" s="3">
         <v>15000</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12711.864406779661</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>103532661</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E40" s="24">
+        <v>44734</v>
+      </c>
+      <c r="F40" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="6"/>
+        <v>25423.728813559323</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="7"/>
+        <v>4576.2711864406783</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>103387177</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>578</v>
+      </c>
+      <c r="E41" s="59">
+        <v>44732</v>
+      </c>
+      <c r="F41" s="52">
+        <v>30000</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="6"/>
+        <v>25423.728813559323</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="7"/>
+        <v>4576.2711864406783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>102781542</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E42" s="24">
+        <v>44739</v>
+      </c>
+      <c r="F42" s="3">
+        <v>316900</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="6"/>
+        <v>268559.32203389832</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="7"/>
+        <v>48340.677966101699</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>100144768</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E43" s="24">
+        <v>44740</v>
+      </c>
+      <c r="F43" s="3">
+        <v>59200</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="6"/>
+        <v>50169.491525423728</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="7"/>
+        <v>9030.5084745762706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="16">
+        <v>101411885</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="E44" s="26">
+        <v>44740</v>
+      </c>
+      <c r="F44" s="18">
+        <v>3000</v>
+      </c>
+      <c r="G44" s="18">
+        <f t="shared" si="6"/>
+        <v>2542.3728813559323</v>
+      </c>
+      <c r="H44" s="18">
+        <f t="shared" si="7"/>
+        <v>457.62711864406782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>103017995</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E45" s="24">
+        <v>44741</v>
+      </c>
+      <c r="F45" s="3">
+        <v>73000</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="6"/>
+        <v>61864.406779661018</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="7"/>
+        <v>11135.593220338982</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16">
+        <v>107124183</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="E46" s="26">
+        <v>44741</v>
+      </c>
+      <c r="F46" s="18">
+        <v>10000</v>
+      </c>
+      <c r="G46" s="18">
+        <f t="shared" si="6"/>
+        <v>8474.5762711864409</v>
+      </c>
+      <c r="H46" s="18">
+        <f t="shared" si="7"/>
+        <v>1525.4237288135594</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>103372638</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E47" s="24">
+        <v>44741</v>
+      </c>
+      <c r="F47" s="3">
+        <v>598479.14</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="6"/>
+        <v>507185.71186440677</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="7"/>
+        <v>91293.428135593218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>111967405</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E48" s="24">
+        <v>44742</v>
+      </c>
+      <c r="F48" s="3">
+        <v>25200</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="6"/>
+        <v>21355.932203389832</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="7"/>
+        <v>3844.0677966101694</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>102465861</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E49" s="24">
+        <v>44742</v>
+      </c>
+      <c r="F49" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="6"/>
+        <v>16949.152542372882</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="7"/>
+        <v>3050.8474576271187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>101967453</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E50" s="24">
+        <v>44742</v>
+      </c>
+      <c r="F50" s="3">
+        <v>67000</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="6"/>
+        <v>56779.661016949154</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="7"/>
+        <v>10220.338983050848</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>101585951</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E51" s="35">
+        <v>44715</v>
+      </c>
+      <c r="F51" s="3">
+        <v>235800.89</v>
+      </c>
+      <c r="G51" s="3">
+        <f>F51*100/118</f>
+        <v>199831.2627118644</v>
+      </c>
+      <c r="H51" s="3">
+        <f>G51*18%</f>
+        <v>35969.627288135591</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>102996579</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E52" s="24">
+        <v>44727</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1440.68</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="6"/>
+        <v>1220.9152542372881</v>
+      </c>
+      <c r="H52" s="3">
+        <v>259.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>101546434</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E40" s="24">
-        <v>44697</v>
-      </c>
-      <c r="F40" s="3">
-        <v>7500</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="2"/>
-        <v>6355.9322033898306</v>
-      </c>
-      <c r="H40" s="3">
-        <f t="shared" si="3"/>
-        <v>1144.0677966101696</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="3"/>
+      <c r="D53" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E53" s="24">
+        <v>44733</v>
+      </c>
+      <c r="F53" s="3">
+        <v>4237.29</v>
+      </c>
       <c r="G53" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3590.9237288135591</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="2"/>
+        <v>762.71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>111967405</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="3"/>
+      <c r="D54" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E54" s="24">
+        <v>44735</v>
+      </c>
+      <c r="F54" s="3">
+        <v>6255.93</v>
+      </c>
       <c r="G54" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5301.6355932203387</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="2"/>
+        <v>1144.07</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>120260665</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="3"/>
+      <c r="D55" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E55" s="27">
+        <v>44735</v>
+      </c>
+      <c r="F55" s="3">
+        <v>10593</v>
+      </c>
       <c r="G55" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>8977.1186440677975</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="2"/>
+        <v>1906.78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>106286070</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="3"/>
+      <c r="D56" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E56" s="27">
+        <v>44736</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2188</v>
+      </c>
       <c r="G56" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1854.2372881355932</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="2"/>
+        <v>381.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>103606486</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="3"/>
+      <c r="D57" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E57" s="24">
+        <v>44738</v>
+      </c>
+      <c r="F57" s="3">
+        <v>10169.49</v>
+      </c>
       <c r="G57" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>8618.2118644067796</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="2"/>
+        <v>1830.51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="67">
+        <v>119622565</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="3"/>
+      <c r="D58" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E58" s="24">
+        <v>44739</v>
+      </c>
+      <c r="F58" s="3">
+        <v>11864</v>
+      </c>
       <c r="G58" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10054.237288135593</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="2"/>
+        <v>2135.59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="67">
+        <v>119622565</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="3"/>
+      <c r="D59" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E59" s="24">
+        <v>44739</v>
+      </c>
+      <c r="F59" s="3">
+        <v>11864</v>
+      </c>
       <c r="G59" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="G59" si="8">F59*100/118</f>
+        <v>10054.237288135593</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="2"/>
+        <v>2135.59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="67">
+        <v>107428066</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="3"/>
+      <c r="D60" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E60" s="24">
+        <v>44739</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3813.56</v>
+      </c>
       <c r="G60" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3231.8305084745762</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="2"/>
+        <v>686.44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="67">
+        <v>120260665</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="3"/>
+      <c r="D61" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E61" s="24">
+        <v>44740</v>
+      </c>
+      <c r="F61" s="3">
+        <v>12771</v>
+      </c>
       <c r="G61" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10822.881355932202</v>
       </c>
       <c r="H61" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="3"/>
+        <v>2288.14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="62">
+        <f>SUM(F6:F61)</f>
+        <v>13108722.65</v>
+      </c>
       <c r="G62" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3">
-        <f t="shared" ref="G74:G88" si="4">F74*100/118</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="3">
-        <f t="shared" ref="H74:H88" si="5">G74*18%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H85" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H86" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="61"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="36">
-        <f>SUM(F2:F88)</f>
-        <v>9889449.5700000003</v>
-      </c>
-      <c r="G89" s="36">
-        <f>SUM(G2:G88)</f>
-        <v>8380889.4661016958</v>
-      </c>
-      <c r="H89" s="36">
-        <f>SUM(H2:H88)</f>
-        <v>1429550.7674576268</v>
+        <f>SUM(G6:G61)</f>
+        <v>11109086.991525421</v>
+      </c>
+      <c r="H62" s="62">
+        <f>SUM(H6:H61)</f>
+        <v>2001695.4457627125</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H71" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="1">
-    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A62:E62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OneClick Hotel/VAT 2022 one.xlsx
+++ b/OneClick Hotel/VAT 2022 one.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACTIVE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67904D99-8004-E04B-A33F-31BCDE868FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282C452E-4926-49D2-B5F7-2AE06DB543C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="February 2022" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,11 @@
     <sheet name="APRIL 2022" sheetId="5" r:id="rId3"/>
     <sheet name="MAY 2022" sheetId="6" r:id="rId4"/>
     <sheet name="JUNE 2022" sheetId="7" r:id="rId5"/>
+    <sheet name="JULY 2022" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'APRIL 2022'!$A$1:$H$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'JULY 2022'!$A$1:$H$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'JUNE 2022'!$A$1:$H$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MARCH 2022'!$A$1:$H$111</definedName>
   </definedNames>
@@ -29,11 +31,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="691">
   <si>
     <t>TIN</t>
   </si>
@@ -1880,6 +1877,240 @@
   </si>
   <si>
     <t>SDC007013446/27582</t>
+  </si>
+  <si>
+    <t>SDC010014500/4847</t>
+  </si>
+  <si>
+    <t>LA COLOMBE</t>
+  </si>
+  <si>
+    <t>SDC007072879/32096</t>
+  </si>
+  <si>
+    <t>SDC002800324/8289</t>
+  </si>
+  <si>
+    <t>SDC007004635/787</t>
+  </si>
+  <si>
+    <t>SDC007074625/7013</t>
+  </si>
+  <si>
+    <t>SDC007074625/7160</t>
+  </si>
+  <si>
+    <t>SDC007074625/7137</t>
+  </si>
+  <si>
+    <t>SDC010014500/4884</t>
+  </si>
+  <si>
+    <t>SDC010001656/6537</t>
+  </si>
+  <si>
+    <t>SDC007007877/32</t>
+  </si>
+  <si>
+    <t>SDC010014500/4972</t>
+  </si>
+  <si>
+    <t>SDC007072859/8524</t>
+  </si>
+  <si>
+    <t>SMART DELIVERY COMPANY LTD</t>
+  </si>
+  <si>
+    <t>SDC010020352/2783</t>
+  </si>
+  <si>
+    <t>SDC010003408/25427</t>
+  </si>
+  <si>
+    <t>SDC010014500/5044</t>
+  </si>
+  <si>
+    <t>RWEGO &amp; C LTD</t>
+  </si>
+  <si>
+    <t>SDC010027194/382</t>
+  </si>
+  <si>
+    <t>SDC011000805/1096451</t>
+  </si>
+  <si>
+    <t>LA GLOIRE CONFIANCE TRADING LTD</t>
+  </si>
+  <si>
+    <t>SDC007005171/25978</t>
+  </si>
+  <si>
+    <t>SDC007003483/2297</t>
+  </si>
+  <si>
+    <t>IGIRANEZA BUSINESS COMPANY LTD</t>
+  </si>
+  <si>
+    <t>SDC010001492/4111</t>
+  </si>
+  <si>
+    <t>SDC007013446/28349</t>
+  </si>
+  <si>
+    <t>GOOD CARE HARDWARE LTD</t>
+  </si>
+  <si>
+    <t>SDC007024229/1588</t>
+  </si>
+  <si>
+    <t>SDC007013446/28378</t>
+  </si>
+  <si>
+    <t>SDC007004635/817</t>
+  </si>
+  <si>
+    <t>BEATRICE KAZAYIRE</t>
+  </si>
+  <si>
+    <t>SDC007071439/2494</t>
+  </si>
+  <si>
+    <t>PARADIS DU COEUR &amp; PARADIS DU CORPS</t>
+  </si>
+  <si>
+    <t>SDC007042825/1540</t>
+  </si>
+  <si>
+    <t>SDC007042825/1536</t>
+  </si>
+  <si>
+    <t>SDC010003408/25860</t>
+  </si>
+  <si>
+    <t>SDC002800324/8428</t>
+  </si>
+  <si>
+    <t>SDC007013446/28417</t>
+  </si>
+  <si>
+    <t>SDC010018251/1468</t>
+  </si>
+  <si>
+    <t>SDC002800324/8434</t>
+  </si>
+  <si>
+    <t>RICHARD NSABIMANA</t>
+  </si>
+  <si>
+    <t>SDC010000448/1652</t>
+  </si>
+  <si>
+    <t>SDC004005846/71034</t>
+  </si>
+  <si>
+    <t>SDC007013446/28447</t>
+  </si>
+  <si>
+    <t>SDC010037435/154</t>
+  </si>
+  <si>
+    <t>SDC010037435/137</t>
+  </si>
+  <si>
+    <t>SDC010037435/138</t>
+  </si>
+  <si>
+    <t>SDC010014500/5233</t>
+  </si>
+  <si>
+    <t>SDC007013446/28466</t>
+  </si>
+  <si>
+    <t>SDC007013446/28467</t>
+  </si>
+  <si>
+    <t>SDC010003408/26190</t>
+  </si>
+  <si>
+    <t>SDC011000216/5073691</t>
+  </si>
+  <si>
+    <t>SDC002800324/8469</t>
+  </si>
+  <si>
+    <t>SDC010014500/5313</t>
+  </si>
+  <si>
+    <t>SDC007010005/16308</t>
+  </si>
+  <si>
+    <t>SDC010003408/26620</t>
+  </si>
+  <si>
+    <t>SDC010014500/5399</t>
+  </si>
+  <si>
+    <t>SDC002800324/8491</t>
+  </si>
+  <si>
+    <t>SDC007057826/15715</t>
+  </si>
+  <si>
+    <t>SDC007057826/15737</t>
+  </si>
+  <si>
+    <t>SDC010003408/26756</t>
+  </si>
+  <si>
+    <t>QUICK STAR SERVICE RWANDA</t>
+  </si>
+  <si>
+    <t>SDC010042758/91</t>
+  </si>
+  <si>
+    <t>SDC007072859/9052</t>
+  </si>
+  <si>
+    <t>SDC010003408/27149</t>
+  </si>
+  <si>
+    <t>KAFOCA LTD</t>
+  </si>
+  <si>
+    <t>SDC007000766/16779</t>
+  </si>
+  <si>
+    <t>SDC007074625/9911</t>
+  </si>
+  <si>
+    <t>SDC010014500/5139</t>
+  </si>
+  <si>
+    <t>SDC008000664/10923</t>
+  </si>
+  <si>
+    <t>SDC010000448/1651</t>
+  </si>
+  <si>
+    <t>anyname</t>
+  </si>
+  <si>
+    <t>SDC011000445/56473</t>
+  </si>
+  <si>
+    <t>SDC007013446/28334</t>
+  </si>
+  <si>
+    <t>SDC010028680/315</t>
+  </si>
+  <si>
+    <t>SDC007010575/670</t>
+  </si>
+  <si>
+    <t>SDC010042758/144</t>
+  </si>
+  <si>
+    <t>SDC007042825/1552</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +2144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1935,6 +2166,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2044,7 +2281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2177,6 +2414,14 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2562,17 +2807,17 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.02734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.27734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.76171875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.14453125" style="31"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2598,7 +2843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>101967453</v>
       </c>
@@ -2626,7 +2871,7 @@
         <v>41277.966101694918</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>102416331</v>
       </c>
@@ -2654,7 +2899,7 @@
         <v>3661.0169491525426</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>107343569</v>
       </c>
@@ -2682,7 +2927,7 @@
         <v>7627.1186440677957</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>106286070</v>
       </c>
@@ -2710,7 +2955,7 @@
         <v>3172.881355932203</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>102565074</v>
       </c>
@@ -2738,7 +2983,7 @@
         <v>741.35593220338978</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>102997974</v>
       </c>
@@ -2766,7 +3011,7 @@
         <v>14491.525423728812</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>101411885</v>
       </c>
@@ -2794,7 +3039,7 @@
         <v>594.91525423728808</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>101546434</v>
       </c>
@@ -2822,7 +3067,7 @@
         <v>2745.7627118644068</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>102997974</v>
       </c>
@@ -2850,7 +3095,7 @@
         <v>14491.525423728812</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>101506622</v>
       </c>
@@ -2878,7 +3123,7 @@
         <v>2440.6779661016949</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>100014220</v>
       </c>
@@ -2906,7 +3151,7 @@
         <v>3661.0169491525426</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>101546434</v>
       </c>
@@ -2934,7 +3179,7 @@
         <v>3050.8474576271187</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>101546434</v>
       </c>
@@ -2962,7 +3207,7 @@
         <v>2471.1864406779659</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>103027028</v>
       </c>
@@ -2990,7 +3235,7 @@
         <v>13881.355932203391</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>102565074</v>
       </c>
@@ -3018,7 +3263,7 @@
         <v>701.69491525423723</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>103375391</v>
       </c>
@@ -3046,7 +3291,7 @@
         <v>11120.338983050848</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>102080243</v>
       </c>
@@ -3074,7 +3319,7 @@
         <v>915.25423728813564</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>101710867</v>
       </c>
@@ -3102,7 +3347,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>105336378</v>
       </c>
@@ -3130,7 +3375,7 @@
         <v>2898.3050847457625</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>119553030</v>
       </c>
@@ -3158,7 +3403,7 @@
         <v>2820.8135593220336</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>103319698</v>
       </c>
@@ -3186,7 +3431,7 @@
         <v>9152.5423728813566</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>103214294</v>
       </c>
@@ -3214,7 +3459,7 @@
         <v>762.71186440677968</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>103319698</v>
       </c>
@@ -3242,7 +3487,7 @@
         <v>4576.2711864406783</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>101710867</v>
       </c>
@@ -3270,7 +3515,7 @@
         <v>1525.4237288135594</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>102163751</v>
       </c>
@@ -3298,7 +3543,7 @@
         <v>12203.389830508475</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>103187684</v>
       </c>
@@ -3326,7 +3571,7 @@
         <v>2745.7627118644068</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>102080243</v>
       </c>
@@ -3354,7 +3599,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>113472758</v>
       </c>
@@ -3382,7 +3627,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>119789715</v>
       </c>
@@ -3410,7 +3655,7 @@
         <v>274.57627118644069</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>107794460</v>
       </c>
@@ -3438,7 +3683,7 @@
         <v>4728.8135593220341</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>108246916</v>
       </c>
@@ -3466,7 +3711,7 @@
         <v>5338.983050847457</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>108458464</v>
       </c>
@@ -3494,7 +3739,7 @@
         <v>6864.4067796610161</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>101873476</v>
       </c>
@@ -3522,7 +3767,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>106498874</v>
       </c>
@@ -3550,7 +3795,7 @@
         <v>6864.4067796610161</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>107343569</v>
       </c>
@@ -3578,7 +3823,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>106286070</v>
       </c>
@@ -3606,7 +3851,7 @@
         <v>762.71186440677968</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>106286070</v>
       </c>
@@ -3634,7 +3879,7 @@
         <v>1525.4237288135594</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>113472758</v>
       </c>
@@ -3662,7 +3907,7 @@
         <v>7322.0338983050851</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>107972890</v>
       </c>
@@ -3690,7 +3935,7 @@
         <v>6864.4067796610161</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>102416331</v>
       </c>
@@ -3718,7 +3963,7 @@
         <v>4301.6949152542375</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>100028318</v>
       </c>
@@ -3746,7 +3991,7 @@
         <v>11288.135593220339</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>102181072</v>
       </c>
@@ -3774,7 +4019,7 @@
         <v>808.47457627118638</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>106286070</v>
       </c>
@@ -3802,7 +4047,7 @@
         <v>3813.5593220338978</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>102089702</v>
       </c>
@@ -3830,7 +4075,7 @@
         <v>1906.7796610169489</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>101411885</v>
       </c>
@@ -3858,7 +4103,7 @@
         <v>320.33898305084745</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>101967453</v>
       </c>
@@ -3886,7 +4131,7 @@
         <v>1830.5084745762713</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>102781542</v>
       </c>
@@ -3914,7 +4159,7 @@
         <v>34245.762711864409</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>102781542</v>
       </c>
@@ -3942,7 +4187,7 @@
         <v>62298.305084745763</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>102781991</v>
       </c>
@@ -3970,7 +4215,7 @@
         <v>5886</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>102089702</v>
       </c>
@@ -3998,7 +4243,7 @@
         <v>1525.4237288135594</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>107167198</v>
       </c>
@@ -4026,7 +4271,7 @@
         <v>9884.7457627118638</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>106562632</v>
       </c>
@@ -4054,7 +4299,7 @@
         <v>3050.8474576271187</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>102781542</v>
       </c>
@@ -4082,7 +4327,7 @@
         <v>366.1016949152542</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>101411885</v>
       </c>
@@ -4110,7 +4355,7 @@
         <v>457.62711864406782</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>100022231</v>
       </c>
@@ -4138,7 +4383,7 @@
         <v>152.54237288135593</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>119098861</v>
       </c>
@@ -4166,7 +4411,7 @@
         <v>1830.5084745762713</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>102781542</v>
       </c>
@@ -4194,7 +4439,7 @@
         <v>34688.135593220337</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>103549544</v>
       </c>
@@ -4222,7 +4467,7 @@
         <v>22881.355932203391</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>103499152</v>
       </c>
@@ -4250,7 +4495,7 @@
         <v>3661.0169491525426</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>103319698</v>
       </c>
@@ -4278,7 +4523,7 @@
         <v>18762.711864406778</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>111738571</v>
       </c>
@@ -4306,7 +4551,7 @@
         <v>6261.8644067796604</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>102181072</v>
       </c>
@@ -4334,7 +4579,7 @@
         <v>3737.2881355932204</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>101506622</v>
       </c>
@@ -4362,7 +4607,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>101873476</v>
       </c>
@@ -4390,7 +4635,7 @@
         <v>3661.0169491525426</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>101546434</v>
       </c>
@@ -4418,7 +4663,7 @@
         <v>3966.101694915254</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>101506622</v>
       </c>
@@ -4446,7 +4691,7 @@
         <v>2440.6779661016949</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>119250153</v>
       </c>
@@ -4474,7 +4719,7 @@
         <v>1220.3389830508474</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>101506622</v>
       </c>
@@ -4502,7 +4747,7 @@
         <v>1128.8135593220338</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>106286070</v>
       </c>
@@ -4530,7 +4775,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>104476892</v>
       </c>
@@ -4558,7 +4803,7 @@
         <v>915.25423728813564</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>108173992</v>
       </c>
@@ -4586,7 +4831,7 @@
         <v>762.71186440677968</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>102416331</v>
       </c>
@@ -4614,7 +4859,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>100451040</v>
       </c>
@@ -4642,7 +4887,7 @@
         <v>457.62711864406782</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>102246990</v>
       </c>
@@ -4670,7 +4915,7 @@
         <v>4606.7796610169489</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>103109750</v>
       </c>
@@ -4698,7 +4943,7 @@
         <v>4118.6440677966102</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>100306858</v>
       </c>
@@ -4726,7 +4971,7 @@
         <v>305.08474576271186</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>103387177</v>
       </c>
@@ -4754,7 +4999,7 @@
         <v>5186.4406779661022</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>100027159</v>
       </c>
@@ -4782,7 +5027,7 @@
         <v>533.89830508474574</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>105336378</v>
       </c>
@@ -4810,7 +5055,7 @@
         <v>1296.6101694915255</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>103750561</v>
       </c>
@@ -4838,7 +5083,7 @@
         <v>427.11864406779659</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>102181072</v>
       </c>
@@ -4866,7 +5111,7 @@
         <v>747.45762711864404</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>107124183</v>
       </c>
@@ -4894,7 +5139,7 @@
         <v>13728.813559322032</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>102416331</v>
       </c>
@@ -4922,7 +5167,7 @@
         <v>30477.966101694914</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>109138210</v>
       </c>
@@ -4950,7 +5195,7 @@
         <v>53740.677966101699</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>118714718</v>
       </c>
@@ -4978,7 +5223,7 @@
         <v>7322.0338983050851</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20">
         <v>100027159</v>
       </c>
@@ -5006,7 +5251,7 @@
         <v>244.06779661016947</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <v>102921126</v>
       </c>
@@ -5034,7 +5279,7 @@
         <v>646.3662711864406</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
         <v>102781542</v>
       </c>
@@ -5061,7 +5306,7 @@
         <v>610.16</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="22">
         <v>107220933</v>
       </c>
@@ -5088,7 +5333,7 @@
         <v>1144.07</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="22">
         <v>101967453</v>
       </c>
@@ -5115,7 +5360,7 @@
         <v>11593.22</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="22">
         <v>111401091</v>
       </c>
@@ -5142,7 +5387,7 @@
         <v>7932.2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
         <v>101411885</v>
       </c>
@@ -5169,7 +5414,7 @@
         <v>320.33999999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="22">
         <v>107343569</v>
       </c>
@@ -5196,7 +5441,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
         <v>102921126</v>
       </c>
@@ -5223,7 +5468,7 @@
         <v>762.71</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
         <v>108737829</v>
       </c>
@@ -5250,7 +5495,7 @@
         <v>27457.63</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
         <v>103750561</v>
       </c>
@@ -5277,7 +5522,7 @@
         <v>183.05</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
         <v>103750561</v>
       </c>
@@ -5304,7 +5549,7 @@
         <v>411.86</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
         <v>103750561</v>
       </c>
@@ -5331,7 +5576,7 @@
         <v>274.58</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
         <v>103750561</v>
       </c>
@@ -5358,7 +5603,7 @@
         <v>701.69</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>102416331</v>
       </c>
@@ -5385,7 +5630,7 @@
         <v>1830.51</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>108737829</v>
       </c>
@@ -5412,14 +5657,14 @@
         <v>53389.83</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="76" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="77"/>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="78"/>
+      <c r="B103" s="83"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="83"/>
+      <c r="E103" s="84"/>
       <c r="F103" s="30">
         <f>SUM(F2:F102)</f>
         <v>4610593.4399999995</v>
@@ -5450,20 +5695,20 @@
       <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.02734375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.4296875" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.27734375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.58203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.76171875" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="10.0859375" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.14453125" style="38"/>
-    <col min="9" max="16384" width="9.14453125" style="32"/>
+    <col min="1" max="1" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="38"/>
+    <col min="9" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5489,7 +5734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>102181072</v>
       </c>
@@ -5517,7 +5762,7 @@
         <v>961.01694915254234</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>102781542</v>
       </c>
@@ -5545,7 +5790,7 @@
         <v>44084.745762711864</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>102730249</v>
       </c>
@@ -5573,7 +5818,7 @@
         <v>15254.237288135591</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>111679514</v>
       </c>
@@ -5601,7 +5846,7 @@
         <v>4728.8135593220341</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>103606486</v>
       </c>
@@ -5629,7 +5874,7 @@
         <v>1830.5084745762713</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>102246990</v>
       </c>
@@ -5657,7 +5902,7 @@
         <v>1128.8135593220338</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>102246990</v>
       </c>
@@ -5685,7 +5930,7 @@
         <v>1128.8135593220338</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>101506622</v>
       </c>
@@ -5713,7 +5958,7 @@
         <v>2440.6779661016949</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>102781542</v>
       </c>
@@ -5741,7 +5986,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>101527570</v>
       </c>
@@ -5769,7 +6014,7 @@
         <v>838.98305084745755</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>101411885</v>
       </c>
@@ -5797,7 +6042,7 @@
         <v>457.62711864406782</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>106286070</v>
       </c>
@@ -5825,7 +6070,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>113331235</v>
       </c>
@@ -5853,7 +6098,7 @@
         <v>1662.7118644067796</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>101506622</v>
       </c>
@@ -5881,7 +6126,7 @@
         <v>2440.6779661016949</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>101506622</v>
       </c>
@@ -5909,7 +6154,7 @@
         <v>2440.6779661016949</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>107369906</v>
       </c>
@@ -5937,7 +6182,7 @@
         <v>45762.711864406781</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>107972890</v>
       </c>
@@ -5965,7 +6210,7 @@
         <v>1144.0677966101696</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>107343569</v>
       </c>
@@ -5993,7 +6238,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>101526614</v>
       </c>
@@ -6020,7 +6265,7 @@
         <v>2745.76</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>103680774</v>
       </c>
@@ -6048,7 +6293,7 @@
         <v>7627.1186440677957</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>119618745</v>
       </c>
@@ -6076,7 +6321,7 @@
         <v>3355.9322033898302</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>102781542</v>
       </c>
@@ -6104,7 +6349,7 @@
         <v>29181.355932203391</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>102808467</v>
       </c>
@@ -6132,7 +6377,7 @@
         <v>610.16949152542372</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>101912599</v>
       </c>
@@ -6160,7 +6405,7 @@
         <v>2745.7627118644068</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>106286070</v>
       </c>
@@ -6188,7 +6433,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>100014220</v>
       </c>
@@ -6216,7 +6461,7 @@
         <v>10372.881355932204</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>102633790</v>
       </c>
@@ -6244,7 +6489,7 @@
         <v>762.71186440677968</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>101411885</v>
       </c>
@@ -6272,7 +6517,7 @@
         <v>320.33898305084745</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>103372638</v>
       </c>
@@ -6300,7 +6545,7 @@
         <v>30508.474576271183</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>103680774</v>
       </c>
@@ -6328,7 +6573,7 @@
         <v>9152.5423728813566</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>102181072</v>
       </c>
@@ -6356,7 +6601,7 @@
         <v>793.22033898305074</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>106286070</v>
       </c>
@@ -6384,7 +6629,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>102505180</v>
       </c>
@@ -6412,7 +6657,7 @@
         <v>3935.593220338983</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>102039854</v>
       </c>
@@ -6440,7 +6685,7 @@
         <v>1830.5084745762713</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>101411885</v>
       </c>
@@ -6468,7 +6713,7 @@
         <v>594.91525423728808</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>100027159</v>
       </c>
@@ -6496,7 +6741,7 @@
         <v>1296.6101694915255</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>103387177</v>
       </c>
@@ -6524,7 +6769,7 @@
         <v>5338.983050847457</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>101506622</v>
       </c>
@@ -6552,7 +6797,7 @@
         <v>1128.8135593220338</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>101887556</v>
       </c>
@@ -6580,7 +6825,7 @@
         <v>2185920</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>102077681</v>
       </c>
@@ -6608,7 +6853,7 @@
         <v>9762.7118644067796</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>102781542</v>
       </c>
@@ -6636,7 +6881,7 @@
         <v>45335.593220338982</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>102781542</v>
       </c>
@@ -6664,7 +6909,7 @@
         <v>15795.762711864407</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>102213906</v>
       </c>
@@ -6692,7 +6937,7 @@
         <v>22881.355932203391</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>107167198</v>
       </c>
@@ -6720,7 +6965,7 @@
         <v>9884.7457627118638</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>101811557</v>
       </c>
@@ -6748,7 +6993,7 @@
         <v>762.71186440677968</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>102181072</v>
       </c>
@@ -6776,7 +7021,7 @@
         <v>2089.8305084745762</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>102089702</v>
       </c>
@@ -6804,7 +7049,7 @@
         <v>1525.4237288135594</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>102921126</v>
       </c>
@@ -6832,7 +7077,7 @@
         <v>762.71186440677968</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>102311214</v>
       </c>
@@ -6860,7 +7105,7 @@
         <v>2135.593220338983</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>100537148</v>
       </c>
@@ -6887,7 +7132,7 @@
         <v>488.14</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>102089688</v>
       </c>
@@ -6915,7 +7160,7 @@
         <v>5644.0677966101694</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47">
         <v>102776375</v>
       </c>
@@ -6943,7 +7188,7 @@
         <v>2745.7627118644068</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>102781542</v>
       </c>
@@ -6971,7 +7216,7 @@
         <v>19876.271186440677</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>101506622</v>
       </c>
@@ -6999,7 +7244,7 @@
         <v>1128.8135593220338</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>101912599</v>
       </c>
@@ -7027,7 +7272,7 @@
         <v>3050.8474576271187</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>106833563</v>
       </c>
@@ -7055,7 +7300,7 @@
         <v>2745.7627118644068</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>102781542</v>
       </c>
@@ -7083,7 +7328,7 @@
         <v>49164.406779661018</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>102216880</v>
       </c>
@@ -7111,7 +7356,7 @@
         <v>838.98305084745755</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>107124183</v>
       </c>
@@ -7139,7 +7384,7 @@
         <v>6406.7796610169498</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>101527570</v>
       </c>
@@ -7167,7 +7412,7 @@
         <v>838.98305084745755</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>111552217</v>
       </c>
@@ -7195,7 +7440,7 @@
         <v>3049.6271186440677</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>111850097</v>
       </c>
@@ -7223,7 +7468,7 @@
         <v>10067.796610169491</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>102089702</v>
       </c>
@@ -7251,7 +7496,7 @@
         <v>3050.8474576271187</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>102545726</v>
       </c>
@@ -7279,7 +7524,7 @@
         <v>625.42372881355936</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>113472758</v>
       </c>
@@ -7307,7 +7552,7 @@
         <v>7550.8474576271183</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>100537148</v>
       </c>
@@ -7335,7 +7580,7 @@
         <v>488.13559322033893</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>103247042</v>
       </c>
@@ -7363,7 +7608,7 @@
         <v>4805.0847457627115</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>106286070</v>
       </c>
@@ -7391,7 +7636,7 @@
         <v>2669.4915254237285</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>119789715</v>
       </c>
@@ -7419,7 +7664,7 @@
         <v>366.1016949152542</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>102089688</v>
       </c>
@@ -7447,7 +7692,7 @@
         <v>5338.983050847457</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>101506622</v>
       </c>
@@ -7475,7 +7720,7 @@
         <v>2257.6271186440677</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>103680774</v>
       </c>
@@ -7503,7 +7748,7 @@
         <v>4194.9152542372885</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>102089688</v>
       </c>
@@ -7531,7 +7776,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>102921126</v>
       </c>
@@ -7559,7 +7804,7 @@
         <v>30416.949152542373</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>102181072</v>
       </c>
@@ -7587,7 +7832,7 @@
         <v>1586.4406779661015</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>102781542</v>
       </c>
@@ -7615,7 +7860,7 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>101506622</v>
       </c>
@@ -7643,7 +7888,7 @@
         <v>1128.8135593220338</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>103285815</v>
       </c>
@@ -7671,7 +7916,7 @@
         <v>1525.4176271186438</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>103285815</v>
       </c>
@@ -7699,7 +7944,7 @@
         <v>5338.9800000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>102416331</v>
       </c>
@@ -7727,7 +7972,7 @@
         <v>4576.2711864406783</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>102416331</v>
       </c>
@@ -7755,7 +8000,7 @@
         <v>11166.101694915254</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>101570833</v>
       </c>
@@ -7782,7 +8027,7 @@
         <v>2288.14</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>101506622</v>
       </c>
@@ -7810,7 +8055,7 @@
         <v>2135.593220338983</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>103387177</v>
       </c>
@@ -7838,7 +8083,7 @@
         <v>5338.983050847457</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>102781542</v>
       </c>
@@ -7866,7 +8111,7 @@
         <v>30546.610169491523</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>118714718</v>
       </c>
@@ -7894,7 +8139,7 @@
         <v>12584.745762711862</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>102821016</v>
       </c>
@@ -7922,7 +8167,7 @@
         <v>12676.271186440677</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
         <v>103387177</v>
       </c>
@@ -7950,7 +8195,7 @@
         <v>457.62711864406782</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="48">
         <v>111850097</v>
       </c>
@@ -7978,7 +8223,7 @@
         <v>1372.8813559322034</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <v>102181072</v>
       </c>
@@ -8005,7 +8250,7 @@
         <v>961.02</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <v>101506622</v>
       </c>
@@ -8032,7 +8277,7 @@
         <v>2257.63</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
         <v>100144768</v>
       </c>
@@ -8059,7 +8304,7 @@
         <v>11516.95</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
         <v>119618745</v>
       </c>
@@ -8086,7 +8331,7 @@
         <v>610.16999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <v>101806633</v>
       </c>
@@ -8113,7 +8358,7 @@
         <v>686.44</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <v>101910163</v>
       </c>
@@ -8140,7 +8385,7 @@
         <v>4652.54</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <v>106562632</v>
       </c>
@@ -8167,7 +8412,7 @@
         <v>1525.42</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <v>108526887</v>
       </c>
@@ -8194,7 +8439,7 @@
         <v>3737.29</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <v>102163751</v>
       </c>
@@ -8221,7 +8466,7 @@
         <v>3966.1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <v>101840295</v>
       </c>
@@ -8248,7 +8493,7 @@
         <v>228.81</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <v>101587390</v>
       </c>
@@ -8275,7 +8520,7 @@
         <v>183.05</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
         <v>101061491</v>
       </c>
@@ -8302,7 +8547,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <v>102089688</v>
       </c>
@@ -8329,7 +8574,7 @@
         <v>610.16999999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
         <v>100605187</v>
       </c>
@@ -8356,7 +8601,7 @@
         <v>610.16999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <v>101506622</v>
       </c>
@@ -8383,7 +8628,7 @@
         <v>6544.07</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <v>111850097</v>
       </c>
@@ -8410,7 +8655,7 @@
         <v>5338.99</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
         <v>103247042</v>
       </c>
@@ -8437,7 +8682,7 @@
         <v>2402.54</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
         <v>101585951</v>
       </c>
@@ -8464,7 +8709,7 @@
         <v>53969.63</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
         <v>101585951</v>
       </c>
@@ -8491,7 +8736,7 @@
         <v>26977.22</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
         <v>101587390</v>
       </c>
@@ -8518,14 +8763,14 @@
         <v>366.1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="79" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="80"/>
-      <c r="C111" s="80"/>
-      <c r="D111" s="80"/>
-      <c r="E111" s="81"/>
+      <c r="B111" s="86"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="86"/>
+      <c r="E111" s="87"/>
       <c r="F111" s="36">
         <f>SUM(F2:F110)</f>
         <v>19489307.029999997</v>
@@ -8556,20 +8801,20 @@
       <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.02734375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.4296875" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.27734375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.65625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.76171875" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="10.0859375" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.14453125" style="38"/>
-    <col min="9" max="16384" width="9.14453125" style="32"/>
+    <col min="1" max="1" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="38"/>
+    <col min="9" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -8595,7 +8840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>101986294</v>
       </c>
@@ -8623,7 +8868,7 @@
         <v>12203.389830508475</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>106377841</v>
       </c>
@@ -8651,7 +8896,7 @@
         <v>2593.2203389830511</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>106377841</v>
       </c>
@@ -8679,7 +8924,7 @@
         <v>4423.7288135593217</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>101506622</v>
       </c>
@@ -8707,7 +8952,7 @@
         <v>2150.8474576271187</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>102246990</v>
       </c>
@@ -8735,7 +8980,7 @@
         <v>4103.3898305084749</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>103387177</v>
       </c>
@@ -8763,7 +9008,7 @@
         <v>4881.3437288135592</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>103606486</v>
       </c>
@@ -8791,7 +9036,7 @@
         <v>2089.8305084745762</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>103387177</v>
       </c>
@@ -8819,7 +9064,7 @@
         <v>4576.2711864406783</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>102416331</v>
       </c>
@@ -8847,7 +9092,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>106286070</v>
       </c>
@@ -8875,7 +9120,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>101887556</v>
       </c>
@@ -8903,7 +9148,7 @@
         <v>1092960</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>102416331</v>
       </c>
@@ -8931,7 +9176,7 @@
         <v>11440.677966101695</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>102181072</v>
       </c>
@@ -8959,7 +9204,7 @@
         <v>1861.0169491525421</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>103372638</v>
       </c>
@@ -8986,7 +9231,7 @@
         <v>15215.57</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>102181072</v>
       </c>
@@ -9014,7 +9259,7 @@
         <v>793.22033898305074</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>101506622</v>
       </c>
@@ -9042,7 +9287,7 @@
         <v>4591.5254237288136</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>101506622</v>
       </c>
@@ -9070,7 +9315,7 @@
         <v>2257.6271186440677</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>101587911</v>
       </c>
@@ -9098,7 +9343,7 @@
         <v>5793.5593220338978</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>118692990</v>
       </c>
@@ -9126,7 +9371,7 @@
         <v>945.7627118644067</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>102781542</v>
       </c>
@@ -9154,7 +9399,7 @@
         <v>11654.237288135593</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>107643300</v>
       </c>
@@ -9182,7 +9427,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>103150475</v>
       </c>
@@ -9210,7 +9455,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>102781542</v>
       </c>
@@ -9238,7 +9483,7 @@
         <v>52550.847457627118</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>102181072</v>
       </c>
@@ -9266,7 +9511,7 @@
         <v>2806.7796610169489</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>103372638</v>
       </c>
@@ -9294,7 +9539,7 @@
         <v>38038.928644067797</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>103387177</v>
       </c>
@@ -9322,7 +9567,7 @@
         <v>5338.983050847457</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>119553030</v>
       </c>
@@ -9350,7 +9595,7 @@
         <v>5338.983050847457</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>119553030</v>
       </c>
@@ -9378,7 +9623,7 @@
         <v>10677.966101694914</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>101506622</v>
       </c>
@@ -9406,7 +9651,7 @@
         <v>5232.2033898305081</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>103387177</v>
       </c>
@@ -9434,7 +9679,7 @@
         <v>4881.3559322033898</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>102181072</v>
       </c>
@@ -9462,7 +9707,7 @@
         <v>610.16949152542372</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>103150475</v>
       </c>
@@ -9490,7 +9735,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>102781542</v>
       </c>
@@ -9518,7 +9763,7 @@
         <v>9823.7288135593226</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>102781542</v>
       </c>
@@ -9546,7 +9791,7 @@
         <v>37288.983050847455</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>103387177</v>
       </c>
@@ -9574,7 +9819,7 @@
         <v>4881.3559322033898</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>101346738</v>
       </c>
@@ -9602,7 +9847,7 @@
         <v>1525.4237288135594</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>103112648</v>
       </c>
@@ -9630,7 +9875,7 @@
         <v>5338.983050847457</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>101506622</v>
       </c>
@@ -9658,7 +9903,7 @@
         <v>1845.7627118644068</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>108173992</v>
       </c>
@@ -9686,7 +9931,7 @@
         <v>1677.9661016949151</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>101506622</v>
       </c>
@@ -9714,7 +9959,7 @@
         <v>2257.6271186440677</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>101998283</v>
       </c>
@@ -9742,7 +9987,7 @@
         <v>1250.8474576271187</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>103468675</v>
       </c>
@@ -9770,7 +10015,7 @@
         <v>7627.1186440677957</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>106511429</v>
       </c>
@@ -9797,7 +10042,7 @@
         <v>7169.49</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>101506622</v>
       </c>
@@ -9825,7 +10070,7 @@
         <v>6864.4067796610161</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>102246990</v>
       </c>
@@ -9853,7 +10098,7 @@
         <v>1677.9661016949151</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>103386408</v>
       </c>
@@ -9881,7 +10126,7 @@
         <v>1830.5084745762713</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>102231856</v>
       </c>
@@ -9909,7 +10154,7 @@
         <v>686.4406779661017</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>103150475</v>
       </c>
@@ -9937,7 +10182,7 @@
         <v>3813.5593220338978</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>102416331</v>
       </c>
@@ -9965,7 +10210,7 @@
         <v>2745.7627118644068</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>102416331</v>
       </c>
@@ -9992,7 +10237,7 @@
         <v>4393.22</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>101506622</v>
       </c>
@@ -10020,7 +10265,7 @@
         <v>5827.1186440677966</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>101967453</v>
       </c>
@@ -10048,7 +10293,7 @@
         <v>7077.9661016949149</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>102730249</v>
       </c>
@@ -10076,7 +10321,7 @@
         <v>6864.4067796610161</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>102181072</v>
       </c>
@@ -10104,7 +10349,7 @@
         <v>2806.7796610169489</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>102781542</v>
       </c>
@@ -10132,7 +10377,7 @@
         <v>43322.033898305082</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>102781542</v>
       </c>
@@ -10160,7 +10405,7 @@
         <v>48729.661016949147</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>101546434</v>
       </c>
@@ -10188,7 +10433,7 @@
         <v>610.16949152542372</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>101506622</v>
       </c>
@@ -10216,7 +10461,7 @@
         <v>2440.6779661016949</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>103370539</v>
       </c>
@@ -10244,7 +10489,7 @@
         <v>18153.899999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>101912599</v>
       </c>
@@ -10271,7 +10516,7 @@
         <v>3432.21</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>102781542</v>
       </c>
@@ -10299,7 +10544,7 @@
         <v>59827.118644067799</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>101587390</v>
       </c>
@@ -10327,7 +10572,7 @@
         <v>823.72881355932202</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>119098861</v>
       </c>
@@ -10355,7 +10600,7 @@
         <v>3813.5593220338978</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>107654416</v>
       </c>
@@ -10383,7 +10628,7 @@
         <v>915.25423728813564</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>119098861</v>
       </c>
@@ -10411,7 +10656,7 @@
         <v>152.54237288135593</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>102089702</v>
       </c>
@@ -10439,7 +10684,7 @@
         <v>3050.8474576271187</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>102246990</v>
       </c>
@@ -10467,7 +10712,7 @@
         <v>3523.7288135593217</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>102246990</v>
       </c>
@@ -10495,7 +10740,7 @@
         <v>5529.6610169491523</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>106286070</v>
       </c>
@@ -10523,7 +10768,7 @@
         <v>3050.8474576271187</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>103606486</v>
       </c>
@@ -10551,7 +10796,7 @@
         <v>1403.3898305084745</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>101506622</v>
       </c>
@@ -10579,7 +10824,7 @@
         <v>3386.4406779661017</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>102246990</v>
       </c>
@@ -10607,7 +10852,7 @@
         <v>2257.6271186440677</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>103606486</v>
       </c>
@@ -10635,7 +10880,7 @@
         <v>1830.5084745762713</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>102781542</v>
       </c>
@@ -10663,7 +10908,7 @@
         <v>33864.406779661018</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>111615104</v>
       </c>
@@ -10691,7 +10936,7 @@
         <v>1372.8815999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>106286070</v>
       </c>
@@ -10719,7 +10964,7 @@
         <v>381.35519999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>106286070</v>
       </c>
@@ -10747,7 +10992,7 @@
         <v>381.35519999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>101585951</v>
       </c>
@@ -10775,7 +11020,7 @@
         <v>35969.626799999998</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>101526614</v>
       </c>
@@ -10803,7 +11048,7 @@
         <v>3966.1020000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>101587390</v>
       </c>
@@ -10830,7 +11075,7 @@
         <v>1128.81</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>102213906</v>
       </c>
@@ -10858,7 +11103,7 @@
         <v>22881.355199999998</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>103112648</v>
       </c>
@@ -10886,7 +11131,7 @@
         <v>4957.6265999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>106286070</v>
       </c>
@@ -10914,7 +11159,7 @@
         <v>762.71219999999994</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>100144768</v>
       </c>
@@ -10942,7 +11187,7 @@
         <v>6788.1365999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>102246990</v>
       </c>
@@ -10970,7 +11215,7 @@
         <v>2257.6266000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>103372638</v>
       </c>
@@ -10997,7 +11242,7 @@
         <v>7607.79</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>100842112</v>
       </c>
@@ -11025,14 +11270,14 @@
         <v>4194.9144000000006</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="79" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="81"/>
+      <c r="B89" s="86"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="86"/>
+      <c r="E89" s="87"/>
       <c r="F89" s="36">
         <f>SUM(F2:F88)</f>
         <v>11655926.054400004</v>
@@ -11063,20 +11308,20 @@
       <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.02734375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.953125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.27734375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.65625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.76171875" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="10.0859375" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.14453125" style="38"/>
-    <col min="9" max="16384" width="9.14453125" style="32"/>
+    <col min="1" max="1" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="38"/>
+    <col min="9" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -11102,7 +11347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>102181072</v>
       </c>
@@ -11129,7 +11374,7 @@
         <v>793.2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>103372638</v>
       </c>
@@ -11157,7 +11402,7 @@
         <v>45646.714067796609</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>101506622</v>
       </c>
@@ -11185,7 +11430,7 @@
         <v>2257.6271186440677</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>119553030</v>
       </c>
@@ -11213,7 +11458,7 @@
         <v>4576.2711864406783</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>101887556</v>
       </c>
@@ -11241,7 +11486,7 @@
         <v>1092960</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>103387177</v>
       </c>
@@ -11269,7 +11514,7 @@
         <v>457.62711864406782</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>103719433</v>
       </c>
@@ -11297,7 +11542,7 @@
         <v>3661.0169491525426</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>102781542</v>
       </c>
@@ -11325,7 +11570,7 @@
         <v>42055.932203389828</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>102781542</v>
       </c>
@@ -11353,7 +11598,7 @@
         <v>33605.08474576271</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>102781542</v>
       </c>
@@ -11381,7 +11626,7 @@
         <v>1830.5084745762713</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>102781542</v>
       </c>
@@ -11409,7 +11654,7 @@
         <v>33803.389830508473</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>118739741</v>
       </c>
@@ -11437,7 +11682,7 @@
         <v>3889.8305084745762</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>102181072</v>
       </c>
@@ -11464,7 +11709,7 @@
         <v>1677.95</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>102246990</v>
       </c>
@@ -11492,7 +11737,7 @@
         <v>2257.6271186440677</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>101546434</v>
       </c>
@@ -11520,7 +11765,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>101585951</v>
       </c>
@@ -11548,7 +11793,7 @@
         <v>35969.491525423728</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>101506622</v>
       </c>
@@ -11576,7 +11821,7 @@
         <v>2974.5762711864404</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>102181072</v>
       </c>
@@ -11603,7 +11848,7 @@
         <v>2440.6999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>102781542</v>
       </c>
@@ -11631,7 +11876,7 @@
         <v>29669.491525423724</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>111601197</v>
       </c>
@@ -11659,7 +11904,7 @@
         <v>8389.8305084745771</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>100846084</v>
       </c>
@@ -11687,7 +11932,7 @@
         <v>9961.0169491525412</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>107654416</v>
       </c>
@@ -11715,7 +11960,7 @@
         <v>17420.338983050846</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>107531579</v>
       </c>
@@ -11743,7 +11988,7 @@
         <v>2135.593220338983</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>107531579</v>
       </c>
@@ -11771,7 +12016,7 @@
         <v>4271.1864406779659</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>106415852</v>
       </c>
@@ -11799,7 +12044,7 @@
         <v>686.4406779661017</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>111967405</v>
       </c>
@@ -11827,7 +12072,7 @@
         <v>1144.0677966101696</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>107343569</v>
       </c>
@@ -11855,7 +12100,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>103387177</v>
       </c>
@@ -11883,7 +12128,7 @@
         <v>457.62711864406782</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>100027159</v>
       </c>
@@ -11911,7 +12156,7 @@
         <v>335.59322033898303</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>102609359</v>
       </c>
@@ -11939,7 +12184,7 @@
         <v>1906.7796610169489</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>100971981</v>
       </c>
@@ -11967,7 +12212,7 @@
         <v>1525.4237288135594</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>102781542</v>
       </c>
@@ -11995,7 +12240,7 @@
         <v>33894.91525423729</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>106286070</v>
       </c>
@@ -12023,7 +12268,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>102181072</v>
       </c>
@@ -12051,7 +12296,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>101546434</v>
       </c>
@@ -12079,7 +12324,7 @@
         <v>1144.0677966101696</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>101526614</v>
       </c>
@@ -12107,7 +12352,7 @@
         <v>3966.101694915254</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>100144768</v>
       </c>
@@ -12135,7 +12380,7 @@
         <v>2242.3728813559323</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>102213906</v>
       </c>
@@ -12163,7 +12408,7 @@
         <v>28983.050847457624</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>102565074</v>
       </c>
@@ -12191,7 +12436,7 @@
         <v>320.33898305084745</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>103584675</v>
       </c>
@@ -12219,7 +12464,7 @@
         <v>6864.4067796610161</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>102645900</v>
       </c>
@@ -12247,7 +12492,7 @@
         <v>305.08474576271186</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>101546434</v>
       </c>
@@ -12275,7 +12520,7 @@
         <v>4576.2711864406783</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>106286070</v>
       </c>
@@ -12303,7 +12548,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>113331235</v>
       </c>
@@ -12331,7 +12576,7 @@
         <v>1830.5084745762713</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>101506622</v>
       </c>
@@ -12359,7 +12604,7 @@
         <v>4591.5254237288136</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>102635415</v>
       </c>
@@ -12387,7 +12632,7 @@
         <v>2074.5762711864404</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>101806633</v>
       </c>
@@ -12415,7 +12660,7 @@
         <v>106.77966101694915</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>102781542</v>
       </c>
@@ -12443,7 +12688,7 @@
         <v>17954.237288135591</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>103370539</v>
       </c>
@@ -12471,7 +12716,7 @@
         <v>17680.32</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>103372638</v>
       </c>
@@ -12499,7 +12744,7 @@
         <v>45646.714067796609</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>102181072</v>
       </c>
@@ -12527,7 +12772,7 @@
         <v>793.22033898305074</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>103387177</v>
       </c>
@@ -12555,7 +12800,7 @@
         <v>4118.6440677966102</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>101506622</v>
       </c>
@@ -12583,7 +12828,7 @@
         <v>4286.4406779661022</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>102181072</v>
       </c>
@@ -12611,7 +12856,7 @@
         <v>3264.4067796610166</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>102181072</v>
       </c>
@@ -12639,7 +12884,7 @@
         <v>228.81355932203391</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>102781542</v>
       </c>
@@ -12667,7 +12912,7 @@
         <v>15437.28813559322</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>119622565</v>
       </c>
@@ -12695,7 +12940,7 @@
         <v>4805.0847457627115</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>103170882</v>
       </c>
@@ -12723,7 +12968,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>106286070</v>
       </c>
@@ -12751,7 +12996,7 @@
         <v>381.35593220338984</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>103719433</v>
       </c>
@@ -12779,7 +13024,7 @@
         <v>701.69491525423723</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>111601197</v>
       </c>
@@ -12807,7 +13052,7 @@
         <v>8389.8305084745771</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>100948383</v>
       </c>
@@ -12835,7 +13080,7 @@
         <v>5125.4237288135591</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>102163751</v>
       </c>
@@ -12863,7 +13108,7 @@
         <v>18305.084745762713</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>101587390</v>
       </c>
@@ -12891,7 +13136,7 @@
         <v>701.69491525423723</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>100948383</v>
       </c>
@@ -12919,7 +13164,7 @@
         <v>7871.1864406779659</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>102181072</v>
       </c>
@@ -12947,7 +13192,7 @@
         <v>3508.4745762711864</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>102781542</v>
       </c>
@@ -12975,7 +13220,7 @@
         <v>41277.966101694918</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="64">
         <v>101979213</v>
       </c>
@@ -13003,7 +13248,7 @@
         <v>3050.8474576271187</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>119622565</v>
       </c>
@@ -13031,7 +13276,7 @@
         <v>2135.593220338983</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>102416331</v>
       </c>
@@ -13059,7 +13304,7 @@
         <v>152.54237288135593</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>101973284</v>
       </c>
@@ -13087,7 +13332,7 @@
         <v>610.16949152542372</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>111601197</v>
       </c>
@@ -13115,7 +13360,7 @@
         <v>8389.8305084745771</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>100948383</v>
       </c>
@@ -13143,7 +13388,7 @@
         <v>6833.8983050847455</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>102781542</v>
       </c>
@@ -13171,7 +13416,7 @@
         <v>37250.847457627118</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>100144768</v>
       </c>
@@ -13199,7 +13444,7 @@
         <v>9030.5084745762706</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>101546434</v>
       </c>
@@ -13227,7 +13472,7 @@
         <v>1144.0677966101696</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>102997974</v>
       </c>
@@ -13255,7 +13500,7 @@
         <v>53389.830508474581</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>109187111</v>
       </c>
@@ -13283,7 +13528,7 @@
         <v>137288.13559322033</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="57">
         <v>101998283</v>
       </c>
@@ -13311,7 +13556,7 @@
         <v>610.1694</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="57">
         <v>102246990</v>
       </c>
@@ -13339,7 +13584,7 @@
         <v>3386.4408000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <v>106286070</v>
       </c>
@@ -13367,7 +13612,7 @@
         <v>381.35519999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>102921126</v>
       </c>
@@ -13395,7 +13640,7 @@
         <v>457.62659999999994</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <v>102645900</v>
       </c>
@@ -13422,7 +13667,7 @@
         <v>4118.6400000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <v>102565074</v>
       </c>
@@ -13450,7 +13695,7 @@
         <v>1220.3388</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
         <v>111601197</v>
       </c>
@@ -13478,7 +13723,7 @@
         <v>8389.8305999999993</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <v>100451874</v>
       </c>
@@ -13506,7 +13751,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
         <v>100451874</v>
       </c>
@@ -13534,7 +13779,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
         <v>106286070</v>
       </c>
@@ -13562,7 +13807,7 @@
         <v>381.35519999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <v>101973284</v>
       </c>
@@ -13590,7 +13835,7 @@
         <v>671.18579999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <v>101546434</v>
       </c>
@@ -13618,14 +13863,14 @@
         <v>4271.1858000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="82" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="83"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="84"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="90"/>
       <c r="F92" s="62">
         <f>SUM(F2:F91)</f>
         <v>13315559.443000002</v>
@@ -13650,26 +13895,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H62"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.02734375" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.953125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.27734375" style="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.65625" style="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.76171875" style="69" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="68" customWidth="1"/>
-    <col min="7" max="7" width="10.0859375" style="68" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.14453125" style="68"/>
-    <col min="9" max="16384" width="9.14453125" style="65"/>
+    <col min="1" max="1" width="11" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="68" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="68" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="68"/>
+    <col min="9" max="16384" width="9.140625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -13695,7 +13941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="71" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>102565074</v>
       </c>
@@ -13723,7 +13969,7 @@
         <v>152.54237288135593</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="71" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>107428066</v>
       </c>
@@ -13751,7 +13997,7 @@
         <v>762.71186440677968</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="71" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>107428066</v>
       </c>
@@ -13779,7 +14025,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="71" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>107428066</v>
       </c>
@@ -13807,7 +14053,7 @@
         <v>1372.8813559322034</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>102181072</v>
       </c>
@@ -13835,7 +14081,7 @@
         <v>9488.1355932203387</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>103308737</v>
       </c>
@@ -13863,7 +14109,7 @@
         <v>610.16949152542372</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>111850097</v>
       </c>
@@ -13891,7 +14137,7 @@
         <v>19067.796610169491</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>101587390</v>
       </c>
@@ -13919,7 +14165,7 @@
         <v>3371.1864406779655</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>101967453</v>
       </c>
@@ -13947,7 +14193,7 @@
         <v>123406.77966101693</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>103387177</v>
       </c>
@@ -13975,7 +14221,7 @@
         <v>4576.2711864406783</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>102781542</v>
       </c>
@@ -14003,7 +14249,7 @@
         <v>33986.4406779661</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>102781542</v>
       </c>
@@ -14031,7 +14277,7 @@
         <v>35267.796610169491</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>103372638</v>
       </c>
@@ -14059,7 +14305,7 @@
         <v>45646.714067796609</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>101887556</v>
       </c>
@@ -14087,7 +14333,7 @@
         <v>1092956.9491525423</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>100948383</v>
       </c>
@@ -14114,7 +14360,7 @@
         <v>8969.49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>111601197</v>
       </c>
@@ -14142,7 +14388,7 @@
         <v>9152.5423728813566</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>108945421</v>
       </c>
@@ -14170,7 +14416,7 @@
         <v>762.71186440677968</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="66">
         <v>102781542</v>
       </c>
@@ -14198,7 +14444,7 @@
         <v>27381.355932203391</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>102213906</v>
       </c>
@@ -14226,7 +14472,7 @@
         <v>34322.033898305082</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>111601197</v>
       </c>
@@ -14254,7 +14500,7 @@
         <v>10067.796610169491</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>119622565</v>
       </c>
@@ -14282,7 +14528,7 @@
         <v>4271.1864406779659</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>100948383</v>
       </c>
@@ -14310,7 +14556,7 @@
         <v>2562.7118644067796</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>106721065</v>
       </c>
@@ -14338,7 +14584,7 @@
         <v>961.01694915254234</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>100948383</v>
       </c>
@@ -14366,7 +14612,7 @@
         <v>9610.1694915254229</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>102416331</v>
       </c>
@@ -14394,7 +14640,7 @@
         <v>854.23728813559319</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>100948383</v>
       </c>
@@ -14422,7 +14668,7 @@
         <v>2898.3050847457625</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>102781542</v>
       </c>
@@ -14450,7 +14696,7 @@
         <v>30066.101694915254</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>101967453</v>
       </c>
@@ -14478,7 +14724,7 @@
         <v>89389.830508474581</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>100948383</v>
       </c>
@@ -14506,7 +14752,7 @@
         <v>10403.389830508475</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>100948383</v>
       </c>
@@ -14534,7 +14780,7 @@
         <v>2898.3050847457625</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>102781542</v>
       </c>
@@ -14562,7 +14808,7 @@
         <v>46372.881355932201</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>111601197</v>
       </c>
@@ -14590,7 +14836,7 @@
         <v>20745.762711864409</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>102181072</v>
       </c>
@@ -14618,7 +14864,7 @@
         <v>4149.1525423728808</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="67">
         <v>102781542</v>
       </c>
@@ -14646,7 +14892,7 @@
         <v>56486.4406779661</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>101411885</v>
       </c>
@@ -14674,7 +14920,7 @@
         <v>915.25423728813564</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>101526614</v>
       </c>
@@ -14702,7 +14948,7 @@
         <v>3966.101694915254</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>103370539</v>
       </c>
@@ -14730,7 +14976,7 @@
         <v>16271.099999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>103532661</v>
       </c>
@@ -14758,7 +15004,7 @@
         <v>2288.1355932203392</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>103532661</v>
       </c>
@@ -14786,7 +15032,7 @@
         <v>4576.2711864406783</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>103387177</v>
       </c>
@@ -14814,7 +15060,7 @@
         <v>4576.2711864406783</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>102781542</v>
       </c>
@@ -14842,7 +15088,7 @@
         <v>48340.677966101699</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>100144768</v>
       </c>
@@ -14870,7 +15116,7 @@
         <v>9030.5084745762706</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>101411885</v>
       </c>
@@ -14898,7 +15144,7 @@
         <v>457.62711864406782</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>103017995</v>
       </c>
@@ -14926,7 +15172,7 @@
         <v>11135.593220338982</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>107124183</v>
       </c>
@@ -14954,7 +15200,7 @@
         <v>1525.4237288135594</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>103372638</v>
       </c>
@@ -14982,7 +15228,7 @@
         <v>91293.428135593218</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>111967405</v>
       </c>
@@ -15010,7 +15256,7 @@
         <v>3844.0677966101694</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>102465861</v>
       </c>
@@ -15038,7 +15284,7 @@
         <v>3050.8474576271187</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>101967453</v>
       </c>
@@ -15066,7 +15312,7 @@
         <v>10220.338983050848</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>101585951</v>
       </c>
@@ -15094,7 +15340,7 @@
         <v>35969.627288135591</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>102996579</v>
       </c>
@@ -15121,7 +15367,7 @@
         <v>259.32</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>101546434</v>
       </c>
@@ -15148,7 +15394,7 @@
         <v>762.71</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>111967405</v>
       </c>
@@ -15175,7 +15421,7 @@
         <v>1144.07</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>120260665</v>
       </c>
@@ -15202,7 +15448,7 @@
         <v>1906.78</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>106286070</v>
       </c>
@@ -15229,7 +15475,7 @@
         <v>381.36</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>103606486</v>
       </c>
@@ -15256,7 +15502,7 @@
         <v>1830.51</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="67">
         <v>119622565</v>
       </c>
@@ -15283,7 +15529,7 @@
         <v>2135.59</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="67">
         <v>119622565</v>
       </c>
@@ -15310,7 +15556,7 @@
         <v>2135.59</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="67">
         <v>107428066</v>
       </c>
@@ -15337,7 +15583,7 @@
         <v>686.44</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="67">
         <v>120260665</v>
       </c>
@@ -15364,14 +15610,14 @@
         <v>2288.14</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="85" t="s">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="87"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="93"/>
       <c r="F62" s="62">
         <f>SUM(F6:F61)</f>
         <v>13108722.65</v>
@@ -15385,12 +15631,1946 @@
         <v>2001695.4457627125</v>
       </c>
     </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:H71" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:H71" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="QUICK STAR SERVICE RWANDA LTD"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A62:E62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807A571D-A566-4BA5-B336-2F5F7C7C55BE}">
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="68" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="68" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="68"/>
+    <col min="9" max="16384" width="9.140625" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34">
+        <v>102781542</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="E2" s="35">
+        <v>44743</v>
+      </c>
+      <c r="F2" s="4">
+        <v>170700</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" ref="G2:G39" si="0">F2*100/118</f>
+        <v>144661.01694915254</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H39" si="1">G2*18%</f>
+        <v>26038.983050847459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34">
+        <v>101411885</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>614</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>615</v>
+      </c>
+      <c r="E3" s="35">
+        <v>44743</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="0"/>
+        <v>2542.3728813559323</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="1"/>
+        <v>457.62711864406782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
+        <v>102181072</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="E4" s="35">
+        <v>44743</v>
+      </c>
+      <c r="F4" s="4">
+        <v>38100</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>32288.135593220341</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="1"/>
+        <v>5811.8644067796613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
+        <v>107428066</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>553</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="E5" s="35">
+        <v>44743</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>1694.9152542372881</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="1"/>
+        <v>305.08474576271186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>101506622</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E6" s="24">
+        <v>44744</v>
+      </c>
+      <c r="F6" s="3">
+        <v>25700</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>21779.661016949154</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>3920.3389830508477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
+        <v>101506622</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E7" s="35">
+        <v>44746</v>
+      </c>
+      <c r="F7" s="4">
+        <v>9200</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>7796.6101694915251</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>1403.3898305084745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>101506622</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E8" s="35">
+        <v>44746</v>
+      </c>
+      <c r="F8" s="3">
+        <v>32200</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>27288.135593220341</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>4911.8644067796613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>102781542</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E9" s="24">
+        <v>44746</v>
+      </c>
+      <c r="F9" s="3">
+        <v>146800</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>124406.77966101695</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>22393.22033898305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>101546434</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E10" s="24">
+        <v>44747</v>
+      </c>
+      <c r="F10" s="3">
+        <v>24000</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>20338.983050847459</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>3661.0169491525426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>101887556</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E11" s="24">
+        <v>44749</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7164960</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>6072000</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>1092960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>102781542</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E12" s="24">
+        <v>44749</v>
+      </c>
+      <c r="F12" s="3">
+        <v>193300</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>163813.55932203389</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>29486.4406779661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>113472758</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E13" s="24">
+        <v>44750</v>
+      </c>
+      <c r="F13" s="3">
+        <v>37200</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>31525.423728813559</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>5674.5762711864409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>119631506</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E14" s="24">
+        <v>44750</v>
+      </c>
+      <c r="F14" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>18644.067796610168</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>3355.9322033898302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>106286070</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E15" s="24">
+        <v>44753</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>4237.2881355932204</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>762.71186440677968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>102781542</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E16" s="24">
+        <v>44753</v>
+      </c>
+      <c r="F16" s="3">
+        <v>196900</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>166864.40677966102</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>30035.593220338982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>106467890</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E17" s="24">
+        <v>44754</v>
+      </c>
+      <c r="F17" s="3">
+        <v>140000</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>118644.06779661016</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>21355.932203389828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>101587390</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="E18" s="26">
+        <v>44755</v>
+      </c>
+      <c r="F18" s="18">
+        <v>2300</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="0"/>
+        <v>1949.1525423728813</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="1"/>
+        <v>350.84745762711862</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="66">
+        <v>102053598</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E19" s="24">
+        <v>44755</v>
+      </c>
+      <c r="F19" s="3">
+        <v>8568</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>7261.0169491525421</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>1306.9830508474574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>102645900</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E20" s="24">
+        <v>44755</v>
+      </c>
+      <c r="F20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G20" s="3">
+        <f>F20*100/118</f>
+        <v>11016.949152542373</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>1983.050847457627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>106695328</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E21" s="24">
+        <v>44755</v>
+      </c>
+      <c r="F21" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G21" s="3">
+        <f>F21*100/118</f>
+        <v>9152.5423728813566</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>1647.457627118644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>100948383</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E22" s="24">
+        <v>44755</v>
+      </c>
+      <c r="F22" s="3">
+        <v>41200</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>34915.254237288136</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>6284.7457627118647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>110388298</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E23" s="24">
+        <v>44756</v>
+      </c>
+      <c r="F23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>8474.5762711864409</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>1525.4237288135594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>100948383</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E24" s="24">
+        <v>44756</v>
+      </c>
+      <c r="F24" s="3">
+        <v>30100</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>25508.474576271186</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>4591.5254237288136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>107428066</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="E25" s="26">
+        <v>44756</v>
+      </c>
+      <c r="F25" s="18">
+        <v>8000</v>
+      </c>
+      <c r="G25" s="18">
+        <f t="shared" si="0"/>
+        <v>6779.6610169491523</v>
+      </c>
+      <c r="H25" s="18">
+        <f t="shared" si="1"/>
+        <v>1220.3389830508474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>100007485</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E26" s="24">
+        <v>44756</v>
+      </c>
+      <c r="F26" s="3">
+        <v>114000</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>96610.169491525419</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>17389.830508474573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>102781542</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E27" s="24">
+        <v>44756</v>
+      </c>
+      <c r="F27" s="3">
+        <v>183900</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>155847.45762711865</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="1"/>
+        <v>28052.542372881355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>111601197</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E28" s="24">
+        <v>44757</v>
+      </c>
+      <c r="F28" s="3">
+        <v>136000</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>115254.2372881356</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
+        <v>20745.762711864409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>111601197</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E29" s="24">
+        <v>44757</v>
+      </c>
+      <c r="F29" s="3">
+        <v>153000</v>
+      </c>
+      <c r="G29" s="3">
+        <f>F29*100/118</f>
+        <v>129661.01694915254</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="1"/>
+        <v>23338.983050847459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>106286070</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E30" s="24">
+        <v>44757</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>2118.6440677966102</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="1"/>
+        <v>381.35593220338984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="76">
+        <v>102181072</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="76" t="s">
+        <v>649</v>
+      </c>
+      <c r="E31" s="78">
+        <v>44757</v>
+      </c>
+      <c r="F31" s="79">
+        <v>22000</v>
+      </c>
+      <c r="G31" s="79">
+        <f t="shared" si="0"/>
+        <v>18644.067796610168</v>
+      </c>
+      <c r="H31" s="79">
+        <f t="shared" si="1"/>
+        <v>3355.9322033898302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>100948383</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E32" s="24">
+        <v>44757</v>
+      </c>
+      <c r="F32" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>16101.694915254237</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="1"/>
+        <v>2898.3050847457625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>103468675</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="E33" s="26">
+        <v>44758</v>
+      </c>
+      <c r="F33" s="18">
+        <v>9000</v>
+      </c>
+      <c r="G33" s="18">
+        <f>F33*100/118</f>
+        <v>7627.1186440677966</v>
+      </c>
+      <c r="H33" s="18">
+        <f>G33*18%</f>
+        <v>1372.8813559322034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="76">
+        <v>102181072</v>
+      </c>
+      <c r="B34" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="76" t="s">
+        <v>652</v>
+      </c>
+      <c r="E34" s="78">
+        <v>44758</v>
+      </c>
+      <c r="F34" s="79">
+        <v>16500</v>
+      </c>
+      <c r="G34" s="79">
+        <f t="shared" si="0"/>
+        <v>13983.050847457627</v>
+      </c>
+      <c r="H34" s="79">
+        <f t="shared" si="1"/>
+        <v>2516.9491525423728</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="81">
+        <v>101835184</v>
+      </c>
+      <c r="B35" s="77" t="s">
+        <v>653</v>
+      </c>
+      <c r="C35" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="76" t="s">
+        <v>654</v>
+      </c>
+      <c r="E35" s="78">
+        <v>44758</v>
+      </c>
+      <c r="F35" s="79">
+        <v>10000</v>
+      </c>
+      <c r="G35" s="79">
+        <f>F35*100/118</f>
+        <v>8474.5762711864409</v>
+      </c>
+      <c r="H35" s="79">
+        <f>G35*18%</f>
+        <v>1525.4237288135594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="76">
+        <v>102416331</v>
+      </c>
+      <c r="B36" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>655</v>
+      </c>
+      <c r="E36" s="78">
+        <v>44758</v>
+      </c>
+      <c r="F36" s="79">
+        <v>5900</v>
+      </c>
+      <c r="G36" s="79">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="H36" s="79">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="76">
+        <v>101973284</v>
+      </c>
+      <c r="B37" s="77" t="s">
+        <v>517</v>
+      </c>
+      <c r="C37" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="76" t="s">
+        <v>682</v>
+      </c>
+      <c r="E37" s="78">
+        <v>44758</v>
+      </c>
+      <c r="F37" s="79">
+        <v>2400</v>
+      </c>
+      <c r="G37" s="79">
+        <f t="shared" si="0"/>
+        <v>2033.8983050847457</v>
+      </c>
+      <c r="H37" s="79">
+        <f t="shared" si="1"/>
+        <v>366.1016949152542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="76">
+        <v>101835184</v>
+      </c>
+      <c r="B38" s="77" t="s">
+        <v>653</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="76" t="s">
+        <v>683</v>
+      </c>
+      <c r="E38" s="78">
+        <v>44758</v>
+      </c>
+      <c r="F38" s="79">
+        <v>6000</v>
+      </c>
+      <c r="G38" s="79">
+        <f t="shared" si="0"/>
+        <v>5084.7457627118647</v>
+      </c>
+      <c r="H38" s="79">
+        <f t="shared" si="1"/>
+        <v>915.25423728813564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="76">
+        <v>100948383</v>
+      </c>
+      <c r="B39" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="C39" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="76" t="s">
+        <v>656</v>
+      </c>
+      <c r="E39" s="78">
+        <v>44758</v>
+      </c>
+      <c r="F39" s="79">
+        <v>68200</v>
+      </c>
+      <c r="G39" s="79">
+        <f t="shared" si="0"/>
+        <v>57796.610169491527</v>
+      </c>
+      <c r="H39" s="79">
+        <f t="shared" si="1"/>
+        <v>10403.389830508475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>119622565</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E40" s="24">
+        <v>44760</v>
+      </c>
+      <c r="F40" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" ref="G40:G68" si="2">F40*100/118</f>
+        <v>11864.406779661016</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" ref="H40:H68" si="3">G40*18%</f>
+        <v>2135.593220338983</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>119622565</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>658</v>
+      </c>
+      <c r="E41" s="59">
+        <v>44753</v>
+      </c>
+      <c r="F41" s="52">
+        <v>14000</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="2"/>
+        <v>11864.406779661016</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="3"/>
+        <v>2135.593220338983</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>119622565</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>659</v>
+      </c>
+      <c r="E42" s="59">
+        <v>44753</v>
+      </c>
+      <c r="F42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="2"/>
+        <v>11864.406779661016</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="3"/>
+        <v>2135.593220338983</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>102781542</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E43" s="24">
+        <v>44760</v>
+      </c>
+      <c r="F43" s="3">
+        <v>287500</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="2"/>
+        <v>243644.06779661018</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="3"/>
+        <v>43855.932203389828</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="76">
+        <v>100948383</v>
+      </c>
+      <c r="B44" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="C44" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="76" t="s">
+        <v>661</v>
+      </c>
+      <c r="E44" s="78">
+        <v>44760</v>
+      </c>
+      <c r="F44" s="79">
+        <v>71100</v>
+      </c>
+      <c r="G44" s="79">
+        <f t="shared" si="2"/>
+        <v>60254.237288135591</v>
+      </c>
+      <c r="H44" s="79">
+        <f t="shared" si="3"/>
+        <v>10845.762711864407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="76">
+        <v>100948383</v>
+      </c>
+      <c r="B45" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="C45" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="76" t="s">
+        <v>662</v>
+      </c>
+      <c r="E45" s="78">
+        <v>44760</v>
+      </c>
+      <c r="F45" s="79">
+        <v>29500</v>
+      </c>
+      <c r="G45" s="79">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="H45" s="79">
+        <f t="shared" si="3"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>106286070</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E46" s="24">
+        <v>44761</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="2"/>
+        <v>4237.2881355932204</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="3"/>
+        <v>762.71186440677968</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>103370539</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E47" s="24">
+        <v>44761</v>
+      </c>
+      <c r="F47" s="3">
+        <v>151022.29999999999</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="2"/>
+        <v>127984.99999999999</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="3"/>
+        <v>23037.299999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="76">
+        <v>102181072</v>
+      </c>
+      <c r="B48" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="76" t="s">
+        <v>665</v>
+      </c>
+      <c r="E48" s="78">
+        <v>44763</v>
+      </c>
+      <c r="F48" s="79">
+        <v>13300</v>
+      </c>
+      <c r="G48" s="79">
+        <f t="shared" si="2"/>
+        <v>11271.186440677966</v>
+      </c>
+      <c r="H48" s="79">
+        <f t="shared" si="3"/>
+        <v>2028.8135593220338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>102781542</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E49" s="24">
+        <v>44763</v>
+      </c>
+      <c r="F49" s="3">
+        <v>125900</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="2"/>
+        <v>106694.91525423729</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="3"/>
+        <v>19205.084745762713</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>101526614</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E50" s="24">
+        <v>44763</v>
+      </c>
+      <c r="F50" s="3">
+        <v>26000</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="2"/>
+        <v>22033.898305084746</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="3"/>
+        <v>3966.101694915254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>106286070</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E51" s="35">
+        <v>44765</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="2"/>
+        <v>2118.6440677966102</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="3"/>
+        <v>381.35593220338984</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>102781542</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E52" s="24">
+        <v>44767</v>
+      </c>
+      <c r="F52" s="3">
+        <v>160300</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="2"/>
+        <v>135847.45762711865</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="3"/>
+        <v>24452.542372881355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="76">
+        <v>102181072</v>
+      </c>
+      <c r="B53" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="76" t="s">
+        <v>670</v>
+      </c>
+      <c r="E53" s="78">
+        <v>44767</v>
+      </c>
+      <c r="F53" s="79">
+        <v>15000</v>
+      </c>
+      <c r="G53" s="79">
+        <f t="shared" si="2"/>
+        <v>12711.864406779661</v>
+      </c>
+      <c r="H53" s="79">
+        <f t="shared" si="3"/>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>103372638</v>
+      </c>
+      <c r="B54" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E54" s="24">
+        <v>44769</v>
+      </c>
+      <c r="F54" s="3">
+        <v>99746.52</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="2"/>
+        <v>84530.94915254238</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="3"/>
+        <v>15215.570847457628</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>103372638</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E55" s="27">
+        <v>44769</v>
+      </c>
+      <c r="F55" s="3">
+        <v>299239.57</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="2"/>
+        <v>253592.85593220338</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="3"/>
+        <v>45646.714067796609</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>106286070</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E56" s="27">
+        <v>44767</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="2"/>
+        <v>2118.6440677966102</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="3"/>
+        <v>381.35593220338984</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>102213906</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E57" s="24">
+        <v>44754</v>
+      </c>
+      <c r="F57" s="3">
+        <v>300000</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="2"/>
+        <v>254237.28813559323</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="3"/>
+        <v>45762.711864406781</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="67">
+        <v>113472758</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E58" s="24">
+        <v>44770</v>
+      </c>
+      <c r="F58" s="3">
+        <v>44500</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="2"/>
+        <v>37711.864406779663</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="3"/>
+        <v>6788.1355932203387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="67">
+        <v>106286070</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E59" s="24">
+        <v>44772</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="2"/>
+        <v>2118.6440677966102</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="3"/>
+        <v>381.35593220338984</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="67">
+        <v>102246990</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E60" s="24">
+        <v>44773</v>
+      </c>
+      <c r="F60" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="2"/>
+        <v>7796.6101694915251</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="3"/>
+        <v>1403.3898305084745</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="67">
+        <v>101506622</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E61" s="24">
+        <v>44773</v>
+      </c>
+      <c r="F61" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="2"/>
+        <v>7796.6101694915251</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="3"/>
+        <v>1403.3898305084745</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="67">
+        <v>101585951</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E62" s="24">
+        <v>44743</v>
+      </c>
+      <c r="F62" s="3">
+        <v>199831</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="2"/>
+        <v>169348.30508474575</v>
+      </c>
+      <c r="H62" s="3">
+        <v>35969.629999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="67">
+        <v>100948383</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E63" s="24">
+        <v>44755</v>
+      </c>
+      <c r="F63" s="3">
+        <v>15677</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="2"/>
+        <v>13285.593220338984</v>
+      </c>
+      <c r="H63" s="3">
+        <v>2822.03</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="67">
+        <v>106377841</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E64" s="24">
+        <v>44755</v>
+      </c>
+      <c r="F64" s="3">
+        <v>10169</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="2"/>
+        <v>8617.796610169491</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1830.51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="67">
+        <v>102089702</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E65" s="24">
+        <v>44764</v>
+      </c>
+      <c r="F65" s="3">
+        <v>8474</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="2"/>
+        <v>7181.3559322033898</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1525.42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="67">
+        <v>102213906</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E66" s="24">
+        <v>44771</v>
+      </c>
+      <c r="F66" s="3">
+        <v>254237</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="2"/>
+        <v>215455.08474576272</v>
+      </c>
+      <c r="H66" s="3">
+        <v>45762.71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="67">
+        <v>111601197</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E67" s="24">
+        <v>44771</v>
+      </c>
+      <c r="F67" s="3">
+        <v>57627</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="2"/>
+        <v>48836.4406779661</v>
+      </c>
+      <c r="H67" s="3">
+        <v>10372.879999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="62">
+        <f>SUM(F2:F67)</f>
+        <v>11325451.390000001</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="2"/>
+        <v>9597840.1610169485</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="3"/>
+        <v>1727611.2289830507</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H68" xr:uid="{4A2EABD0-064E-47FC-854C-94ECC04F6548}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A68:E68"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>